--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/NRE.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/NRE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\财务报价核价系统\gqq开发优化分支\Finance\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\财务报价核价系统__V2\后端外包基础库分支GitHub_gqq\finance_back\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF7F702-3EDF-42AE-9361-6AEE9CE0557F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECF2FDA-B227-47DF-810E-307ED10BB78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="219">
   <si>
     <t>密级：</t>
   </si>
@@ -951,6 +950,14 @@
   </si>
   <si>
     <t>{{LaboratoryFeeModels.Count}}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备状态</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ProductionEquipmentCost.DeviceStatusName}}</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1124,7 +1131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1313,13 +1320,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFF00"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFF00"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFF00"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1451,17 +1497,60 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1469,49 +1558,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1532,6 +1582,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1541,53 +1594,47 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1599,7 +1646,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1992,11 +2043,11 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="2"/>
@@ -2011,42 +2062,42 @@
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="99"/>
+      <c r="J2" s="57"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="61" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
       <c r="I4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2055,18 +2106,18 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="61" t="s">
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
       <c r="I5" s="6" t="s">
         <v>7</v>
       </c>
@@ -2075,18 +2126,18 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
@@ -2094,12 +2145,12 @@
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
@@ -2120,12 +2171,12 @@
     </row>
     <row r="8" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="88"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
       <c r="H8" s="12"/>
@@ -2137,32 +2188,32 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="71"/>
       <c r="I10" s="15">
         <f>SUM(I8:I9)</f>
         <v>0</v>
@@ -2172,18 +2223,18 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="96"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="73"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
@@ -2191,12 +2242,12 @@
       <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="9" t="s">
         <v>22</v>
       </c>
@@ -2217,12 +2268,12 @@
     </row>
     <row r="13" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="12"/>
@@ -2234,16 +2285,16 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="91"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="71"/>
       <c r="I14" s="15">
         <f>SUM(I13)</f>
         <v>0</v>
@@ -2253,34 +2304,34 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="94"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="77"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
@@ -2288,12 +2339,12 @@
       <c r="A17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="9" t="s">
         <v>29</v>
       </c>
@@ -2316,12 +2367,12 @@
       <c r="A18" s="19">
         <v>1</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
       <c r="F18" s="9"/>
       <c r="G18" s="21"/>
       <c r="H18" s="9"/>
@@ -2336,10 +2387,10 @@
       <c r="A19" s="19">
         <v>1</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="78"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
       <c r="F19" s="9"/>
       <c r="G19" s="21"/>
       <c r="H19" s="9"/>
@@ -2349,29 +2400,29 @@
       <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="81"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="83"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="60"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="75"/>
       <c r="F21" s="9" t="s">
         <v>29</v>
       </c>
@@ -2394,12 +2445,12 @@
       <c r="A22" s="19">
         <v>1</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
       <c r="F22" s="9" t="s">
         <v>29</v>
       </c>
@@ -2416,12 +2467,12 @@
       <c r="A23" s="19">
         <v>2</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="9" t="s">
         <v>29</v>
       </c>
@@ -2436,12 +2487,12 @@
       <c r="A24" s="19">
         <v>3</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="19" t="s">
         <v>29</v>
       </c>
@@ -2456,12 +2507,12 @@
       <c r="A25" s="19">
         <v>4</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="78"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="80"/>
       <c r="F25" s="19" t="s">
         <v>29</v>
       </c>
@@ -2476,12 +2527,12 @@
       <c r="A26" s="19">
         <v>5</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="78"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="80"/>
       <c r="F26" s="19" t="s">
         <v>29</v>
       </c>
@@ -2496,12 +2547,12 @@
       <c r="A27" s="19">
         <v>6</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="78"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="80"/>
       <c r="F27" s="8" t="s">
         <v>29</v>
       </c>
@@ -2516,12 +2567,12 @@
       <c r="A28" s="19">
         <v>7</v>
       </c>
-      <c r="B28" s="85" t="s">
+      <c r="B28" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="80"/>
       <c r="F28" s="8" t="s">
         <v>29</v>
       </c>
@@ -2536,12 +2587,12 @@
       <c r="A29" s="19">
         <v>8</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="78"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="8" t="s">
         <v>29</v>
       </c>
@@ -2556,12 +2607,12 @@
       <c r="A30" s="19">
         <v>9</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="78"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="80"/>
       <c r="F30" s="8" t="s">
         <v>29</v>
       </c>
@@ -2576,12 +2627,12 @@
       <c r="A31" s="19">
         <v>10</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="78"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="80"/>
       <c r="F31" s="8" t="s">
         <v>29</v>
       </c>
@@ -2596,12 +2647,12 @@
       <c r="A32" s="19">
         <v>11</v>
       </c>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="78"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="80"/>
       <c r="F32" s="8" t="s">
         <v>29</v>
       </c>
@@ -2613,29 +2664,29 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="81"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="83"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="60"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="75"/>
       <c r="F34" s="9" t="s">
         <v>29</v>
       </c>
@@ -2658,10 +2709,10 @@
       <c r="A35" s="8">
         <v>1</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="84"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="87"/>
       <c r="F35" s="9" t="s">
         <v>29</v>
       </c>
@@ -2681,10 +2732,10 @@
       <c r="A36" s="8">
         <v>2</v>
       </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="84"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="87"/>
       <c r="F36" s="9" t="s">
         <v>29</v>
       </c>
@@ -2699,16 +2750,16 @@
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="63"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="68"/>
       <c r="I37" s="15">
         <f>SUM(I18:I36)</f>
         <v>0</v>
@@ -2718,18 +2769,18 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
@@ -2737,12 +2788,12 @@
       <c r="A39" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="78"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="80"/>
       <c r="F39" s="9" t="s">
         <v>29</v>
       </c>
@@ -2765,12 +2816,12 @@
       <c r="A40" s="19">
         <v>1</v>
       </c>
-      <c r="B40" s="76" t="s">
+      <c r="B40" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="78"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="80"/>
       <c r="F40" s="9" t="s">
         <v>29</v>
       </c>
@@ -2787,12 +2838,12 @@
       <c r="A41" s="19">
         <v>2</v>
       </c>
-      <c r="B41" s="76" t="s">
+      <c r="B41" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="78"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="80"/>
       <c r="F41" s="9" t="s">
         <v>29</v>
       </c>
@@ -2807,12 +2858,12 @@
       <c r="A42" s="19">
         <v>3</v>
       </c>
-      <c r="B42" s="76" t="s">
+      <c r="B42" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="78"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="80"/>
       <c r="F42" s="9" t="s">
         <v>29</v>
       </c>
@@ -2827,12 +2878,12 @@
       <c r="A43" s="19">
         <v>4</v>
       </c>
-      <c r="B43" s="76" t="s">
+      <c r="B43" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="78"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="80"/>
       <c r="F43" s="9" t="s">
         <v>29</v>
       </c>
@@ -2847,12 +2898,12 @@
       <c r="A44" s="19">
         <v>5</v>
       </c>
-      <c r="B44" s="76" t="s">
+      <c r="B44" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="78"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="80"/>
       <c r="F44" s="9" t="s">
         <v>29</v>
       </c>
@@ -2867,12 +2918,12 @@
       <c r="A45" s="19">
         <v>6</v>
       </c>
-      <c r="B45" s="76" t="s">
+      <c r="B45" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="78"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="80"/>
       <c r="F45" s="9" t="s">
         <v>29</v>
       </c>
@@ -2887,12 +2938,12 @@
       <c r="A46" s="19">
         <v>7</v>
       </c>
-      <c r="B46" s="76" t="s">
+      <c r="B46" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="78"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="80"/>
       <c r="F46" s="9" t="s">
         <v>29</v>
       </c>
@@ -2904,16 +2955,16 @@
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="63"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="68"/>
       <c r="I47" s="15">
         <f>SUM(I40:I46)</f>
         <v>0</v>
@@ -2923,34 +2974,34 @@
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="69" t="s">
+      <c r="A48" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="69"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="73" t="s">
+      <c r="A49" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="74"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74"/>
-      <c r="J49" s="75"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="90"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
@@ -2958,12 +3009,12 @@
       <c r="A50" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="76" t="s">
+      <c r="B50" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="78"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="80"/>
       <c r="F50" s="9" t="s">
         <v>29</v>
       </c>
@@ -2984,12 +3035,12 @@
     </row>
     <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="76" t="s">
+      <c r="B51" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="78"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="80"/>
       <c r="F51" s="9"/>
       <c r="G51" s="15"/>
       <c r="H51" s="9"/>
@@ -3001,16 +3052,16 @@
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="61" t="s">
+      <c r="A52" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="63"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="68"/>
       <c r="I52" s="15">
         <v>0</v>
       </c>
@@ -3019,18 +3070,18 @@
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="69" t="s">
+      <c r="A53" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="69"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="69"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
@@ -3038,12 +3089,12 @@
       <c r="A54" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="60"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="75"/>
       <c r="F54" s="9"/>
       <c r="G54" s="15" t="s">
         <v>66</v>
@@ -3064,10 +3115,10 @@
       <c r="A55" s="8">
         <v>1</v>
       </c>
-      <c r="B55" s="58"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="60"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="75"/>
       <c r="F55" s="9"/>
       <c r="G55" s="15"/>
       <c r="H55" s="9"/>
@@ -3080,10 +3131,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="60"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="75"/>
       <c r="F56" s="9"/>
       <c r="G56" s="15"/>
       <c r="H56" s="9"/>
@@ -3093,16 +3144,16 @@
       <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="61" t="s">
+      <c r="A57" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="62"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="63"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="68"/>
       <c r="I57" s="15">
         <f>SUM(I55:I56)</f>
         <v>0</v>
@@ -3112,18 +3163,18 @@
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="68" t="s">
+      <c r="A58" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="B58" s="69"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="69"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="62"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
@@ -3131,13 +3182,13 @@
       <c r="A59" s="8">
         <v>1</v>
       </c>
-      <c r="B59" s="70" t="s">
+      <c r="B59" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="71"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="72"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="94"/>
       <c r="G59" s="29" t="s">
         <v>71</v>
       </c>
@@ -3153,13 +3204,13 @@
       <c r="A60" s="30">
         <v>2</v>
       </c>
-      <c r="B60" s="70" t="s">
+      <c r="B60" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="71"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="72"/>
+      <c r="C60" s="93"/>
+      <c r="D60" s="93"/>
+      <c r="E60" s="93"/>
+      <c r="F60" s="94"/>
       <c r="G60" s="31"/>
       <c r="H60" s="32"/>
       <c r="I60" s="29"/>
@@ -3171,13 +3222,13 @@
       <c r="A61" s="8">
         <v>3</v>
       </c>
-      <c r="B61" s="70" t="s">
+      <c r="B61" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="72"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="94"/>
       <c r="G61" s="21"/>
       <c r="H61" s="9"/>
       <c r="I61" s="29"/>
@@ -3189,13 +3240,13 @@
       <c r="A62" s="30">
         <v>4</v>
       </c>
-      <c r="B62" s="70" t="s">
+      <c r="B62" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="72"/>
+      <c r="C62" s="93"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="94"/>
       <c r="G62" s="21"/>
       <c r="H62" s="9"/>
       <c r="I62" s="29"/>
@@ -3207,11 +3258,11 @@
       <c r="A63" s="8">
         <v>5</v>
       </c>
-      <c r="B63" s="58"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="60"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="75"/>
       <c r="G63" s="21"/>
       <c r="H63" s="9"/>
       <c r="I63" s="29"/>
@@ -3220,16 +3271,16 @@
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="61" t="s">
+      <c r="A64" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="62"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="62"/>
-      <c r="H64" s="63"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="68"/>
       <c r="I64" s="21">
         <f>SUM(I59:I63)</f>
         <v>0</v>
@@ -3239,16 +3290,16 @@
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="64" t="s">
+      <c r="A65" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="66"/>
+      <c r="B65" s="99"/>
+      <c r="C65" s="99"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="99"/>
+      <c r="F65" s="99"/>
+      <c r="G65" s="99"/>
+      <c r="H65" s="100"/>
       <c r="I65" s="35">
         <f>I10+I14+I37+I47+I52+I57+I64</f>
         <v>0</v>
@@ -3258,16 +3309,16 @@
       <c r="L65" s="2"/>
     </row>
     <row r="66" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="64" t="s">
+      <c r="A66" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="65"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="66"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="99"/>
+      <c r="H66" s="100"/>
       <c r="I66" s="35">
         <f>I65/6.89</f>
         <v>0</v>
@@ -3277,8 +3328,8 @@
       <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="67"/>
-      <c r="B67" s="67"/>
+      <c r="A67" s="101"/>
+      <c r="B67" s="101"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
       <c r="E67" s="36"/>
@@ -3291,22 +3342,22 @@
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="55" t="s">
+      <c r="A68" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="55"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55" t="s">
+      <c r="B68" s="95"/>
+      <c r="C68" s="95"/>
+      <c r="D68" s="95"/>
+      <c r="E68" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="F68" s="55"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="55" t="s">
+      <c r="F68" s="95"/>
+      <c r="G68" s="95"/>
+      <c r="H68" s="95"/>
+      <c r="I68" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="J68" s="55"/>
+      <c r="J68" s="95"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
@@ -3319,10 +3370,10 @@
       <c r="F69" s="4"/>
       <c r="G69" s="5"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="56" t="s">
+      <c r="I69" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="J69" s="57"/>
+      <c r="J69" s="97"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
@@ -5176,72 +5227,6 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="E68:H68"/>
     <mergeCell ref="I68:J68"/>
@@ -5251,6 +5236,72 @@
     <mergeCell ref="A65:H65"/>
     <mergeCell ref="A66:H66"/>
     <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5322,35 +5373,35 @@
     </row>
     <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="38"/>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="61" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
       <c r="J5" s="6" t="s">
         <v>4</v>
       </c>
@@ -5360,18 +5411,18 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="38"/>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="61" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="6" t="s">
         <v>7</v>
       </c>
@@ -5381,18 +5432,18 @@
     </row>
     <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
     </row>
@@ -5401,12 +5452,12 @@
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="9" t="s">
         <v>11</v>
       </c>
@@ -5430,12 +5481,12 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="88"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
       <c r="I9" s="12"/>
@@ -5446,16 +5497,16 @@
     </row>
     <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="38"/>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="63"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="68"/>
       <c r="J10" s="15"/>
       <c r="K10" s="16"/>
       <c r="L10" s="38"/>
@@ -5463,16 +5514,16 @@
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="38"/>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="91"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="71"/>
       <c r="J11" s="15">
         <f>SUM(J9:J10)</f>
         <v>0</v>
@@ -5483,18 +5534,18 @@
     </row>
     <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="73"/>
       <c r="L12" s="39" t="s">
         <v>93</v>
       </c>
@@ -5505,12 +5556,12 @@
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="75"/>
       <c r="G13" s="9" t="s">
         <v>22</v>
       </c>
@@ -5534,12 +5585,12 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="38"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="88"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="66"/>
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
       <c r="I14" s="12"/>
@@ -5554,16 +5605,16 @@
     </row>
     <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="91"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="71"/>
       <c r="J15" s="15">
         <f>SUM(J14)</f>
         <v>0</v>
@@ -5576,18 +5627,18 @@
     </row>
     <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
     </row>
@@ -5596,12 +5647,12 @@
       <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="75"/>
       <c r="G17" s="9" t="s">
         <v>29</v>
       </c>
@@ -5627,12 +5678,12 @@
       <c r="B18" s="19">
         <v>1</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="80"/>
       <c r="G18" s="9"/>
       <c r="H18" s="21"/>
       <c r="I18" s="9"/>
@@ -5646,10 +5697,10 @@
       <c r="B19" s="19">
         <v>1</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="80"/>
       <c r="G19" s="9"/>
       <c r="H19" s="21"/>
       <c r="I19" s="9"/>
@@ -5660,30 +5711,30 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="81"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="83"/>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="38"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="75"/>
       <c r="G21" s="9" t="s">
         <v>29</v>
       </c>
@@ -5709,12 +5760,12 @@
       <c r="B22" s="19">
         <v>1</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="78"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="80"/>
       <c r="G22" s="9" t="s">
         <v>29</v>
       </c>
@@ -5730,12 +5781,12 @@
       <c r="B23" s="19">
         <v>2</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
       <c r="G23" s="9" t="s">
         <v>29</v>
       </c>
@@ -5751,12 +5802,12 @@
       <c r="B24" s="19">
         <v>3</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="80"/>
       <c r="G24" s="19" t="s">
         <v>29</v>
       </c>
@@ -5772,12 +5823,12 @@
       <c r="B25" s="19">
         <v>4</v>
       </c>
-      <c r="C25" s="76" t="s">
+      <c r="C25" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="80"/>
       <c r="G25" s="19" t="s">
         <v>29</v>
       </c>
@@ -5793,12 +5844,12 @@
       <c r="B26" s="19">
         <v>5</v>
       </c>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="78"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="80"/>
       <c r="G26" s="19" t="s">
         <v>29</v>
       </c>
@@ -5814,12 +5865,12 @@
       <c r="B27" s="19">
         <v>6</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="80"/>
       <c r="G27" s="8" t="s">
         <v>29</v>
       </c>
@@ -5835,12 +5886,12 @@
       <c r="B28" s="19">
         <v>7</v>
       </c>
-      <c r="C28" s="101" t="s">
+      <c r="C28" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="78"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="80"/>
       <c r="G28" s="8" t="s">
         <v>29</v>
       </c>
@@ -5856,12 +5907,12 @@
       <c r="B29" s="19">
         <v>8</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="78"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="80"/>
       <c r="G29" s="8" t="s">
         <v>29</v>
       </c>
@@ -5877,12 +5928,12 @@
       <c r="B30" s="19">
         <v>9</v>
       </c>
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="78"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="80"/>
       <c r="G30" s="8" t="s">
         <v>29</v>
       </c>
@@ -5898,12 +5949,12 @@
       <c r="B31" s="19">
         <v>10</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="78"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="80"/>
       <c r="G31" s="8" t="s">
         <v>29</v>
       </c>
@@ -5919,12 +5970,12 @@
       <c r="B32" s="19">
         <v>11</v>
       </c>
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="80"/>
       <c r="G32" s="8" t="s">
         <v>29</v>
       </c>
@@ -5937,30 +5988,30 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="38"/>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="81"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="83"/>
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="38"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="60"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="75"/>
       <c r="G34" s="9" t="s">
         <v>29</v>
       </c>
@@ -5986,10 +6037,10 @@
       <c r="B35" s="8">
         <v>1</v>
       </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="84"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="87"/>
       <c r="G35" s="9" t="s">
         <v>29</v>
       </c>
@@ -6008,10 +6059,10 @@
       <c r="B36" s="8">
         <v>2</v>
       </c>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="84"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="87"/>
       <c r="G36" s="9" t="s">
         <v>29</v>
       </c>
@@ -6027,16 +6078,16 @@
     </row>
     <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="38"/>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="63"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="68"/>
       <c r="J37" s="15">
         <f>SUM(J18:J36)</f>
         <v>0</v>
@@ -6047,18 +6098,18 @@
     </row>
     <row r="38" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
     </row>
@@ -6067,12 +6118,12 @@
       <c r="B39" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="76" t="s">
+      <c r="C39" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="78"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="80"/>
       <c r="G39" s="9" t="s">
         <v>29</v>
       </c>
@@ -6098,12 +6149,12 @@
       <c r="B40" s="19">
         <v>1</v>
       </c>
-      <c r="C40" s="76" t="s">
+      <c r="C40" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="78"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="80"/>
       <c r="G40" s="9" t="s">
         <v>29</v>
       </c>
@@ -6119,12 +6170,12 @@
       <c r="B41" s="19">
         <v>2</v>
       </c>
-      <c r="C41" s="76" t="s">
+      <c r="C41" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="78"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="80"/>
       <c r="G41" s="9" t="s">
         <v>29</v>
       </c>
@@ -6140,12 +6191,12 @@
       <c r="B42" s="19">
         <v>3</v>
       </c>
-      <c r="C42" s="76" t="s">
+      <c r="C42" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="78"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="80"/>
       <c r="G42" s="9" t="s">
         <v>29</v>
       </c>
@@ -6161,12 +6212,12 @@
       <c r="B43" s="19">
         <v>4</v>
       </c>
-      <c r="C43" s="76" t="s">
+      <c r="C43" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="78"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="80"/>
       <c r="G43" s="9" t="s">
         <v>29</v>
       </c>
@@ -6182,12 +6233,12 @@
       <c r="B44" s="19">
         <v>5</v>
       </c>
-      <c r="C44" s="76" t="s">
+      <c r="C44" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="78"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="80"/>
       <c r="G44" s="9" t="s">
         <v>29</v>
       </c>
@@ -6203,12 +6254,12 @@
       <c r="B45" s="19">
         <v>6</v>
       </c>
-      <c r="C45" s="76" t="s">
+      <c r="C45" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="78"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="80"/>
       <c r="G45" s="9" t="s">
         <v>29</v>
       </c>
@@ -6224,12 +6275,12 @@
       <c r="B46" s="19">
         <v>7</v>
       </c>
-      <c r="C46" s="76" t="s">
+      <c r="C46" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="78"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="80"/>
       <c r="G46" s="9" t="s">
         <v>29</v>
       </c>
@@ -6242,16 +6293,16 @@
     </row>
     <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="38"/>
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="63"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="68"/>
       <c r="J47" s="15">
         <f>SUM(J40:J46)</f>
         <v>0</v>
@@ -6262,35 +6313,35 @@
     </row>
     <row r="48" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
-      <c r="B48" s="69" t="s">
+      <c r="B48" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="69"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="38"/>
-      <c r="B49" s="73" t="s">
+      <c r="B49" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="75"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="90"/>
       <c r="L49" s="38"/>
       <c r="M49" s="38"/>
     </row>
@@ -6299,12 +6350,12 @@
       <c r="B50" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="76" t="s">
+      <c r="C50" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="78"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="80"/>
       <c r="G50" s="9" t="s">
         <v>29</v>
       </c>
@@ -6326,12 +6377,12 @@
     <row r="51" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="38"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="76" t="s">
+      <c r="C51" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="78"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="80"/>
       <c r="G51" s="9"/>
       <c r="H51" s="15"/>
       <c r="I51" s="9"/>
@@ -6344,16 +6395,16 @@
     </row>
     <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="38"/>
-      <c r="B52" s="61" t="s">
+      <c r="B52" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="63"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="68"/>
       <c r="J52" s="15">
         <v>0</v>
       </c>
@@ -6363,18 +6414,18 @@
     </row>
     <row r="53" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
-      <c r="B53" s="69" t="s">
+      <c r="B53" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="69"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
       <c r="L53" s="38"/>
       <c r="M53" s="38"/>
     </row>
@@ -6383,12 +6434,12 @@
       <c r="B54" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="60"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="75"/>
       <c r="G54" s="9"/>
       <c r="H54" s="15" t="s">
         <v>66</v>
@@ -6410,10 +6461,10 @@
       <c r="B55" s="8">
         <v>1</v>
       </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="60"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="75"/>
       <c r="G55" s="9"/>
       <c r="H55" s="15"/>
       <c r="I55" s="9"/>
@@ -6427,10 +6478,10 @@
     <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="38"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="60"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="75"/>
       <c r="G56" s="9"/>
       <c r="H56" s="15"/>
       <c r="I56" s="9"/>
@@ -6441,16 +6492,16 @@
     </row>
     <row r="57" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="38"/>
-      <c r="B57" s="61" t="s">
+      <c r="B57" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="63"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="68"/>
       <c r="J57" s="15">
         <f>SUM(J55:J56)</f>
         <v>0</v>
@@ -6461,18 +6512,18 @@
     </row>
     <row r="58" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A58" s="38"/>
-      <c r="B58" s="68" t="s">
+      <c r="B58" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="62"/>
       <c r="L58" s="38"/>
       <c r="M58" s="38"/>
     </row>
@@ -6481,13 +6532,13 @@
       <c r="B59" s="8">
         <v>1</v>
       </c>
-      <c r="C59" s="70" t="s">
+      <c r="C59" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="71"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="72"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="94"/>
       <c r="H59" s="29" t="s">
         <v>71</v>
       </c>
@@ -6504,13 +6555,13 @@
       <c r="B60" s="30">
         <v>2</v>
       </c>
-      <c r="C60" s="70" t="s">
+      <c r="C60" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="71"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="72"/>
+      <c r="D60" s="93"/>
+      <c r="E60" s="93"/>
+      <c r="F60" s="93"/>
+      <c r="G60" s="94"/>
       <c r="H60" s="34"/>
       <c r="I60" s="32"/>
       <c r="J60" s="29"/>
@@ -6523,13 +6574,13 @@
       <c r="B61" s="8">
         <v>3</v>
       </c>
-      <c r="C61" s="70" t="s">
+      <c r="C61" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="72"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="93"/>
+      <c r="G61" s="94"/>
       <c r="H61" s="21"/>
       <c r="I61" s="9"/>
       <c r="J61" s="29"/>
@@ -6542,13 +6593,13 @@
       <c r="B62" s="30">
         <v>4</v>
       </c>
-      <c r="C62" s="70" t="s">
+      <c r="C62" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="72"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="94"/>
       <c r="H62" s="21"/>
       <c r="I62" s="9"/>
       <c r="J62" s="29"/>
@@ -6561,11 +6612,11 @@
       <c r="B63" s="8">
         <v>5</v>
       </c>
-      <c r="C63" s="58"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="60"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="75"/>
       <c r="H63" s="21"/>
       <c r="I63" s="9"/>
       <c r="J63" s="29"/>
@@ -6575,16 +6626,16 @@
     </row>
     <row r="64" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="38"/>
-      <c r="B64" s="61" t="s">
+      <c r="B64" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="62"/>
-      <c r="H64" s="62"/>
-      <c r="I64" s="63"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="68"/>
       <c r="J64" s="21">
         <f>SUM(J59:J63)</f>
         <v>0</v>
@@ -6595,16 +6646,16 @@
     </row>
     <row r="65" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="38"/>
-      <c r="B65" s="64" t="s">
+      <c r="B65" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="65"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="66"/>
+      <c r="C65" s="99"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="99"/>
+      <c r="F65" s="99"/>
+      <c r="G65" s="99"/>
+      <c r="H65" s="99"/>
+      <c r="I65" s="100"/>
       <c r="J65" s="35">
         <f>J11+J15+J37+J47+J52+J57+J64</f>
         <v>0</v>
@@ -6615,16 +6666,16 @@
     </row>
     <row r="66" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="38"/>
-      <c r="B66" s="64" t="s">
+      <c r="B66" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="65"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="66"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="99"/>
+      <c r="H66" s="99"/>
+      <c r="I66" s="100"/>
       <c r="J66" s="35">
         <f>J65/6.89</f>
         <v>0</v>
@@ -8660,6 +8711,66 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:K58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
@@ -8667,66 +8778,6 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:K48"/>
-    <mergeCell ref="B49:K49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:K53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:K58"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="B66:I66"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8799,18 +8850,18 @@
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
     </row>
@@ -8820,12 +8871,12 @@
       <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
@@ -8882,10 +8933,10 @@
       <c r="A8" s="38"/>
       <c r="B8" s="38"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="88"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
       <c r="J8" s="12"/>
@@ -8897,16 +8948,16 @@
     <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="63"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="68"/>
       <c r="K9" s="15"/>
       <c r="L9" s="16"/>
       <c r="M9" s="38"/>
@@ -8915,16 +8966,16 @@
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="91"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
       <c r="K10" s="15">
         <f>SUM(K8:K9)</f>
         <v>0</v>
@@ -8936,18 +8987,18 @@
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="38"/>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
     </row>
@@ -8955,12 +9006,12 @@
       <c r="A12" s="38"/>
       <c r="B12" s="38"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="75"/>
       <c r="H12" s="9" t="s">
         <v>29</v>
       </c>
@@ -8987,10 +9038,10 @@
       <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="87"/>
       <c r="H13" s="9" t="s">
         <v>29</v>
       </c>
@@ -9010,10 +9061,10 @@
       <c r="C14" s="8">
         <v>2</v>
       </c>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="87"/>
       <c r="H14" s="9" t="s">
         <v>29</v>
       </c>
@@ -9030,16 +9081,16 @@
     <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="63"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="68"/>
       <c r="K15" s="15">
         <f>SUM(K12:K14)</f>
         <v>0</v>
@@ -9051,36 +9102,36 @@
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="75"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="90"/>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
     </row>
@@ -9090,12 +9141,12 @@
       <c r="C18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="78"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="80"/>
       <c r="H18" s="9" t="s">
         <v>29</v>
       </c>
@@ -9120,12 +9171,12 @@
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="76" t="s">
+      <c r="D19" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="78"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="80"/>
       <c r="H19" s="9"/>
       <c r="I19" s="15"/>
       <c r="J19" s="9"/>
@@ -9139,16 +9190,16 @@
     <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="63"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
       <c r="K20" s="15">
         <v>0</v>
       </c>
@@ -9159,18 +9210,18 @@
     <row r="21" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
     </row>
@@ -9180,11 +9231,11 @@
       <c r="C22" s="8">
         <v>1</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="72"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="94"/>
       <c r="I22" s="29" t="s">
         <v>71</v>
       </c>
@@ -9202,11 +9253,11 @@
       <c r="C23" s="30">
         <v>2</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="72"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="94"/>
       <c r="I23" s="34"/>
       <c r="J23" s="32"/>
       <c r="K23" s="29"/>
@@ -9220,11 +9271,11 @@
       <c r="C24" s="8">
         <v>3</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="72"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="94"/>
       <c r="I24" s="21"/>
       <c r="J24" s="9"/>
       <c r="K24" s="29"/>
@@ -9238,11 +9289,11 @@
       <c r="C25" s="30">
         <v>4</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="72"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="94"/>
       <c r="I25" s="21"/>
       <c r="J25" s="9"/>
       <c r="K25" s="29"/>
@@ -9256,11 +9307,11 @@
       <c r="C26" s="8">
         <v>5</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="60"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
       <c r="I26" s="21"/>
       <c r="J26" s="9"/>
       <c r="K26" s="29"/>
@@ -12070,27 +12121,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="C20:J20"/>
     <mergeCell ref="D26:H26"/>
     <mergeCell ref="C21:L21"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="D23:H23"/>
     <mergeCell ref="D24:H24"/>
     <mergeCell ref="D25:H25"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12102,7 +12153,7 @@
   <dimension ref="A1:K116"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12172,15 +12223,15 @@
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
       <c r="I5" s="41"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -12645,10 +12696,10 @@
       <c r="B27" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="45"/>
+      <c r="D27" s="107"/>
       <c r="E27" s="45"/>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
@@ -12659,14 +12710,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="16" t="s">
+      <c r="D28" s="110" t="s">
+        <v>217</v>
+      </c>
+      <c r="E28" s="48" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="16" t="s">
@@ -12687,10 +12740,12 @@
       <c r="B29" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="53"/>
+      <c r="D29" s="108" t="s">
+        <v>218</v>
+      </c>
       <c r="E29" s="53" t="s">
         <v>158</v>
       </c>
@@ -12729,7 +12784,7 @@
       <c r="B31" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="105" t="s">
+      <c r="C31" s="55" t="s">
         <v>215</v>
       </c>
       <c r="D31" s="45"/>
@@ -13062,13 +13117,13 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="66"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="100"/>
       <c r="G47" s="54" t="s">
         <v>180</v>
       </c>
@@ -13079,13 +13134,13 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="66"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="100"/>
       <c r="G48" s="54" t="s">
         <v>181</v>
       </c>
@@ -13098,11 +13153,11 @@
       <c r="A49" s="2"/>
       <c r="B49" s="49"/>
       <c r="C49" s="37"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="104"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -13114,8 +13169,8 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="97"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>

--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/NRE.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/NRE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\财务报价核价系统__V2\后端外包基础库分支GitHub_gqq\finance_back\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\代码\财务\二开\后端\finance_back\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECF2FDA-B227-47DF-810E-307ED10BB78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD83AFE9-EE94-4E62-B466-82BAFAF830D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="1320" windowWidth="24075" windowHeight="13950" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NRE费用单" sheetId="1" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="224">
   <si>
     <t>密级：</t>
   </si>
@@ -472,6 +472,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}}</t>
@@ -495,6 +496,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}}</t>
@@ -518,6 +520,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}}</t>
@@ -616,22 +619,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>{{LaboratoryFeeModels.TestItem}}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{LaboratoryFeeModels.UnitPrice}}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{LaboratoryFeeModels.AllCost}}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{LaboratoryFeeModels.Remark}}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>{{SoftwareTestingCost.SoftwareProject}}</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -684,10 +671,6 @@
   </si>
   <si>
     <t>{{TravelExpense.Remark}}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{RestsCost.Rroject}}</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -817,6 +800,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}}</t>
@@ -938,6 +922,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}}</t>
@@ -949,15 +934,53 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>{{LaboratoryFeeModels.Count}}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>设备状态</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>{{ProductionEquipmentCost.DeviceStatusName}}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{LaboratoryFeeModels.ProjectName}}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间-摸底</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间-DV</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间-PV</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{LaboratoryFeeModels.AllCost}}</t>
+  </si>
+  <si>
+    <t>{{LaboratoryFeeModels.Remark}}</t>
+  </si>
+  <si>
+    <t>{{LaboratoryFeeModels.CountBottomingOut}}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{LaboratoryFeeModels.CountDV}}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{LaboratoryFeeModels.CountPV}}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{RestsCost.ConstName}}</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -965,10 +988,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="[$-409]d/mmm;@"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -981,52 +1005,61 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0033CC"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0033CC"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0033CC"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1039,6 +1072,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1046,23 +1080,27 @@
       <sz val="12"/>
       <color rgb="FF0033CC"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1100,7 +1138,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1128,6 +1166,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1360,12 +1404,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1498,38 +1543,37 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1537,31 +1581,40 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1582,9 +1635,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1594,47 +1644,53 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1646,14 +1702,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3 2" xfId="1" xr:uid="{D6A2F7F2-07F6-43CA-9F97-63488421A6A8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2043,11 +2095,11 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="2"/>
@@ -2062,42 +2114,42 @@
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="57"/>
+      <c r="J2" s="107"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60" t="s">
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
       <c r="I4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2106,18 +2158,18 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60" t="s">
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
       <c r="I5" s="6" t="s">
         <v>7</v>
       </c>
@@ -2126,18 +2178,18 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
@@ -2145,12 +2197,12 @@
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
       <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
@@ -2171,12 +2223,12 @@
     </row>
     <row r="8" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="96"/>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
       <c r="H8" s="12"/>
@@ -2188,32 +2240,32 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="68"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="71"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="99"/>
       <c r="I10" s="15">
         <f>SUM(I8:I9)</f>
         <v>0</v>
@@ -2223,18 +2275,18 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="73"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="104"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
@@ -2242,12 +2294,12 @@
       <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="9" t="s">
         <v>22</v>
       </c>
@@ -2268,12 +2320,12 @@
     </row>
     <row r="13" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="12"/>
@@ -2285,16 +2337,16 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="71"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="99"/>
       <c r="I14" s="15">
         <f>SUM(I13)</f>
         <v>0</v>
@@ -2304,34 +2356,34 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="77"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="102"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
@@ -2339,12 +2391,12 @@
       <c r="A17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="9" t="s">
         <v>29</v>
       </c>
@@ -2367,12 +2419,12 @@
       <c r="A18" s="19">
         <v>1</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="80"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="86"/>
       <c r="F18" s="9"/>
       <c r="G18" s="21"/>
       <c r="H18" s="9"/>
@@ -2387,10 +2439,10 @@
       <c r="A19" s="19">
         <v>1</v>
       </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="86"/>
       <c r="F19" s="9"/>
       <c r="G19" s="21"/>
       <c r="H19" s="9"/>
@@ -2400,29 +2452,29 @@
       <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="83"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="89"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="75"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="9" t="s">
         <v>29</v>
       </c>
@@ -2445,12 +2497,12 @@
       <c r="A22" s="19">
         <v>1</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="86"/>
       <c r="F22" s="9" t="s">
         <v>29</v>
       </c>
@@ -2467,12 +2519,12 @@
       <c r="A23" s="19">
         <v>2</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="80"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="86"/>
       <c r="F23" s="9" t="s">
         <v>29</v>
       </c>
@@ -2487,12 +2539,12 @@
       <c r="A24" s="19">
         <v>3</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="80"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="86"/>
       <c r="F24" s="19" t="s">
         <v>29</v>
       </c>
@@ -2507,12 +2559,12 @@
       <c r="A25" s="19">
         <v>4</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="80"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="86"/>
       <c r="F25" s="19" t="s">
         <v>29</v>
       </c>
@@ -2527,12 +2579,12 @@
       <c r="A26" s="19">
         <v>5</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="80"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="86"/>
       <c r="F26" s="19" t="s">
         <v>29</v>
       </c>
@@ -2547,12 +2599,12 @@
       <c r="A27" s="19">
         <v>6</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="80"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="86"/>
       <c r="F27" s="8" t="s">
         <v>29</v>
       </c>
@@ -2567,12 +2619,12 @@
       <c r="A28" s="19">
         <v>7</v>
       </c>
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="80"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="86"/>
       <c r="F28" s="8" t="s">
         <v>29</v>
       </c>
@@ -2587,12 +2639,12 @@
       <c r="A29" s="19">
         <v>8</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="86"/>
       <c r="F29" s="8" t="s">
         <v>29</v>
       </c>
@@ -2607,12 +2659,12 @@
       <c r="A30" s="19">
         <v>9</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="80"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="86"/>
       <c r="F30" s="8" t="s">
         <v>29</v>
       </c>
@@ -2627,12 +2679,12 @@
       <c r="A31" s="19">
         <v>10</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="80"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="86"/>
       <c r="F31" s="8" t="s">
         <v>29</v>
       </c>
@@ -2647,12 +2699,12 @@
       <c r="A32" s="19">
         <v>11</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="80"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="86"/>
       <c r="F32" s="8" t="s">
         <v>29</v>
       </c>
@@ -2664,29 +2716,29 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="83"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="89"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="68"/>
       <c r="F34" s="9" t="s">
         <v>29</v>
       </c>
@@ -2709,10 +2761,10 @@
       <c r="A35" s="8">
         <v>1</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="87"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="92"/>
       <c r="F35" s="9" t="s">
         <v>29</v>
       </c>
@@ -2732,10 +2784,10 @@
       <c r="A36" s="8">
         <v>2</v>
       </c>
-      <c r="B36" s="85"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="87"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="92"/>
       <c r="F36" s="9" t="s">
         <v>29</v>
       </c>
@@ -2750,16 +2802,16 @@
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="68"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="71"/>
       <c r="I37" s="15">
         <f>SUM(I18:I36)</f>
         <v>0</v>
@@ -2769,18 +2821,18 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
@@ -2788,12 +2840,12 @@
       <c r="A39" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="80"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="86"/>
       <c r="F39" s="9" t="s">
         <v>29</v>
       </c>
@@ -2816,12 +2868,12 @@
       <c r="A40" s="19">
         <v>1</v>
       </c>
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="80"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="86"/>
       <c r="F40" s="9" t="s">
         <v>29</v>
       </c>
@@ -2838,12 +2890,12 @@
       <c r="A41" s="19">
         <v>2</v>
       </c>
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="80"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="86"/>
       <c r="F41" s="9" t="s">
         <v>29</v>
       </c>
@@ -2858,12 +2910,12 @@
       <c r="A42" s="19">
         <v>3</v>
       </c>
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="80"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="86"/>
       <c r="F42" s="9" t="s">
         <v>29</v>
       </c>
@@ -2878,12 +2930,12 @@
       <c r="A43" s="19">
         <v>4</v>
       </c>
-      <c r="B43" s="78" t="s">
+      <c r="B43" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="80"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="86"/>
       <c r="F43" s="9" t="s">
         <v>29</v>
       </c>
@@ -2898,12 +2950,12 @@
       <c r="A44" s="19">
         <v>5</v>
       </c>
-      <c r="B44" s="78" t="s">
+      <c r="B44" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="80"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="86"/>
       <c r="F44" s="9" t="s">
         <v>29</v>
       </c>
@@ -2918,12 +2970,12 @@
       <c r="A45" s="19">
         <v>6</v>
       </c>
-      <c r="B45" s="78" t="s">
+      <c r="B45" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="80"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="86"/>
       <c r="F45" s="9" t="s">
         <v>29</v>
       </c>
@@ -2938,12 +2990,12 @@
       <c r="A46" s="19">
         <v>7</v>
       </c>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="80"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="86"/>
       <c r="F46" s="9" t="s">
         <v>29</v>
       </c>
@@ -2955,16 +3007,16 @@
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="60" t="s">
+      <c r="A47" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="67"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="68"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="71"/>
       <c r="I47" s="15">
         <f>SUM(I40:I46)</f>
         <v>0</v>
@@ -2974,34 +3026,34 @@
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="77"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="88" t="s">
+      <c r="A49" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="89"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="89"/>
-      <c r="J49" s="90"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="83"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
@@ -3009,12 +3061,12 @@
       <c r="A50" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="78" t="s">
+      <c r="B50" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="79"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="80"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="86"/>
       <c r="F50" s="9" t="s">
         <v>29</v>
       </c>
@@ -3035,12 +3087,12 @@
     </row>
     <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="78" t="s">
+      <c r="B51" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="80"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="86"/>
       <c r="F51" s="9"/>
       <c r="G51" s="15"/>
       <c r="H51" s="9"/>
@@ -3052,16 +3104,16 @@
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="60" t="s">
+      <c r="A52" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="67"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="68"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="71"/>
       <c r="I52" s="15">
         <v>0</v>
       </c>
@@ -3070,18 +3122,18 @@
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="62" t="s">
+      <c r="A53" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="62"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
@@ -3089,12 +3141,12 @@
       <c r="A54" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="63" t="s">
+      <c r="B54" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="74"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="75"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="68"/>
       <c r="F54" s="9"/>
       <c r="G54" s="15" t="s">
         <v>66</v>
@@ -3115,10 +3167,10 @@
       <c r="A55" s="8">
         <v>1</v>
       </c>
-      <c r="B55" s="63"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="75"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="68"/>
       <c r="F55" s="9"/>
       <c r="G55" s="15"/>
       <c r="H55" s="9"/>
@@ -3131,10 +3183,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="75"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="68"/>
       <c r="F56" s="9"/>
       <c r="G56" s="15"/>
       <c r="H56" s="9"/>
@@ -3144,16 +3196,16 @@
       <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="60" t="s">
+      <c r="A57" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="67"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="68"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="71"/>
       <c r="I57" s="15">
         <f>SUM(I55:I56)</f>
         <v>0</v>
@@ -3163,18 +3215,18 @@
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="91" t="s">
+      <c r="A58" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="B58" s="62"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="62"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="62"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="77"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
@@ -3182,13 +3234,13 @@
       <c r="A59" s="8">
         <v>1</v>
       </c>
-      <c r="B59" s="92" t="s">
+      <c r="B59" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="93"/>
-      <c r="D59" s="93"/>
-      <c r="E59" s="93"/>
-      <c r="F59" s="94"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="80"/>
       <c r="G59" s="29" t="s">
         <v>71</v>
       </c>
@@ -3204,13 +3256,13 @@
       <c r="A60" s="30">
         <v>2</v>
       </c>
-      <c r="B60" s="92" t="s">
+      <c r="B60" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="93"/>
-      <c r="D60" s="93"/>
-      <c r="E60" s="93"/>
-      <c r="F60" s="94"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="80"/>
       <c r="G60" s="31"/>
       <c r="H60" s="32"/>
       <c r="I60" s="29"/>
@@ -3222,13 +3274,13 @@
       <c r="A61" s="8">
         <v>3</v>
       </c>
-      <c r="B61" s="92" t="s">
+      <c r="B61" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="93"/>
-      <c r="D61" s="93"/>
-      <c r="E61" s="93"/>
-      <c r="F61" s="94"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="80"/>
       <c r="G61" s="21"/>
       <c r="H61" s="9"/>
       <c r="I61" s="29"/>
@@ -3240,13 +3292,13 @@
       <c r="A62" s="30">
         <v>4</v>
       </c>
-      <c r="B62" s="92" t="s">
+      <c r="B62" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="93"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="93"/>
-      <c r="F62" s="94"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="80"/>
       <c r="G62" s="21"/>
       <c r="H62" s="9"/>
       <c r="I62" s="29"/>
@@ -3258,11 +3310,11 @@
       <c r="A63" s="8">
         <v>5</v>
       </c>
-      <c r="B63" s="63"/>
-      <c r="C63" s="74"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="75"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="68"/>
       <c r="G63" s="21"/>
       <c r="H63" s="9"/>
       <c r="I63" s="29"/>
@@ -3271,16 +3323,16 @@
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="60" t="s">
+      <c r="A64" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="67"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="68"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="71"/>
       <c r="I64" s="21">
         <f>SUM(I59:I63)</f>
         <v>0</v>
@@ -3290,16 +3342,16 @@
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="98" t="s">
+      <c r="A65" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="99"/>
-      <c r="C65" s="99"/>
-      <c r="D65" s="99"/>
-      <c r="E65" s="99"/>
-      <c r="F65" s="99"/>
-      <c r="G65" s="99"/>
-      <c r="H65" s="100"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="74"/>
       <c r="I65" s="35">
         <f>I10+I14+I37+I47+I52+I57+I64</f>
         <v>0</v>
@@ -3309,16 +3361,16 @@
       <c r="L65" s="2"/>
     </row>
     <row r="66" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="98" t="s">
+      <c r="A66" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="99"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="99"/>
-      <c r="E66" s="99"/>
-      <c r="F66" s="99"/>
-      <c r="G66" s="99"/>
-      <c r="H66" s="100"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="74"/>
       <c r="I66" s="35">
         <f>I65/6.89</f>
         <v>0</v>
@@ -3328,8 +3380,8 @@
       <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="101"/>
-      <c r="B67" s="101"/>
+      <c r="A67" s="75"/>
+      <c r="B67" s="75"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
       <c r="E67" s="36"/>
@@ -3342,22 +3394,22 @@
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="95" t="s">
+      <c r="A68" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="95"/>
-      <c r="C68" s="95"/>
-      <c r="D68" s="95"/>
-      <c r="E68" s="95" t="s">
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="F68" s="95"/>
-      <c r="G68" s="95"/>
-      <c r="H68" s="95"/>
-      <c r="I68" s="95" t="s">
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="J68" s="95"/>
+      <c r="J68" s="63"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
@@ -3370,10 +3422,10 @@
       <c r="F69" s="4"/>
       <c r="G69" s="5"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="96" t="s">
+      <c r="I69" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="J69" s="97"/>
+      <c r="J69" s="65"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
@@ -5227,6 +5279,72 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="E68:H68"/>
     <mergeCell ref="I68:J68"/>
@@ -5236,72 +5354,6 @@
     <mergeCell ref="A65:H65"/>
     <mergeCell ref="A66:H66"/>
     <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5373,35 +5425,35 @@
     </row>
     <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="38"/>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60" t="s">
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
       <c r="J5" s="6" t="s">
         <v>4</v>
       </c>
@@ -5411,18 +5463,18 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="38"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
       <c r="J6" s="6" t="s">
         <v>7</v>
       </c>
@@ -5432,18 +5484,18 @@
     </row>
     <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
     </row>
@@ -5452,12 +5504,12 @@
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="9" t="s">
         <v>11</v>
       </c>
@@ -5481,12 +5533,12 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="66"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
       <c r="I9" s="12"/>
@@ -5497,16 +5549,16 @@
     </row>
     <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="38"/>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="68"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="71"/>
       <c r="J10" s="15"/>
       <c r="K10" s="16"/>
       <c r="L10" s="38"/>
@@ -5514,16 +5566,16 @@
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="38"/>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="71"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="99"/>
       <c r="J11" s="15">
         <f>SUM(J9:J10)</f>
         <v>0</v>
@@ -5534,18 +5586,18 @@
     </row>
     <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="73"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="104"/>
       <c r="L12" s="39" t="s">
         <v>93</v>
       </c>
@@ -5556,12 +5608,12 @@
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="75"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
       <c r="G13" s="9" t="s">
         <v>22</v>
       </c>
@@ -5585,12 +5637,12 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="38"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="66"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="96"/>
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
       <c r="I14" s="12"/>
@@ -5605,16 +5657,16 @@
     </row>
     <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="71"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="99"/>
       <c r="J15" s="15">
         <f>SUM(J14)</f>
         <v>0</v>
@@ -5627,18 +5679,18 @@
     </row>
     <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
     </row>
@@ -5647,12 +5699,12 @@
       <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="75"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="9" t="s">
         <v>29</v>
       </c>
@@ -5678,12 +5730,12 @@
       <c r="B18" s="19">
         <v>1</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="80"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="9"/>
       <c r="H18" s="21"/>
       <c r="I18" s="9"/>
@@ -5697,10 +5749,10 @@
       <c r="B19" s="19">
         <v>1</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="80"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="86"/>
       <c r="G19" s="9"/>
       <c r="H19" s="21"/>
       <c r="I19" s="9"/>
@@ -5711,30 +5763,30 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="83"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="89"/>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="38"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="75"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="68"/>
       <c r="G21" s="9" t="s">
         <v>29</v>
       </c>
@@ -5760,12 +5812,12 @@
       <c r="B22" s="19">
         <v>1</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="80"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="86"/>
       <c r="G22" s="9" t="s">
         <v>29</v>
       </c>
@@ -5781,12 +5833,12 @@
       <c r="B23" s="19">
         <v>2</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="86"/>
       <c r="G23" s="9" t="s">
         <v>29</v>
       </c>
@@ -5802,12 +5854,12 @@
       <c r="B24" s="19">
         <v>3</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="80"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="86"/>
       <c r="G24" s="19" t="s">
         <v>29</v>
       </c>
@@ -5823,12 +5875,12 @@
       <c r="B25" s="19">
         <v>4</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="80"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
       <c r="G25" s="19" t="s">
         <v>29</v>
       </c>
@@ -5844,12 +5896,12 @@
       <c r="B26" s="19">
         <v>5</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="80"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="86"/>
       <c r="G26" s="19" t="s">
         <v>29</v>
       </c>
@@ -5865,12 +5917,12 @@
       <c r="B27" s="19">
         <v>6</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="80"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="86"/>
       <c r="G27" s="8" t="s">
         <v>29</v>
       </c>
@@ -5886,12 +5938,12 @@
       <c r="B28" s="19">
         <v>7</v>
       </c>
-      <c r="C28" s="102" t="s">
+      <c r="C28" s="109" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="80"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="86"/>
       <c r="G28" s="8" t="s">
         <v>29</v>
       </c>
@@ -5907,12 +5959,12 @@
       <c r="B29" s="19">
         <v>8</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="80"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="86"/>
       <c r="G29" s="8" t="s">
         <v>29</v>
       </c>
@@ -5928,12 +5980,12 @@
       <c r="B30" s="19">
         <v>9</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="80"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="86"/>
       <c r="G30" s="8" t="s">
         <v>29</v>
       </c>
@@ -5949,12 +6001,12 @@
       <c r="B31" s="19">
         <v>10</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="80"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="86"/>
       <c r="G31" s="8" t="s">
         <v>29</v>
       </c>
@@ -5970,12 +6022,12 @@
       <c r="B32" s="19">
         <v>11</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="80"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="86"/>
       <c r="G32" s="8" t="s">
         <v>29</v>
       </c>
@@ -5988,30 +6040,30 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="38"/>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="83"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="89"/>
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="38"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="75"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="9" t="s">
         <v>29</v>
       </c>
@@ -6037,10 +6089,10 @@
       <c r="B35" s="8">
         <v>1</v>
       </c>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="87"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="92"/>
       <c r="G35" s="9" t="s">
         <v>29</v>
       </c>
@@ -6059,10 +6111,10 @@
       <c r="B36" s="8">
         <v>2</v>
       </c>
-      <c r="C36" s="85"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="87"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="92"/>
       <c r="G36" s="9" t="s">
         <v>29</v>
       </c>
@@ -6078,16 +6130,16 @@
     </row>
     <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="38"/>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="68"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="71"/>
       <c r="J37" s="15">
         <f>SUM(J18:J36)</f>
         <v>0</v>
@@ -6098,18 +6150,18 @@
     </row>
     <row r="38" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
     </row>
@@ -6118,12 +6170,12 @@
       <c r="B39" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C39" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="80"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="86"/>
       <c r="G39" s="9" t="s">
         <v>29</v>
       </c>
@@ -6149,12 +6201,12 @@
       <c r="B40" s="19">
         <v>1</v>
       </c>
-      <c r="C40" s="78" t="s">
+      <c r="C40" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="80"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="86"/>
       <c r="G40" s="9" t="s">
         <v>29</v>
       </c>
@@ -6170,12 +6222,12 @@
       <c r="B41" s="19">
         <v>2</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="C41" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="80"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="86"/>
       <c r="G41" s="9" t="s">
         <v>29</v>
       </c>
@@ -6191,12 +6243,12 @@
       <c r="B42" s="19">
         <v>3</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="C42" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="80"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="86"/>
       <c r="G42" s="9" t="s">
         <v>29</v>
       </c>
@@ -6212,12 +6264,12 @@
       <c r="B43" s="19">
         <v>4</v>
       </c>
-      <c r="C43" s="78" t="s">
+      <c r="C43" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="80"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="86"/>
       <c r="G43" s="9" t="s">
         <v>29</v>
       </c>
@@ -6233,12 +6285,12 @@
       <c r="B44" s="19">
         <v>5</v>
       </c>
-      <c r="C44" s="78" t="s">
+      <c r="C44" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="80"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="86"/>
       <c r="G44" s="9" t="s">
         <v>29</v>
       </c>
@@ -6254,12 +6306,12 @@
       <c r="B45" s="19">
         <v>6</v>
       </c>
-      <c r="C45" s="78" t="s">
+      <c r="C45" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="80"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="86"/>
       <c r="G45" s="9" t="s">
         <v>29</v>
       </c>
@@ -6275,12 +6327,12 @@
       <c r="B46" s="19">
         <v>7</v>
       </c>
-      <c r="C46" s="78" t="s">
+      <c r="C46" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="80"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="86"/>
       <c r="G46" s="9" t="s">
         <v>29</v>
       </c>
@@ -6293,16 +6345,16 @@
     </row>
     <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="38"/>
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="68"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="71"/>
       <c r="J47" s="15">
         <f>SUM(J40:J46)</f>
         <v>0</v>
@@ -6313,35 +6365,35 @@
     </row>
     <row r="48" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="77"/>
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="38"/>
-      <c r="B49" s="88" t="s">
+      <c r="B49" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="89"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="89"/>
-      <c r="J49" s="89"/>
-      <c r="K49" s="90"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="83"/>
       <c r="L49" s="38"/>
       <c r="M49" s="38"/>
     </row>
@@ -6350,12 +6402,12 @@
       <c r="B50" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="78" t="s">
+      <c r="C50" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="80"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="86"/>
       <c r="G50" s="9" t="s">
         <v>29</v>
       </c>
@@ -6377,12 +6429,12 @@
     <row r="51" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="38"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="78" t="s">
+      <c r="C51" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="80"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="86"/>
       <c r="G51" s="9"/>
       <c r="H51" s="15"/>
       <c r="I51" s="9"/>
@@ -6395,16 +6447,16 @@
     </row>
     <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="38"/>
-      <c r="B52" s="60" t="s">
+      <c r="B52" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="68"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="71"/>
       <c r="J52" s="15">
         <v>0</v>
       </c>
@@ -6414,18 +6466,18 @@
     </row>
     <row r="53" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="77"/>
       <c r="L53" s="38"/>
       <c r="M53" s="38"/>
     </row>
@@ -6434,12 +6486,12 @@
       <c r="B54" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="63" t="s">
+      <c r="C54" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="74"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="75"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="68"/>
       <c r="G54" s="9"/>
       <c r="H54" s="15" t="s">
         <v>66</v>
@@ -6461,10 +6513,10 @@
       <c r="B55" s="8">
         <v>1</v>
       </c>
-      <c r="C55" s="63"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="75"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="68"/>
       <c r="G55" s="9"/>
       <c r="H55" s="15"/>
       <c r="I55" s="9"/>
@@ -6478,10 +6530,10 @@
     <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="38"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="75"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="68"/>
       <c r="G56" s="9"/>
       <c r="H56" s="15"/>
       <c r="I56" s="9"/>
@@ -6492,16 +6544,16 @@
     </row>
     <row r="57" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="38"/>
-      <c r="B57" s="60" t="s">
+      <c r="B57" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="68"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="71"/>
       <c r="J57" s="15">
         <f>SUM(J55:J56)</f>
         <v>0</v>
@@ -6512,18 +6564,18 @@
     </row>
     <row r="58" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A58" s="38"/>
-      <c r="B58" s="91" t="s">
+      <c r="B58" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="62"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="62"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="62"/>
-      <c r="K58" s="62"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="77"/>
+      <c r="K58" s="77"/>
       <c r="L58" s="38"/>
       <c r="M58" s="38"/>
     </row>
@@ -6532,13 +6584,13 @@
       <c r="B59" s="8">
         <v>1</v>
       </c>
-      <c r="C59" s="92" t="s">
+      <c r="C59" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="93"/>
-      <c r="E59" s="93"/>
-      <c r="F59" s="93"/>
-      <c r="G59" s="94"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="80"/>
       <c r="H59" s="29" t="s">
         <v>71</v>
       </c>
@@ -6555,13 +6607,13 @@
       <c r="B60" s="30">
         <v>2</v>
       </c>
-      <c r="C60" s="92" t="s">
+      <c r="C60" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="93"/>
-      <c r="E60" s="93"/>
-      <c r="F60" s="93"/>
-      <c r="G60" s="94"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="80"/>
       <c r="H60" s="34"/>
       <c r="I60" s="32"/>
       <c r="J60" s="29"/>
@@ -6574,13 +6626,13 @@
       <c r="B61" s="8">
         <v>3</v>
       </c>
-      <c r="C61" s="92" t="s">
+      <c r="C61" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="93"/>
-      <c r="E61" s="93"/>
-      <c r="F61" s="93"/>
-      <c r="G61" s="94"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="80"/>
       <c r="H61" s="21"/>
       <c r="I61" s="9"/>
       <c r="J61" s="29"/>
@@ -6593,13 +6645,13 @@
       <c r="B62" s="30">
         <v>4</v>
       </c>
-      <c r="C62" s="92" t="s">
+      <c r="C62" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="93"/>
-      <c r="E62" s="93"/>
-      <c r="F62" s="93"/>
-      <c r="G62" s="94"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="80"/>
       <c r="H62" s="21"/>
       <c r="I62" s="9"/>
       <c r="J62" s="29"/>
@@ -6612,11 +6664,11 @@
       <c r="B63" s="8">
         <v>5</v>
       </c>
-      <c r="C63" s="63"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="75"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="68"/>
       <c r="H63" s="21"/>
       <c r="I63" s="9"/>
       <c r="J63" s="29"/>
@@ -6626,16 +6678,16 @@
     </row>
     <row r="64" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="38"/>
-      <c r="B64" s="60" t="s">
+      <c r="B64" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="68"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="71"/>
       <c r="J64" s="21">
         <f>SUM(J59:J63)</f>
         <v>0</v>
@@ -6646,16 +6698,16 @@
     </row>
     <row r="65" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="38"/>
-      <c r="B65" s="98" t="s">
+      <c r="B65" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="99"/>
-      <c r="D65" s="99"/>
-      <c r="E65" s="99"/>
-      <c r="F65" s="99"/>
-      <c r="G65" s="99"/>
-      <c r="H65" s="99"/>
-      <c r="I65" s="100"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="74"/>
       <c r="J65" s="35">
         <f>J11+J15+J37+J47+J52+J57+J64</f>
         <v>0</v>
@@ -6666,16 +6718,16 @@
     </row>
     <row r="66" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="38"/>
-      <c r="B66" s="98" t="s">
+      <c r="B66" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="99"/>
-      <c r="D66" s="99"/>
-      <c r="E66" s="99"/>
-      <c r="F66" s="99"/>
-      <c r="G66" s="99"/>
-      <c r="H66" s="99"/>
-      <c r="I66" s="100"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="74"/>
       <c r="J66" s="35">
         <f>J65/6.89</f>
         <v>0</v>
@@ -8711,66 +8763,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:K58"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:K53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:K48"/>
-    <mergeCell ref="B49:K49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
@@ -8778,6 +8770,66 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:K58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B66:I66"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8850,18 +8902,18 @@
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
     </row>
@@ -8871,12 +8923,12 @@
       <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
       <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
@@ -8933,10 +8985,10 @@
       <c r="A8" s="38"/>
       <c r="B8" s="38"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="96"/>
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
       <c r="J8" s="12"/>
@@ -8948,16 +9000,16 @@
     <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
       <c r="K9" s="15"/>
       <c r="L9" s="16"/>
       <c r="M9" s="38"/>
@@ -8966,16 +9018,16 @@
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="99"/>
       <c r="K10" s="15">
         <f>SUM(K8:K9)</f>
         <v>0</v>
@@ -8987,18 +9039,18 @@
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="38"/>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
     </row>
@@ -9006,12 +9058,12 @@
       <c r="A12" s="38"/>
       <c r="B12" s="38"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="75"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
       <c r="H12" s="9" t="s">
         <v>29</v>
       </c>
@@ -9038,10 +9090,10 @@
       <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="87"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="92"/>
       <c r="H13" s="9" t="s">
         <v>29</v>
       </c>
@@ -9061,10 +9113,10 @@
       <c r="C14" s="8">
         <v>2</v>
       </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="87"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="92"/>
       <c r="H14" s="9" t="s">
         <v>29</v>
       </c>
@@ -9081,16 +9133,16 @@
     <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="71"/>
       <c r="K15" s="15">
         <f>SUM(K12:K14)</f>
         <v>0</v>
@@ -9102,36 +9154,36 @@
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="90"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="83"/>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
     </row>
@@ -9141,12 +9193,12 @@
       <c r="C18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="78" t="s">
+      <c r="D18" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="80"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="86"/>
       <c r="H18" s="9" t="s">
         <v>29</v>
       </c>
@@ -9171,12 +9223,12 @@
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="78" t="s">
+      <c r="D19" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="80"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="86"/>
       <c r="H19" s="9"/>
       <c r="I19" s="15"/>
       <c r="J19" s="9"/>
@@ -9190,16 +9242,16 @@
     <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="71"/>
       <c r="K20" s="15">
         <v>0</v>
       </c>
@@ -9210,18 +9262,18 @@
     <row r="21" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
     </row>
@@ -9231,11 +9283,11 @@
       <c r="C22" s="8">
         <v>1</v>
       </c>
-      <c r="D22" s="92"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="94"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="80"/>
       <c r="I22" s="29" t="s">
         <v>71</v>
       </c>
@@ -9253,11 +9305,11 @@
       <c r="C23" s="30">
         <v>2</v>
       </c>
-      <c r="D23" s="92"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="94"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="80"/>
       <c r="I23" s="34"/>
       <c r="J23" s="32"/>
       <c r="K23" s="29"/>
@@ -9271,11 +9323,11 @@
       <c r="C24" s="8">
         <v>3</v>
       </c>
-      <c r="D24" s="92"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="94"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="80"/>
       <c r="I24" s="21"/>
       <c r="J24" s="9"/>
       <c r="K24" s="29"/>
@@ -9289,11 +9341,11 @@
       <c r="C25" s="30">
         <v>4</v>
       </c>
-      <c r="D25" s="92"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="94"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="80"/>
       <c r="I25" s="21"/>
       <c r="J25" s="9"/>
       <c r="K25" s="29"/>
@@ -9307,11 +9359,11 @@
       <c r="C26" s="8">
         <v>5</v>
       </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="68"/>
       <c r="I26" s="21"/>
       <c r="J26" s="9"/>
       <c r="K26" s="29"/>
@@ -12121,27 +12173,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="C20:J20"/>
     <mergeCell ref="D26:H26"/>
     <mergeCell ref="C21:L21"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="D23:H23"/>
     <mergeCell ref="D24:H24"/>
     <mergeCell ref="D25:H25"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12152,8 +12204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12223,15 +12275,15 @@
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
-      <c r="B5" s="103" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
+      <c r="B5" s="110" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
       <c r="I5" s="41"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -12242,25 +12294,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F6" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H6" s="42" t="s">
         <v>100</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -12312,25 +12364,25 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="52" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C9" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" s="52" t="s">
         <v>187</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="F9" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="G9" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="H9" s="52" t="s">
-        <v>192</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -12346,7 +12398,7 @@
         <v>103</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H10" s="42"/>
       <c r="I10" s="2"/>
@@ -12400,7 +12452,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="52" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>138</v>
@@ -12412,7 +12464,7 @@
         <v>140</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G13" s="52" t="s">
         <v>141</v>
@@ -12432,7 +12484,7 @@
         <v>26</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="2"/>
@@ -12469,7 +12521,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>14</v>
@@ -12484,7 +12536,7 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="53" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C17" s="53" t="s">
         <v>142</v>
@@ -12516,7 +12568,7 @@
         <v>109</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="2"/>
@@ -12553,7 +12605,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>14</v>
@@ -12568,7 +12620,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="53" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C21" s="53" t="s">
         <v>147</v>
@@ -12600,7 +12652,7 @@
         <v>45</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="2"/>
@@ -12652,7 +12704,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="53" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C25" s="53" t="s">
         <v>152</v>
@@ -12684,7 +12736,7 @@
         <v>116</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H26" s="42"/>
       <c r="I26" s="2"/>
@@ -12696,10 +12748,10 @@
       <c r="B27" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="106" t="s">
+      <c r="C27" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="107"/>
+      <c r="D27" s="57"/>
       <c r="E27" s="45"/>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
@@ -12713,11 +12765,11 @@
       <c r="B28" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="109" t="s">
+      <c r="C28" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="110" t="s">
-        <v>217</v>
+      <c r="D28" s="60" t="s">
+        <v>211</v>
       </c>
       <c r="E28" s="48" t="s">
         <v>12</v>
@@ -12738,13 +12790,13 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C29" s="108" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="108" t="s">
-        <v>218</v>
+      <c r="D29" s="58" t="s">
+        <v>212</v>
       </c>
       <c r="E29" s="53" t="s">
         <v>158</v>
@@ -12772,7 +12824,7 @@
         <v>55</v>
       </c>
       <c r="G30" s="50" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H30" s="42"/>
       <c r="I30" s="2"/>
@@ -12785,14 +12837,14 @@
         <v>120</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D31" s="45"/>
       <c r="E31" s="45"/>
       <c r="F31" s="45"/>
       <c r="G31" s="45"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="2"/>
+      <c r="I31" s="62"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
@@ -12807,46 +12859,50 @@
       <c r="D32" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G32" s="16" t="s">
+      <c r="E32" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="H32" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="I32" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="53" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="D33" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="E33" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="F33" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="G33" s="53" t="s">
-        <v>164</v>
+        <v>208</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>222</v>
       </c>
       <c r="H33" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="I33" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
@@ -12860,7 +12916,7 @@
         <v>122</v>
       </c>
       <c r="G34" s="50" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H34" s="42"/>
       <c r="I34" s="2"/>
@@ -12912,23 +12968,23 @@
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="53" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D37" s="53"/>
       <c r="E37" s="53" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F37" s="53" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G37" s="53" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H37" s="53" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -12944,7 +13000,7 @@
         <v>126</v>
       </c>
       <c r="G38" s="50" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H38" s="42"/>
       <c r="I38" s="2"/>
@@ -12998,25 +13054,25 @@
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C41" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="F41" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="D41" s="53" t="s">
+      <c r="H41" s="53" t="s">
         <v>172</v>
-      </c>
-      <c r="E41" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="F41" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="G41" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="H41" s="53" t="s">
-        <v>176</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -13032,7 +13088,7 @@
         <v>129</v>
       </c>
       <c r="G42" s="50" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H42" s="42"/>
       <c r="I42" s="2"/>
@@ -13080,19 +13136,19 @@
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>177</v>
+        <v>193</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>223</v>
       </c>
       <c r="D45" s="53"/>
       <c r="E45" s="53"/>
       <c r="F45" s="53"/>
       <c r="G45" s="53" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H45" s="53" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -13108,7 +13164,7 @@
         <v>76</v>
       </c>
       <c r="G46" s="50" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H46" s="42"/>
       <c r="I46" s="2"/>
@@ -13117,15 +13173,15 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
-      <c r="B47" s="98" t="s">
+      <c r="B47" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="100"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="74"/>
       <c r="G47" s="54" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H47" s="25"/>
       <c r="I47" s="2"/>
@@ -13134,15 +13190,15 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="99"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="100"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="74"/>
       <c r="G48" s="54" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="2"/>
@@ -13153,11 +13209,11 @@
       <c r="A49" s="2"/>
       <c r="B49" s="49"/>
       <c r="C49" s="37"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="112"/>
+      <c r="G49" s="112"/>
+      <c r="H49" s="112"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -13169,8 +13225,8 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="97"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>

--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/NRE.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/NRE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\代码\财务\二开\后端\finance_back\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\财务报价核价系统__V2\后端github郭琪琪分支\finance_back\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD83AFE9-EE94-4E62-B466-82BAFAF830D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA40A38-8B08-44D2-ABBB-3B2F2D6F8EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="1320" windowWidth="24075" windowHeight="13950" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="795" windowWidth="21600" windowHeight="14805" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NRE费用单" sheetId="1" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="226">
   <si>
     <t>密级：</t>
   </si>
@@ -938,10 +938,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>{{ProductionEquipmentCost.DeviceStatusName}}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>{{LaboratoryFeeModels.ProjectName}}</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -981,6 +977,18 @@
   </si>
   <si>
     <t>{{RestsCost.ConstName}}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ProductionEquipmentCost.DeviceStatus}}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{UphAndValues.Description}}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{UphAndValues.Value}}</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1175,7 +1183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1381,19 +1389,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFF00"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFF00"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFF00"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -1403,6 +1398,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFF00"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFF00"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFF00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFF00"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFF00"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1410,7 +1429,7 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1543,9 +1562,7 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1554,6 +1571,18 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1702,6 +1731,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2095,11 +2127,11 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="2"/>
@@ -2114,42 +2146,42 @@
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="107" t="s">
+      <c r="I2" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="107"/>
+      <c r="J2" s="113"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="69" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
       <c r="I4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2158,18 +2190,18 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="69" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
       <c r="I5" s="6" t="s">
         <v>7</v>
       </c>
@@ -2178,18 +2210,18 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
@@ -2197,12 +2229,12 @@
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
@@ -2223,12 +2255,12 @@
     </row>
     <row r="8" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="102"/>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
       <c r="H8" s="12"/>
@@ -2240,32 +2272,32 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="77"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="105"/>
       <c r="I10" s="15">
         <f>SUM(I8:I9)</f>
         <v>0</v>
@@ -2275,18 +2307,18 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="104"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="110"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
@@ -2294,12 +2326,12 @@
       <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="74"/>
       <c r="F12" s="9" t="s">
         <v>22</v>
       </c>
@@ -2320,12 +2352,12 @@
     </row>
     <row r="13" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="12"/>
@@ -2337,16 +2369,16 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="99"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="15">
         <f>SUM(I13)</f>
         <v>0</v>
@@ -2356,34 +2388,34 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="102"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="108"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
@@ -2391,12 +2423,12 @@
       <c r="A17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="9" t="s">
         <v>29</v>
       </c>
@@ -2419,12 +2451,12 @@
       <c r="A18" s="19">
         <v>1</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="92"/>
       <c r="F18" s="9"/>
       <c r="G18" s="21"/>
       <c r="H18" s="9"/>
@@ -2439,10 +2471,10 @@
       <c r="A19" s="19">
         <v>1</v>
       </c>
-      <c r="B19" s="84"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="92"/>
       <c r="F19" s="9"/>
       <c r="G19" s="21"/>
       <c r="H19" s="9"/>
@@ -2452,29 +2484,29 @@
       <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="89"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="95"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="74"/>
       <c r="F21" s="9" t="s">
         <v>29</v>
       </c>
@@ -2497,12 +2529,12 @@
       <c r="A22" s="19">
         <v>1</v>
       </c>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
       <c r="F22" s="9" t="s">
         <v>29</v>
       </c>
@@ -2519,12 +2551,12 @@
       <c r="A23" s="19">
         <v>2</v>
       </c>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="92"/>
       <c r="F23" s="9" t="s">
         <v>29</v>
       </c>
@@ -2539,12 +2571,12 @@
       <c r="A24" s="19">
         <v>3</v>
       </c>
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
       <c r="F24" s="19" t="s">
         <v>29</v>
       </c>
@@ -2559,12 +2591,12 @@
       <c r="A25" s="19">
         <v>4</v>
       </c>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="86"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="92"/>
       <c r="F25" s="19" t="s">
         <v>29</v>
       </c>
@@ -2579,12 +2611,12 @@
       <c r="A26" s="19">
         <v>5</v>
       </c>
-      <c r="B26" s="84" t="s">
+      <c r="B26" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="86"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="92"/>
       <c r="F26" s="19" t="s">
         <v>29</v>
       </c>
@@ -2599,12 +2631,12 @@
       <c r="A27" s="19">
         <v>6</v>
       </c>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="86"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="92"/>
       <c r="F27" s="8" t="s">
         <v>29</v>
       </c>
@@ -2619,12 +2651,12 @@
       <c r="A28" s="19">
         <v>7</v>
       </c>
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="86"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="92"/>
       <c r="F28" s="8" t="s">
         <v>29</v>
       </c>
@@ -2639,12 +2671,12 @@
       <c r="A29" s="19">
         <v>8</v>
       </c>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="86"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="8" t="s">
         <v>29</v>
       </c>
@@ -2659,12 +2691,12 @@
       <c r="A30" s="19">
         <v>9</v>
       </c>
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="86"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="92"/>
       <c r="F30" s="8" t="s">
         <v>29</v>
       </c>
@@ -2679,12 +2711,12 @@
       <c r="A31" s="19">
         <v>10</v>
       </c>
-      <c r="B31" s="84" t="s">
+      <c r="B31" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="86"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="92"/>
       <c r="F31" s="8" t="s">
         <v>29</v>
       </c>
@@ -2699,12 +2731,12 @@
       <c r="A32" s="19">
         <v>11</v>
       </c>
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="86"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="92"/>
       <c r="F32" s="8" t="s">
         <v>29</v>
       </c>
@@ -2716,29 +2748,29 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="87" t="s">
+      <c r="A33" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="89"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="95"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="68"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="74"/>
       <c r="F34" s="9" t="s">
         <v>29</v>
       </c>
@@ -2761,10 +2793,10 @@
       <c r="A35" s="8">
         <v>1</v>
       </c>
-      <c r="B35" s="90"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="92"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="98"/>
       <c r="F35" s="9" t="s">
         <v>29</v>
       </c>
@@ -2784,10 +2816,10 @@
       <c r="A36" s="8">
         <v>2</v>
       </c>
-      <c r="B36" s="90"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="92"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="98"/>
       <c r="F36" s="9" t="s">
         <v>29</v>
       </c>
@@ -2802,16 +2834,16 @@
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="71"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="77"/>
       <c r="I37" s="15">
         <f>SUM(I18:I36)</f>
         <v>0</v>
@@ -2821,18 +2853,18 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
@@ -2840,12 +2872,12 @@
       <c r="A39" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="84" t="s">
+      <c r="B39" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="86"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="92"/>
       <c r="F39" s="9" t="s">
         <v>29</v>
       </c>
@@ -2868,12 +2900,12 @@
       <c r="A40" s="19">
         <v>1</v>
       </c>
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="86"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="92"/>
       <c r="F40" s="9" t="s">
         <v>29</v>
       </c>
@@ -2890,12 +2922,12 @@
       <c r="A41" s="19">
         <v>2</v>
       </c>
-      <c r="B41" s="84" t="s">
+      <c r="B41" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="86"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="92"/>
       <c r="F41" s="9" t="s">
         <v>29</v>
       </c>
@@ -2910,12 +2942,12 @@
       <c r="A42" s="19">
         <v>3</v>
       </c>
-      <c r="B42" s="84" t="s">
+      <c r="B42" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="86"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="92"/>
       <c r="F42" s="9" t="s">
         <v>29</v>
       </c>
@@ -2930,12 +2962,12 @@
       <c r="A43" s="19">
         <v>4</v>
       </c>
-      <c r="B43" s="84" t="s">
+      <c r="B43" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="86"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="92"/>
       <c r="F43" s="9" t="s">
         <v>29</v>
       </c>
@@ -2950,12 +2982,12 @@
       <c r="A44" s="19">
         <v>5</v>
       </c>
-      <c r="B44" s="84" t="s">
+      <c r="B44" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="86"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="92"/>
       <c r="F44" s="9" t="s">
         <v>29</v>
       </c>
@@ -2970,12 +3002,12 @@
       <c r="A45" s="19">
         <v>6</v>
       </c>
-      <c r="B45" s="84" t="s">
+      <c r="B45" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="86"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="92"/>
       <c r="F45" s="9" t="s">
         <v>29</v>
       </c>
@@ -2990,12 +3022,12 @@
       <c r="A46" s="19">
         <v>7</v>
       </c>
-      <c r="B46" s="84" t="s">
+      <c r="B46" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="86"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="92"/>
       <c r="F46" s="9" t="s">
         <v>29</v>
       </c>
@@ -3007,16 +3039,16 @@
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="69" t="s">
+      <c r="A47" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="71"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="77"/>
       <c r="I47" s="15">
         <f>SUM(I40:I46)</f>
         <v>0</v>
@@ -3026,34 +3058,34 @@
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="77" t="s">
+      <c r="A48" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="77"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="83"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="81" t="s">
+      <c r="A49" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="83"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="89"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
@@ -3061,12 +3093,12 @@
       <c r="A50" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="84" t="s">
+      <c r="B50" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="86"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="92"/>
       <c r="F50" s="9" t="s">
         <v>29</v>
       </c>
@@ -3087,12 +3119,12 @@
     </row>
     <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="84" t="s">
+      <c r="B51" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="86"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="92"/>
       <c r="F51" s="9"/>
       <c r="G51" s="15"/>
       <c r="H51" s="9"/>
@@ -3104,16 +3136,16 @@
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="69" t="s">
+      <c r="A52" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="71"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="77"/>
       <c r="I52" s="15">
         <v>0</v>
       </c>
@@ -3122,18 +3154,18 @@
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="77"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="83"/>
+      <c r="J53" s="83"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
@@ -3141,12 +3173,12 @@
       <c r="A54" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="66" t="s">
+      <c r="B54" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="68"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="74"/>
       <c r="F54" s="9"/>
       <c r="G54" s="15" t="s">
         <v>66</v>
@@ -3167,10 +3199,10 @@
       <c r="A55" s="8">
         <v>1</v>
       </c>
-      <c r="B55" s="66"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="68"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="74"/>
       <c r="F55" s="9"/>
       <c r="G55" s="15"/>
       <c r="H55" s="9"/>
@@ -3183,10 +3215,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="68"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="74"/>
       <c r="F56" s="9"/>
       <c r="G56" s="15"/>
       <c r="H56" s="9"/>
@@ -3196,16 +3228,16 @@
       <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="69" t="s">
+      <c r="A57" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="71"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="77"/>
       <c r="I57" s="15">
         <f>SUM(I55:I56)</f>
         <v>0</v>
@@ -3215,18 +3247,18 @@
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="76" t="s">
+      <c r="A58" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="B58" s="77"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="77"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="83"/>
+      <c r="J58" s="83"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
@@ -3234,13 +3266,13 @@
       <c r="A59" s="8">
         <v>1</v>
       </c>
-      <c r="B59" s="78" t="s">
+      <c r="B59" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="80"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="86"/>
       <c r="G59" s="29" t="s">
         <v>71</v>
       </c>
@@ -3256,13 +3288,13 @@
       <c r="A60" s="30">
         <v>2</v>
       </c>
-      <c r="B60" s="78" t="s">
+      <c r="B60" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="79"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="80"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="86"/>
       <c r="G60" s="31"/>
       <c r="H60" s="32"/>
       <c r="I60" s="29"/>
@@ -3274,13 +3306,13 @@
       <c r="A61" s="8">
         <v>3</v>
       </c>
-      <c r="B61" s="78" t="s">
+      <c r="B61" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="79"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="80"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="86"/>
       <c r="G61" s="21"/>
       <c r="H61" s="9"/>
       <c r="I61" s="29"/>
@@ -3292,13 +3324,13 @@
       <c r="A62" s="30">
         <v>4</v>
       </c>
-      <c r="B62" s="78" t="s">
+      <c r="B62" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="79"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="80"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="86"/>
       <c r="G62" s="21"/>
       <c r="H62" s="9"/>
       <c r="I62" s="29"/>
@@ -3310,11 +3342,11 @@
       <c r="A63" s="8">
         <v>5</v>
       </c>
-      <c r="B63" s="66"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="68"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="74"/>
       <c r="G63" s="21"/>
       <c r="H63" s="9"/>
       <c r="I63" s="29"/>
@@ -3323,16 +3355,16 @@
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="69" t="s">
+      <c r="A64" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="71"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="77"/>
       <c r="I64" s="21">
         <f>SUM(I59:I63)</f>
         <v>0</v>
@@ -3342,16 +3374,16 @@
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="72" t="s">
+      <c r="A65" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="73"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="74"/>
+      <c r="B65" s="79"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="80"/>
       <c r="I65" s="35">
         <f>I10+I14+I37+I47+I52+I57+I64</f>
         <v>0</v>
@@ -3361,16 +3393,16 @@
       <c r="L65" s="2"/>
     </row>
     <row r="66" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="72" t="s">
+      <c r="A66" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="73"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="74"/>
+      <c r="B66" s="79"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="80"/>
       <c r="I66" s="35">
         <f>I65/6.89</f>
         <v>0</v>
@@ -3380,8 +3412,8 @@
       <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="75"/>
-      <c r="B67" s="75"/>
+      <c r="A67" s="81"/>
+      <c r="B67" s="81"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
       <c r="E67" s="36"/>
@@ -3394,22 +3426,22 @@
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="63" t="s">
+      <c r="A68" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63" t="s">
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63" t="s">
+      <c r="F68" s="69"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="J68" s="63"/>
+      <c r="J68" s="69"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
@@ -3422,10 +3454,10 @@
       <c r="F69" s="4"/>
       <c r="G69" s="5"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="64" t="s">
+      <c r="I69" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="J69" s="65"/>
+      <c r="J69" s="71"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
@@ -5425,35 +5457,35 @@
     </row>
     <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="38"/>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="69" t="s">
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
       <c r="J5" s="6" t="s">
         <v>4</v>
       </c>
@@ -5463,18 +5495,18 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="38"/>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="69" t="s">
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
       <c r="J6" s="6" t="s">
         <v>7</v>
       </c>
@@ -5484,18 +5516,18 @@
     </row>
     <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
     </row>
@@ -5504,12 +5536,12 @@
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="9" t="s">
         <v>11</v>
       </c>
@@ -5533,12 +5565,12 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="96"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="102"/>
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
       <c r="I9" s="12"/>
@@ -5549,16 +5581,16 @@
     </row>
     <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="38"/>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="71"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="77"/>
       <c r="J10" s="15"/>
       <c r="K10" s="16"/>
       <c r="L10" s="38"/>
@@ -5566,16 +5598,16 @@
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="38"/>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="99"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="105"/>
       <c r="J11" s="15">
         <f>SUM(J9:J10)</f>
         <v>0</v>
@@ -5586,18 +5618,18 @@
     </row>
     <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="104"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="110"/>
       <c r="L12" s="39" t="s">
         <v>93</v>
       </c>
@@ -5608,12 +5640,12 @@
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="9" t="s">
         <v>22</v>
       </c>
@@ -5637,12 +5669,12 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="38"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="96"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="102"/>
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
       <c r="I14" s="12"/>
@@ -5657,16 +5689,16 @@
     </row>
     <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="99"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="105"/>
       <c r="J15" s="15">
         <f>SUM(J14)</f>
         <v>0</v>
@@ -5679,18 +5711,18 @@
     </row>
     <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
     </row>
@@ -5699,12 +5731,12 @@
       <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="68"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="74"/>
       <c r="G17" s="9" t="s">
         <v>29</v>
       </c>
@@ -5730,12 +5762,12 @@
       <c r="B18" s="19">
         <v>1</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="86"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="92"/>
       <c r="G18" s="9"/>
       <c r="H18" s="21"/>
       <c r="I18" s="9"/>
@@ -5749,10 +5781,10 @@
       <c r="B19" s="19">
         <v>1</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="86"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="92"/>
       <c r="G19" s="9"/>
       <c r="H19" s="21"/>
       <c r="I19" s="9"/>
@@ -5763,30 +5795,30 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="89"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="95"/>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="38"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="68"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
       <c r="G21" s="9" t="s">
         <v>29</v>
       </c>
@@ -5812,12 +5844,12 @@
       <c r="B22" s="19">
         <v>1</v>
       </c>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="86"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="92"/>
       <c r="G22" s="9" t="s">
         <v>29</v>
       </c>
@@ -5833,12 +5865,12 @@
       <c r="B23" s="19">
         <v>2</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="86"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="92"/>
       <c r="G23" s="9" t="s">
         <v>29</v>
       </c>
@@ -5854,12 +5886,12 @@
       <c r="B24" s="19">
         <v>3</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="86"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="92"/>
       <c r="G24" s="19" t="s">
         <v>29</v>
       </c>
@@ -5875,12 +5907,12 @@
       <c r="B25" s="19">
         <v>4</v>
       </c>
-      <c r="C25" s="84" t="s">
+      <c r="C25" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="86"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="92"/>
       <c r="G25" s="19" t="s">
         <v>29</v>
       </c>
@@ -5896,12 +5928,12 @@
       <c r="B26" s="19">
         <v>5</v>
       </c>
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="86"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="92"/>
       <c r="G26" s="19" t="s">
         <v>29</v>
       </c>
@@ -5917,12 +5949,12 @@
       <c r="B27" s="19">
         <v>6</v>
       </c>
-      <c r="C27" s="84" t="s">
+      <c r="C27" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="92"/>
       <c r="G27" s="8" t="s">
         <v>29</v>
       </c>
@@ -5938,12 +5970,12 @@
       <c r="B28" s="19">
         <v>7</v>
       </c>
-      <c r="C28" s="109" t="s">
+      <c r="C28" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="86"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="92"/>
       <c r="G28" s="8" t="s">
         <v>29</v>
       </c>
@@ -5959,12 +5991,12 @@
       <c r="B29" s="19">
         <v>8</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="86"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="92"/>
       <c r="G29" s="8" t="s">
         <v>29</v>
       </c>
@@ -5980,12 +6012,12 @@
       <c r="B30" s="19">
         <v>9</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="86"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="92"/>
       <c r="G30" s="8" t="s">
         <v>29</v>
       </c>
@@ -6001,12 +6033,12 @@
       <c r="B31" s="19">
         <v>10</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="86"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="92"/>
       <c r="G31" s="8" t="s">
         <v>29</v>
       </c>
@@ -6022,12 +6054,12 @@
       <c r="B32" s="19">
         <v>11</v>
       </c>
-      <c r="C32" s="84" t="s">
+      <c r="C32" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="86"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="92"/>
       <c r="G32" s="8" t="s">
         <v>29</v>
       </c>
@@ -6040,30 +6072,30 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="38"/>
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="89"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="95"/>
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="38"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="68"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="74"/>
       <c r="G34" s="9" t="s">
         <v>29</v>
       </c>
@@ -6089,10 +6121,10 @@
       <c r="B35" s="8">
         <v>1</v>
       </c>
-      <c r="C35" s="90"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="92"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="98"/>
       <c r="G35" s="9" t="s">
         <v>29</v>
       </c>
@@ -6111,10 +6143,10 @@
       <c r="B36" s="8">
         <v>2</v>
       </c>
-      <c r="C36" s="90"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="92"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="98"/>
       <c r="G36" s="9" t="s">
         <v>29</v>
       </c>
@@ -6130,16 +6162,16 @@
     </row>
     <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="38"/>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="71"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="77"/>
       <c r="J37" s="15">
         <f>SUM(J18:J36)</f>
         <v>0</v>
@@ -6150,18 +6182,18 @@
     </row>
     <row r="38" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
-      <c r="B38" s="77" t="s">
+      <c r="B38" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="83"/>
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
     </row>
@@ -6170,12 +6202,12 @@
       <c r="B39" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="84" t="s">
+      <c r="C39" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="86"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="92"/>
       <c r="G39" s="9" t="s">
         <v>29</v>
       </c>
@@ -6201,12 +6233,12 @@
       <c r="B40" s="19">
         <v>1</v>
       </c>
-      <c r="C40" s="84" t="s">
+      <c r="C40" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="86"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="92"/>
       <c r="G40" s="9" t="s">
         <v>29</v>
       </c>
@@ -6222,12 +6254,12 @@
       <c r="B41" s="19">
         <v>2</v>
       </c>
-      <c r="C41" s="84" t="s">
+      <c r="C41" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="86"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="92"/>
       <c r="G41" s="9" t="s">
         <v>29</v>
       </c>
@@ -6243,12 +6275,12 @@
       <c r="B42" s="19">
         <v>3</v>
       </c>
-      <c r="C42" s="84" t="s">
+      <c r="C42" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="86"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="92"/>
       <c r="G42" s="9" t="s">
         <v>29</v>
       </c>
@@ -6264,12 +6296,12 @@
       <c r="B43" s="19">
         <v>4</v>
       </c>
-      <c r="C43" s="84" t="s">
+      <c r="C43" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="86"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="92"/>
       <c r="G43" s="9" t="s">
         <v>29</v>
       </c>
@@ -6285,12 +6317,12 @@
       <c r="B44" s="19">
         <v>5</v>
       </c>
-      <c r="C44" s="84" t="s">
+      <c r="C44" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="86"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="92"/>
       <c r="G44" s="9" t="s">
         <v>29</v>
       </c>
@@ -6306,12 +6338,12 @@
       <c r="B45" s="19">
         <v>6</v>
       </c>
-      <c r="C45" s="84" t="s">
+      <c r="C45" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="86"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="92"/>
       <c r="G45" s="9" t="s">
         <v>29</v>
       </c>
@@ -6327,12 +6359,12 @@
       <c r="B46" s="19">
         <v>7</v>
       </c>
-      <c r="C46" s="84" t="s">
+      <c r="C46" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="86"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="92"/>
       <c r="G46" s="9" t="s">
         <v>29</v>
       </c>
@@ -6345,16 +6377,16 @@
     </row>
     <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="38"/>
-      <c r="B47" s="69" t="s">
+      <c r="B47" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="71"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="77"/>
       <c r="J47" s="15">
         <f>SUM(J40:J46)</f>
         <v>0</v>
@@ -6365,35 +6397,35 @@
     </row>
     <row r="48" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
-      <c r="B48" s="77" t="s">
+      <c r="B48" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="77"/>
-      <c r="K48" s="77"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="83"/>
+      <c r="K48" s="83"/>
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="38"/>
-      <c r="B49" s="81" t="s">
+      <c r="B49" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="83"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="88"/>
+      <c r="K49" s="89"/>
       <c r="L49" s="38"/>
       <c r="M49" s="38"/>
     </row>
@@ -6402,12 +6434,12 @@
       <c r="B50" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="84" t="s">
+      <c r="C50" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="86"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="92"/>
       <c r="G50" s="9" t="s">
         <v>29</v>
       </c>
@@ -6429,12 +6461,12 @@
     <row r="51" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="38"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="84" t="s">
+      <c r="C51" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="86"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="92"/>
       <c r="G51" s="9"/>
       <c r="H51" s="15"/>
       <c r="I51" s="9"/>
@@ -6447,16 +6479,16 @@
     </row>
     <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="38"/>
-      <c r="B52" s="69" t="s">
+      <c r="B52" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="71"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="77"/>
       <c r="J52" s="15">
         <v>0</v>
       </c>
@@ -6466,18 +6498,18 @@
     </row>
     <row r="53" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
-      <c r="B53" s="77" t="s">
+      <c r="B53" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="77"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="83"/>
+      <c r="J53" s="83"/>
+      <c r="K53" s="83"/>
       <c r="L53" s="38"/>
       <c r="M53" s="38"/>
     </row>
@@ -6486,12 +6518,12 @@
       <c r="B54" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="68"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="74"/>
       <c r="G54" s="9"/>
       <c r="H54" s="15" t="s">
         <v>66</v>
@@ -6513,10 +6545,10 @@
       <c r="B55" s="8">
         <v>1</v>
       </c>
-      <c r="C55" s="66"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="68"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="74"/>
       <c r="G55" s="9"/>
       <c r="H55" s="15"/>
       <c r="I55" s="9"/>
@@ -6530,10 +6562,10 @@
     <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="38"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="68"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="74"/>
       <c r="G56" s="9"/>
       <c r="H56" s="15"/>
       <c r="I56" s="9"/>
@@ -6544,16 +6576,16 @@
     </row>
     <row r="57" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="38"/>
-      <c r="B57" s="69" t="s">
+      <c r="B57" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="71"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="77"/>
       <c r="J57" s="15">
         <f>SUM(J55:J56)</f>
         <v>0</v>
@@ -6564,18 +6596,18 @@
     </row>
     <row r="58" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A58" s="38"/>
-      <c r="B58" s="76" t="s">
+      <c r="B58" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="77"/>
-      <c r="K58" s="77"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="83"/>
+      <c r="J58" s="83"/>
+      <c r="K58" s="83"/>
       <c r="L58" s="38"/>
       <c r="M58" s="38"/>
     </row>
@@ -6584,13 +6616,13 @@
       <c r="B59" s="8">
         <v>1</v>
       </c>
-      <c r="C59" s="78" t="s">
+      <c r="C59" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="80"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="86"/>
       <c r="H59" s="29" t="s">
         <v>71</v>
       </c>
@@ -6607,13 +6639,13 @@
       <c r="B60" s="30">
         <v>2</v>
       </c>
-      <c r="C60" s="78" t="s">
+      <c r="C60" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="79"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="80"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="86"/>
       <c r="H60" s="34"/>
       <c r="I60" s="32"/>
       <c r="J60" s="29"/>
@@ -6626,13 +6658,13 @@
       <c r="B61" s="8">
         <v>3</v>
       </c>
-      <c r="C61" s="78" t="s">
+      <c r="C61" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="79"/>
-      <c r="G61" s="80"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="86"/>
       <c r="H61" s="21"/>
       <c r="I61" s="9"/>
       <c r="J61" s="29"/>
@@ -6645,13 +6677,13 @@
       <c r="B62" s="30">
         <v>4</v>
       </c>
-      <c r="C62" s="78" t="s">
+      <c r="C62" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="79"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="80"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="85"/>
+      <c r="G62" s="86"/>
       <c r="H62" s="21"/>
       <c r="I62" s="9"/>
       <c r="J62" s="29"/>
@@ -6664,11 +6696,11 @@
       <c r="B63" s="8">
         <v>5</v>
       </c>
-      <c r="C63" s="66"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="68"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="74"/>
       <c r="H63" s="21"/>
       <c r="I63" s="9"/>
       <c r="J63" s="29"/>
@@ -6678,16 +6710,16 @@
     </row>
     <row r="64" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="38"/>
-      <c r="B64" s="69" t="s">
+      <c r="B64" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="71"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="77"/>
       <c r="J64" s="21">
         <f>SUM(J59:J63)</f>
         <v>0</v>
@@ -6698,16 +6730,16 @@
     </row>
     <row r="65" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="38"/>
-      <c r="B65" s="72" t="s">
+      <c r="B65" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="74"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="79"/>
+      <c r="I65" s="80"/>
       <c r="J65" s="35">
         <f>J11+J15+J37+J47+J52+J57+J64</f>
         <v>0</v>
@@ -6718,16 +6750,16 @@
     </row>
     <row r="66" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="38"/>
-      <c r="B66" s="72" t="s">
+      <c r="B66" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="74"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="80"/>
       <c r="J66" s="35">
         <f>J65/6.89</f>
         <v>0</v>
@@ -8902,18 +8934,18 @@
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
     </row>
@@ -8923,12 +8955,12 @@
       <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
       <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
@@ -8985,10 +9017,10 @@
       <c r="A8" s="38"/>
       <c r="B8" s="38"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="102"/>
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
       <c r="J8" s="12"/>
@@ -9000,16 +9032,16 @@
     <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
       <c r="K9" s="15"/>
       <c r="L9" s="16"/>
       <c r="M9" s="38"/>
@@ -9018,16 +9050,16 @@
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="99"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="105"/>
       <c r="K10" s="15">
         <f>SUM(K8:K9)</f>
         <v>0</v>
@@ -9039,18 +9071,18 @@
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="38"/>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
     </row>
@@ -9058,12 +9090,12 @@
       <c r="A12" s="38"/>
       <c r="B12" s="38"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="74"/>
       <c r="H12" s="9" t="s">
         <v>29</v>
       </c>
@@ -9090,10 +9122,10 @@
       <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="92"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="98"/>
       <c r="H13" s="9" t="s">
         <v>29</v>
       </c>
@@ -9113,10 +9145,10 @@
       <c r="C14" s="8">
         <v>2</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="92"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="98"/>
       <c r="H14" s="9" t="s">
         <v>29</v>
       </c>
@@ -9133,16 +9165,16 @@
     <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="71"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="77"/>
       <c r="K15" s="15">
         <f>SUM(K12:K14)</f>
         <v>0</v>
@@ -9154,36 +9186,36 @@
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="83"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="89"/>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
     </row>
@@ -9193,12 +9225,12 @@
       <c r="C18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="86"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="92"/>
       <c r="H18" s="9" t="s">
         <v>29</v>
       </c>
@@ -9223,12 +9255,12 @@
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="84" t="s">
+      <c r="D19" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="86"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="92"/>
       <c r="H19" s="9"/>
       <c r="I19" s="15"/>
       <c r="J19" s="9"/>
@@ -9242,16 +9274,16 @@
     <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="71"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="77"/>
       <c r="K20" s="15">
         <v>0</v>
       </c>
@@ -9262,18 +9294,18 @@
     <row r="21" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
     </row>
@@ -9283,11 +9315,11 @@
       <c r="C22" s="8">
         <v>1</v>
       </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="80"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="86"/>
       <c r="I22" s="29" t="s">
         <v>71</v>
       </c>
@@ -9305,11 +9337,11 @@
       <c r="C23" s="30">
         <v>2</v>
       </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="80"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86"/>
       <c r="I23" s="34"/>
       <c r="J23" s="32"/>
       <c r="K23" s="29"/>
@@ -9323,11 +9355,11 @@
       <c r="C24" s="8">
         <v>3</v>
       </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="80"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
       <c r="I24" s="21"/>
       <c r="J24" s="9"/>
       <c r="K24" s="29"/>
@@ -9341,11 +9373,11 @@
       <c r="C25" s="30">
         <v>4</v>
       </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="80"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="86"/>
       <c r="I25" s="21"/>
       <c r="J25" s="9"/>
       <c r="K25" s="29"/>
@@ -9359,11 +9391,11 @@
       <c r="C26" s="8">
         <v>5</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="68"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="21"/>
       <c r="J26" s="9"/>
       <c r="K26" s="29"/>
@@ -12202,10 +12234,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K116"/>
+  <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12275,15 +12307,15 @@
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
       <c r="I5" s="41"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -12521,7 +12553,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>14</v>
@@ -12605,7 +12637,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>14</v>
@@ -12644,83 +12676,75 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="46" t="s">
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="G22" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="H22" s="42"/>
+      <c r="H22" s="49"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
-      <c r="B23" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
+      <c r="B23" s="121" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121" t="s">
+        <v>225</v>
+      </c>
+      <c r="E23" s="121"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="119"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
-      <c r="B24" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="B24" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
-      <c r="B25" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="G25" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="H25" s="53" t="s">
-        <v>156</v>
+      <c r="B25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="48"/>
+      <c r="E25" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -12728,531 +12752,547 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="H26" s="42"/>
+      <c r="B26" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="53" t="s">
+        <v>156</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
-      <c r="B27" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="49"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
-      <c r="B28" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="60" t="s">
-        <v>211</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="B28" s="121" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" s="121"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="119"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
-      <c r="B29" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="D29" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="E29" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="F29" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="G29" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="H29" s="53" t="s">
-        <v>161</v>
-      </c>
+      <c r="B29" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="H30" s="42"/>
+      <c r="B30" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
-      <c r="B31" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>210</v>
-      </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="62"/>
+      <c r="B31" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="H31" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
-      <c r="B32" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="F32" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="G32" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="H32" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="61" t="s">
-        <v>15</v>
-      </c>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="H32" s="42"/>
+      <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
-      <c r="B33" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="C33" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="D33" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="E33" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="F33" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="G33" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="H33" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>219</v>
-      </c>
+      <c r="B33" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="60"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="G34" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="H34" s="42"/>
-      <c r="I34" s="2"/>
+      <c r="B34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="G34" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="H34" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="59" t="s">
+        <v>15</v>
+      </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
-      <c r="B35" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="2"/>
+      <c r="B35" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="G35" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="H35" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
-      <c r="B36" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" s="48"/>
-      <c r="E36" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="H36" s="42"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
-      <c r="B37" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="F37" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="G37" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="H37" s="53" t="s">
-        <v>166</v>
-      </c>
+      <c r="B37" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="G38" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="H38" s="42"/>
+      <c r="B38" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="48"/>
+      <c r="E38" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
-      <c r="B39" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
+      <c r="B39" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="H39" s="53" t="s">
+        <v>166</v>
+      </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
-      <c r="B40" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="H40" s="42"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
-      <c r="B41" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="C41" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="D41" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="E41" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="F41" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="G41" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="H41" s="53" t="s">
-        <v>172</v>
-      </c>
+      <c r="B41" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="G42" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="H42" s="42"/>
+      <c r="B42" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
-      <c r="B43" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
+      <c r="B43" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="G43" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="H43" s="53" t="s">
+        <v>172</v>
+      </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
-      <c r="B44" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>131</v>
-      </c>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="42"/>
       <c r="E44" s="42"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="F44" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="H44" s="42"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
-      <c r="B45" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="C45" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="H45" s="53" t="s">
-        <v>174</v>
-      </c>
+      <c r="B45" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
+      <c r="B46" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="47" t="s">
+        <v>131</v>
+      </c>
       <c r="D46" s="42"/>
       <c r="E46" s="42"/>
-      <c r="F46" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="G46" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="H46" s="42"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
-      <c r="B47" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="H47" s="25"/>
+      <c r="B47" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="H47" s="53" t="s">
+        <v>174</v>
+      </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
-      <c r="B48" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="H48" s="25"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="H48" s="42"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="112"/>
-      <c r="E49" s="112"/>
-      <c r="F49" s="112"/>
-      <c r="G49" s="112"/>
-      <c r="H49" s="112"/>
+      <c r="B49" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="79"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="H49" s="25"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
+      <c r="B50" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="79"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="H50" s="25"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="118"/>
+      <c r="F51" s="118"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="118"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="71"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -14089,14 +14129,40 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G52:H52"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:H51"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/NRE.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/NRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\财务报价核价系统__V2\后端github郭琪琪分支\finance_back\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA40A38-8B08-44D2-ABBB-3B2F2D6F8EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9F1E62-4BCE-44BD-8BA6-A3AC2DCAB2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="795" windowWidth="21600" windowHeight="14805" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NRE费用单" sheetId="1" state="hidden" r:id="rId1"/>
@@ -958,9 +958,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>{{LaboratoryFeeModels.AllCost}}</t>
-  </si>
-  <si>
     <t>{{LaboratoryFeeModels.Remark}}</t>
   </si>
   <si>
@@ -989,6 +986,10 @@
   </si>
   <si>
     <t>{{UphAndValues.Value}}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{LaboratoryFeeModels.AllCost}}</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -999,8 +1000,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="[$-409]d/mmm;@"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1560,7 +1561,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1583,17 +1583,62 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1601,49 +1646,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1664,6 +1670,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1673,53 +1682,47 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1731,9 +1734,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2127,11 +2128,11 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="112" t="s">
+      <c r="F1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="2"/>
@@ -2146,42 +2147,42 @@
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="113" t="s">
+      <c r="I2" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="113"/>
+      <c r="J2" s="72"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="75" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="75"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
       <c r="I4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2190,18 +2191,18 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="75" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="75"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
       <c r="I5" s="6" t="s">
         <v>7</v>
       </c>
@@ -2210,18 +2211,18 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
@@ -2229,12 +2230,12 @@
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
@@ -2255,12 +2256,12 @@
     </row>
     <row r="8" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="102"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
       <c r="H8" s="12"/>
@@ -2275,29 +2276,29 @@
       <c r="A9" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="77"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="83"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="105"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="86"/>
       <c r="I10" s="15">
         <f>SUM(I8:I9)</f>
         <v>0</v>
@@ -2307,18 +2308,18 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="110"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="88"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
@@ -2326,12 +2327,12 @@
       <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="90"/>
       <c r="F12" s="9" t="s">
         <v>22</v>
       </c>
@@ -2352,12 +2353,12 @@
     </row>
     <row r="13" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="81"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="12"/>
@@ -2369,16 +2370,16 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="105"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="86"/>
       <c r="I14" s="15">
         <f>SUM(I13)</f>
         <v>0</v>
@@ -2388,34 +2389,34 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="108"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="92"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
@@ -2423,12 +2424,12 @@
       <c r="A17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
       <c r="F17" s="9" t="s">
         <v>29</v>
       </c>
@@ -2451,12 +2452,12 @@
       <c r="A18" s="19">
         <v>1</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
       <c r="F18" s="9"/>
       <c r="G18" s="21"/>
       <c r="H18" s="9"/>
@@ -2471,10 +2472,10 @@
       <c r="A19" s="19">
         <v>1</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="92"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="95"/>
       <c r="F19" s="9"/>
       <c r="G19" s="21"/>
       <c r="H19" s="9"/>
@@ -2484,29 +2485,29 @@
       <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="93" t="s">
+      <c r="A20" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="95"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="98"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="74"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="90"/>
       <c r="F21" s="9" t="s">
         <v>29</v>
       </c>
@@ -2529,12 +2530,12 @@
       <c r="A22" s="19">
         <v>1</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
       <c r="F22" s="9" t="s">
         <v>29</v>
       </c>
@@ -2551,12 +2552,12 @@
       <c r="A23" s="19">
         <v>2</v>
       </c>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="95"/>
       <c r="F23" s="9" t="s">
         <v>29</v>
       </c>
@@ -2571,12 +2572,12 @@
       <c r="A24" s="19">
         <v>3</v>
       </c>
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="92"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="95"/>
       <c r="F24" s="19" t="s">
         <v>29</v>
       </c>
@@ -2591,12 +2592,12 @@
       <c r="A25" s="19">
         <v>4</v>
       </c>
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="92"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="95"/>
       <c r="F25" s="19" t="s">
         <v>29</v>
       </c>
@@ -2611,12 +2612,12 @@
       <c r="A26" s="19">
         <v>5</v>
       </c>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="92"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="95"/>
       <c r="F26" s="19" t="s">
         <v>29</v>
       </c>
@@ -2631,12 +2632,12 @@
       <c r="A27" s="19">
         <v>6</v>
       </c>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="92"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="95"/>
       <c r="F27" s="8" t="s">
         <v>29</v>
       </c>
@@ -2654,9 +2655,9 @@
       <c r="B28" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="92"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="95"/>
       <c r="F28" s="8" t="s">
         <v>29</v>
       </c>
@@ -2671,12 +2672,12 @@
       <c r="A29" s="19">
         <v>8</v>
       </c>
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="92"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="95"/>
       <c r="F29" s="8" t="s">
         <v>29</v>
       </c>
@@ -2691,12 +2692,12 @@
       <c r="A30" s="19">
         <v>9</v>
       </c>
-      <c r="B30" s="90" t="s">
+      <c r="B30" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="92"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="95"/>
       <c r="F30" s="8" t="s">
         <v>29</v>
       </c>
@@ -2711,12 +2712,12 @@
       <c r="A31" s="19">
         <v>10</v>
       </c>
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="92"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="95"/>
       <c r="F31" s="8" t="s">
         <v>29</v>
       </c>
@@ -2731,12 +2732,12 @@
       <c r="A32" s="19">
         <v>11</v>
       </c>
-      <c r="B32" s="90" t="s">
+      <c r="B32" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="92"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="95"/>
       <c r="F32" s="8" t="s">
         <v>29</v>
       </c>
@@ -2748,29 +2749,29 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="93" t="s">
+      <c r="A33" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="95"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="98"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="74"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="90"/>
       <c r="F34" s="9" t="s">
         <v>29</v>
       </c>
@@ -2793,10 +2794,10 @@
       <c r="A35" s="8">
         <v>1</v>
       </c>
-      <c r="B35" s="96"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="98"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="102"/>
       <c r="F35" s="9" t="s">
         <v>29</v>
       </c>
@@ -2816,10 +2817,10 @@
       <c r="A36" s="8">
         <v>2</v>
       </c>
-      <c r="B36" s="96"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="98"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="102"/>
       <c r="F36" s="9" t="s">
         <v>29</v>
       </c>
@@ -2837,13 +2838,13 @@
       <c r="A37" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="77"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="83"/>
       <c r="I37" s="15">
         <f>SUM(I18:I36)</f>
         <v>0</v>
@@ -2853,18 +2854,18 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="83" t="s">
+      <c r="A38" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
@@ -2872,12 +2873,12 @@
       <c r="A39" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="92"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="95"/>
       <c r="F39" s="9" t="s">
         <v>29</v>
       </c>
@@ -2900,12 +2901,12 @@
       <c r="A40" s="19">
         <v>1</v>
       </c>
-      <c r="B40" s="90" t="s">
+      <c r="B40" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="92"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="95"/>
       <c r="F40" s="9" t="s">
         <v>29</v>
       </c>
@@ -2922,12 +2923,12 @@
       <c r="A41" s="19">
         <v>2</v>
       </c>
-      <c r="B41" s="90" t="s">
+      <c r="B41" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="92"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="95"/>
       <c r="F41" s="9" t="s">
         <v>29</v>
       </c>
@@ -2942,12 +2943,12 @@
       <c r="A42" s="19">
         <v>3</v>
       </c>
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="92"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="95"/>
       <c r="F42" s="9" t="s">
         <v>29</v>
       </c>
@@ -2962,12 +2963,12 @@
       <c r="A43" s="19">
         <v>4</v>
       </c>
-      <c r="B43" s="90" t="s">
+      <c r="B43" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="91"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="92"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="95"/>
       <c r="F43" s="9" t="s">
         <v>29</v>
       </c>
@@ -2982,12 +2983,12 @@
       <c r="A44" s="19">
         <v>5</v>
       </c>
-      <c r="B44" s="90" t="s">
+      <c r="B44" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="91"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="92"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="95"/>
       <c r="F44" s="9" t="s">
         <v>29</v>
       </c>
@@ -3002,12 +3003,12 @@
       <c r="A45" s="19">
         <v>6</v>
       </c>
-      <c r="B45" s="90" t="s">
+      <c r="B45" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="91"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="92"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="95"/>
       <c r="F45" s="9" t="s">
         <v>29</v>
       </c>
@@ -3022,12 +3023,12 @@
       <c r="A46" s="19">
         <v>7</v>
       </c>
-      <c r="B46" s="90" t="s">
+      <c r="B46" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="92"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="95"/>
       <c r="F46" s="9" t="s">
         <v>29</v>
       </c>
@@ -3042,13 +3043,13 @@
       <c r="A47" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="76"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="77"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="83"/>
       <c r="I47" s="15">
         <f>SUM(I40:I46)</f>
         <v>0</v>
@@ -3058,34 +3059,34 @@
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="83"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="77"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="87" t="s">
+      <c r="A49" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="88"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="89"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="104"/>
+      <c r="J49" s="105"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
@@ -3093,12 +3094,12 @@
       <c r="A50" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="90" t="s">
+      <c r="B50" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="91"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="92"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="95"/>
       <c r="F50" s="9" t="s">
         <v>29</v>
       </c>
@@ -3119,12 +3120,12 @@
     </row>
     <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="90" t="s">
+      <c r="B51" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="91"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="92"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="95"/>
       <c r="F51" s="9"/>
       <c r="G51" s="15"/>
       <c r="H51" s="9"/>
@@ -3139,13 +3140,13 @@
       <c r="A52" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="76"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="77"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="83"/>
       <c r="I52" s="15">
         <v>0</v>
       </c>
@@ -3154,18 +3155,18 @@
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="83" t="s">
+      <c r="A53" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="83"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="83"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
@@ -3173,12 +3174,12 @@
       <c r="A54" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="72" t="s">
+      <c r="B54" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="73"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="74"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="90"/>
       <c r="F54" s="9"/>
       <c r="G54" s="15" t="s">
         <v>66</v>
@@ -3199,10 +3200,10 @@
       <c r="A55" s="8">
         <v>1</v>
       </c>
-      <c r="B55" s="72"/>
-      <c r="C55" s="73"/>
-      <c r="D55" s="73"/>
-      <c r="E55" s="74"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="90"/>
       <c r="F55" s="9"/>
       <c r="G55" s="15"/>
       <c r="H55" s="9"/>
@@ -3215,10 +3216,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="74"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="90"/>
       <c r="F56" s="9"/>
       <c r="G56" s="15"/>
       <c r="H56" s="9"/>
@@ -3231,13 +3232,13 @@
       <c r="A57" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="76"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="77"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="83"/>
       <c r="I57" s="15">
         <f>SUM(I55:I56)</f>
         <v>0</v>
@@ -3247,18 +3248,18 @@
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="82" t="s">
+      <c r="A58" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="B58" s="83"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="83"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="77"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
@@ -3266,13 +3267,13 @@
       <c r="A59" s="8">
         <v>1</v>
       </c>
-      <c r="B59" s="84" t="s">
+      <c r="B59" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="86"/>
+      <c r="C59" s="108"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="109"/>
       <c r="G59" s="29" t="s">
         <v>71</v>
       </c>
@@ -3288,13 +3289,13 @@
       <c r="A60" s="30">
         <v>2</v>
       </c>
-      <c r="B60" s="84" t="s">
+      <c r="B60" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="86"/>
+      <c r="C60" s="108"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="109"/>
       <c r="G60" s="31"/>
       <c r="H60" s="32"/>
       <c r="I60" s="29"/>
@@ -3306,13 +3307,13 @@
       <c r="A61" s="8">
         <v>3</v>
       </c>
-      <c r="B61" s="84" t="s">
+      <c r="B61" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="86"/>
+      <c r="C61" s="108"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="109"/>
       <c r="G61" s="21"/>
       <c r="H61" s="9"/>
       <c r="I61" s="29"/>
@@ -3324,13 +3325,13 @@
       <c r="A62" s="30">
         <v>4</v>
       </c>
-      <c r="B62" s="84" t="s">
+      <c r="B62" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="85"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="85"/>
-      <c r="F62" s="86"/>
+      <c r="C62" s="108"/>
+      <c r="D62" s="108"/>
+      <c r="E62" s="108"/>
+      <c r="F62" s="109"/>
       <c r="G62" s="21"/>
       <c r="H62" s="9"/>
       <c r="I62" s="29"/>
@@ -3342,11 +3343,11 @@
       <c r="A63" s="8">
         <v>5</v>
       </c>
-      <c r="B63" s="72"/>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="74"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="89"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="90"/>
       <c r="G63" s="21"/>
       <c r="H63" s="9"/>
       <c r="I63" s="29"/>
@@ -3358,13 +3359,13 @@
       <c r="A64" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="76"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="77"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="82"/>
+      <c r="H64" s="83"/>
       <c r="I64" s="21">
         <f>SUM(I59:I63)</f>
         <v>0</v>
@@ -3374,16 +3375,16 @@
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="78" t="s">
+      <c r="A65" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="79"/>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="80"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="114"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="114"/>
+      <c r="F65" s="114"/>
+      <c r="G65" s="114"/>
+      <c r="H65" s="115"/>
       <c r="I65" s="35">
         <f>I10+I14+I37+I47+I52+I57+I64</f>
         <v>0</v>
@@ -3393,16 +3394,16 @@
       <c r="L65" s="2"/>
     </row>
     <row r="66" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="78" t="s">
+      <c r="A66" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="79"/>
-      <c r="C66" s="79"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="80"/>
+      <c r="B66" s="114"/>
+      <c r="C66" s="114"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="114"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="114"/>
+      <c r="H66" s="115"/>
       <c r="I66" s="35">
         <f>I65/6.89</f>
         <v>0</v>
@@ -3412,8 +3413,8 @@
       <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="81"/>
-      <c r="B67" s="81"/>
+      <c r="A67" s="116"/>
+      <c r="B67" s="116"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
       <c r="E67" s="36"/>
@@ -3426,22 +3427,22 @@
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="69" t="s">
+      <c r="A68" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="69"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="69" t="s">
+      <c r="B68" s="110"/>
+      <c r="C68" s="110"/>
+      <c r="D68" s="110"/>
+      <c r="E68" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="F68" s="69"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="69" t="s">
+      <c r="F68" s="110"/>
+      <c r="G68" s="110"/>
+      <c r="H68" s="110"/>
+      <c r="I68" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="J68" s="69"/>
+      <c r="J68" s="110"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
@@ -3454,10 +3455,10 @@
       <c r="F69" s="4"/>
       <c r="G69" s="5"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="70" t="s">
+      <c r="I69" s="111" t="s">
         <v>136</v>
       </c>
-      <c r="J69" s="71"/>
+      <c r="J69" s="112"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
@@ -5311,72 +5312,6 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="E68:H68"/>
     <mergeCell ref="I68:J68"/>
@@ -5386,6 +5321,72 @@
     <mergeCell ref="A65:H65"/>
     <mergeCell ref="A66:H66"/>
     <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5457,35 +5458,35 @@
     </row>
     <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="38"/>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="75" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="75"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
       <c r="J5" s="6" t="s">
         <v>4</v>
       </c>
@@ -5495,18 +5496,18 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="38"/>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="75" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="75"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
       <c r="J6" s="6" t="s">
         <v>7</v>
       </c>
@@ -5516,18 +5517,18 @@
     </row>
     <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
     </row>
@@ -5536,12 +5537,12 @@
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="9" t="s">
         <v>11</v>
       </c>
@@ -5565,12 +5566,12 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="102"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
       <c r="I9" s="12"/>
@@ -5584,13 +5585,13 @@
       <c r="B10" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="77"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="83"/>
       <c r="J10" s="15"/>
       <c r="K10" s="16"/>
       <c r="L10" s="38"/>
@@ -5598,16 +5599,16 @@
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="38"/>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="105"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="86"/>
       <c r="J11" s="15">
         <f>SUM(J9:J10)</f>
         <v>0</v>
@@ -5618,18 +5619,18 @@
     </row>
     <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="110"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="88"/>
       <c r="L12" s="39" t="s">
         <v>93</v>
       </c>
@@ -5640,12 +5641,12 @@
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="74"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
       <c r="G13" s="9" t="s">
         <v>22</v>
       </c>
@@ -5669,12 +5670,12 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="38"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="100" t="s">
+      <c r="C14" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="102"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
       <c r="I14" s="12"/>
@@ -5689,16 +5690,16 @@
     </row>
     <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="105"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="86"/>
       <c r="J15" s="15">
         <f>SUM(J14)</f>
         <v>0</v>
@@ -5711,18 +5712,18 @@
     </row>
     <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
     </row>
@@ -5731,12 +5732,12 @@
       <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="74"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="90"/>
       <c r="G17" s="9" t="s">
         <v>29</v>
       </c>
@@ -5762,12 +5763,12 @@
       <c r="B18" s="19">
         <v>1</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="92"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="95"/>
       <c r="G18" s="9"/>
       <c r="H18" s="21"/>
       <c r="I18" s="9"/>
@@ -5781,10 +5782,10 @@
       <c r="B19" s="19">
         <v>1</v>
       </c>
-      <c r="C19" s="90"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="92"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="95"/>
       <c r="G19" s="9"/>
       <c r="H19" s="21"/>
       <c r="I19" s="9"/>
@@ -5795,30 +5796,30 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="95"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="98"/>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="38"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="74"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="90"/>
       <c r="G21" s="9" t="s">
         <v>29</v>
       </c>
@@ -5844,12 +5845,12 @@
       <c r="B22" s="19">
         <v>1</v>
       </c>
-      <c r="C22" s="90" t="s">
+      <c r="C22" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="92"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="95"/>
       <c r="G22" s="9" t="s">
         <v>29</v>
       </c>
@@ -5865,12 +5866,12 @@
       <c r="B23" s="19">
         <v>2</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="92"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="95"/>
       <c r="G23" s="9" t="s">
         <v>29</v>
       </c>
@@ -5886,12 +5887,12 @@
       <c r="B24" s="19">
         <v>3</v>
       </c>
-      <c r="C24" s="90" t="s">
+      <c r="C24" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="92"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="95"/>
       <c r="G24" s="19" t="s">
         <v>29</v>
       </c>
@@ -5907,12 +5908,12 @@
       <c r="B25" s="19">
         <v>4</v>
       </c>
-      <c r="C25" s="90" t="s">
+      <c r="C25" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="92"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="95"/>
       <c r="G25" s="19" t="s">
         <v>29</v>
       </c>
@@ -5928,12 +5929,12 @@
       <c r="B26" s="19">
         <v>5</v>
       </c>
-      <c r="C26" s="90" t="s">
+      <c r="C26" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="92"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="95"/>
       <c r="G26" s="19" t="s">
         <v>29</v>
       </c>
@@ -5949,12 +5950,12 @@
       <c r="B27" s="19">
         <v>6</v>
       </c>
-      <c r="C27" s="90" t="s">
+      <c r="C27" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="92"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="95"/>
       <c r="G27" s="8" t="s">
         <v>29</v>
       </c>
@@ -5970,12 +5971,12 @@
       <c r="B28" s="19">
         <v>7</v>
       </c>
-      <c r="C28" s="115" t="s">
+      <c r="C28" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="92"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="95"/>
       <c r="G28" s="8" t="s">
         <v>29</v>
       </c>
@@ -5991,12 +5992,12 @@
       <c r="B29" s="19">
         <v>8</v>
       </c>
-      <c r="C29" s="90" t="s">
+      <c r="C29" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="92"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="95"/>
       <c r="G29" s="8" t="s">
         <v>29</v>
       </c>
@@ -6012,12 +6013,12 @@
       <c r="B30" s="19">
         <v>9</v>
       </c>
-      <c r="C30" s="90" t="s">
+      <c r="C30" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="92"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="95"/>
       <c r="G30" s="8" t="s">
         <v>29</v>
       </c>
@@ -6033,12 +6034,12 @@
       <c r="B31" s="19">
         <v>10</v>
       </c>
-      <c r="C31" s="90" t="s">
+      <c r="C31" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="92"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="95"/>
       <c r="G31" s="8" t="s">
         <v>29</v>
       </c>
@@ -6054,12 +6055,12 @@
       <c r="B32" s="19">
         <v>11</v>
       </c>
-      <c r="C32" s="90" t="s">
+      <c r="C32" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="92"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="95"/>
       <c r="G32" s="8" t="s">
         <v>29</v>
       </c>
@@ -6072,30 +6073,30 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="38"/>
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="95"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="98"/>
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="38"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="74"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="90"/>
       <c r="G34" s="9" t="s">
         <v>29</v>
       </c>
@@ -6121,10 +6122,10 @@
       <c r="B35" s="8">
         <v>1</v>
       </c>
-      <c r="C35" s="96"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="98"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="102"/>
       <c r="G35" s="9" t="s">
         <v>29</v>
       </c>
@@ -6143,10 +6144,10 @@
       <c r="B36" s="8">
         <v>2</v>
       </c>
-      <c r="C36" s="96"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="98"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="102"/>
       <c r="G36" s="9" t="s">
         <v>29</v>
       </c>
@@ -6165,13 +6166,13 @@
       <c r="B37" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="77"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="83"/>
       <c r="J37" s="15">
         <f>SUM(J18:J36)</f>
         <v>0</v>
@@ -6182,18 +6183,18 @@
     </row>
     <row r="38" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
     </row>
@@ -6202,12 +6203,12 @@
       <c r="B39" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="90" t="s">
+      <c r="C39" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="92"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="95"/>
       <c r="G39" s="9" t="s">
         <v>29</v>
       </c>
@@ -6233,12 +6234,12 @@
       <c r="B40" s="19">
         <v>1</v>
       </c>
-      <c r="C40" s="90" t="s">
+      <c r="C40" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="92"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="95"/>
       <c r="G40" s="9" t="s">
         <v>29</v>
       </c>
@@ -6254,12 +6255,12 @@
       <c r="B41" s="19">
         <v>2</v>
       </c>
-      <c r="C41" s="90" t="s">
+      <c r="C41" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="92"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="95"/>
       <c r="G41" s="9" t="s">
         <v>29</v>
       </c>
@@ -6275,12 +6276,12 @@
       <c r="B42" s="19">
         <v>3</v>
       </c>
-      <c r="C42" s="90" t="s">
+      <c r="C42" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="91"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="92"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="95"/>
       <c r="G42" s="9" t="s">
         <v>29</v>
       </c>
@@ -6296,12 +6297,12 @@
       <c r="B43" s="19">
         <v>4</v>
       </c>
-      <c r="C43" s="90" t="s">
+      <c r="C43" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="91"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="92"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="95"/>
       <c r="G43" s="9" t="s">
         <v>29</v>
       </c>
@@ -6317,12 +6318,12 @@
       <c r="B44" s="19">
         <v>5</v>
       </c>
-      <c r="C44" s="90" t="s">
+      <c r="C44" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="91"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="92"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="95"/>
       <c r="G44" s="9" t="s">
         <v>29</v>
       </c>
@@ -6338,12 +6339,12 @@
       <c r="B45" s="19">
         <v>6</v>
       </c>
-      <c r="C45" s="90" t="s">
+      <c r="C45" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="91"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="92"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="95"/>
       <c r="G45" s="9" t="s">
         <v>29</v>
       </c>
@@ -6359,12 +6360,12 @@
       <c r="B46" s="19">
         <v>7</v>
       </c>
-      <c r="C46" s="90" t="s">
+      <c r="C46" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="92"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="95"/>
       <c r="G46" s="9" t="s">
         <v>29</v>
       </c>
@@ -6380,13 +6381,13 @@
       <c r="B47" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="77"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="83"/>
       <c r="J47" s="15">
         <f>SUM(J40:J46)</f>
         <v>0</v>
@@ -6397,35 +6398,35 @@
     </row>
     <row r="48" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
-      <c r="B48" s="83" t="s">
+      <c r="B48" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="77"/>
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="38"/>
-      <c r="B49" s="87" t="s">
+      <c r="B49" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="89"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="104"/>
+      <c r="J49" s="104"/>
+      <c r="K49" s="105"/>
       <c r="L49" s="38"/>
       <c r="M49" s="38"/>
     </row>
@@ -6434,12 +6435,12 @@
       <c r="B50" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="90" t="s">
+      <c r="C50" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="91"/>
-      <c r="E50" s="91"/>
-      <c r="F50" s="92"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="95"/>
       <c r="G50" s="9" t="s">
         <v>29</v>
       </c>
@@ -6461,12 +6462,12 @@
     <row r="51" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="38"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="90" t="s">
+      <c r="C51" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="91"/>
-      <c r="E51" s="91"/>
-      <c r="F51" s="92"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="95"/>
       <c r="G51" s="9"/>
       <c r="H51" s="15"/>
       <c r="I51" s="9"/>
@@ -6482,13 +6483,13 @@
       <c r="B52" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="77"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="83"/>
       <c r="J52" s="15">
         <v>0</v>
       </c>
@@ -6498,18 +6499,18 @@
     </row>
     <row r="53" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
-      <c r="B53" s="83" t="s">
+      <c r="B53" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="83"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="83"/>
-      <c r="K53" s="83"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="77"/>
       <c r="L53" s="38"/>
       <c r="M53" s="38"/>
     </row>
@@ -6518,12 +6519,12 @@
       <c r="B54" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="72" t="s">
+      <c r="C54" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="74"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="90"/>
       <c r="G54" s="9"/>
       <c r="H54" s="15" t="s">
         <v>66</v>
@@ -6545,10 +6546,10 @@
       <c r="B55" s="8">
         <v>1</v>
       </c>
-      <c r="C55" s="72"/>
-      <c r="D55" s="73"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="74"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="90"/>
       <c r="G55" s="9"/>
       <c r="H55" s="15"/>
       <c r="I55" s="9"/>
@@ -6562,10 +6563,10 @@
     <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="38"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="74"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="90"/>
       <c r="G56" s="9"/>
       <c r="H56" s="15"/>
       <c r="I56" s="9"/>
@@ -6579,13 +6580,13 @@
       <c r="B57" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="77"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="82"/>
+      <c r="I57" s="83"/>
       <c r="J57" s="15">
         <f>SUM(J55:J56)</f>
         <v>0</v>
@@ -6596,18 +6597,18 @@
     </row>
     <row r="58" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A58" s="38"/>
-      <c r="B58" s="82" t="s">
+      <c r="B58" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="83"/>
-      <c r="K58" s="83"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="77"/>
+      <c r="K58" s="77"/>
       <c r="L58" s="38"/>
       <c r="M58" s="38"/>
     </row>
@@ -6616,13 +6617,13 @@
       <c r="B59" s="8">
         <v>1</v>
       </c>
-      <c r="C59" s="84" t="s">
+      <c r="C59" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="86"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="108"/>
+      <c r="G59" s="109"/>
       <c r="H59" s="29" t="s">
         <v>71</v>
       </c>
@@ -6639,13 +6640,13 @@
       <c r="B60" s="30">
         <v>2</v>
       </c>
-      <c r="C60" s="84" t="s">
+      <c r="C60" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="85"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="86"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="108"/>
+      <c r="G60" s="109"/>
       <c r="H60" s="34"/>
       <c r="I60" s="32"/>
       <c r="J60" s="29"/>
@@ -6658,13 +6659,13 @@
       <c r="B61" s="8">
         <v>3</v>
       </c>
-      <c r="C61" s="84" t="s">
+      <c r="C61" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="86"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="108"/>
+      <c r="G61" s="109"/>
       <c r="H61" s="21"/>
       <c r="I61" s="9"/>
       <c r="J61" s="29"/>
@@ -6677,13 +6678,13 @@
       <c r="B62" s="30">
         <v>4</v>
       </c>
-      <c r="C62" s="84" t="s">
+      <c r="C62" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="85"/>
-      <c r="E62" s="85"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="86"/>
+      <c r="D62" s="108"/>
+      <c r="E62" s="108"/>
+      <c r="F62" s="108"/>
+      <c r="G62" s="109"/>
       <c r="H62" s="21"/>
       <c r="I62" s="9"/>
       <c r="J62" s="29"/>
@@ -6696,11 +6697,11 @@
       <c r="B63" s="8">
         <v>5</v>
       </c>
-      <c r="C63" s="72"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="74"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="89"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="89"/>
+      <c r="G63" s="90"/>
       <c r="H63" s="21"/>
       <c r="I63" s="9"/>
       <c r="J63" s="29"/>
@@ -6713,13 +6714,13 @@
       <c r="B64" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="76"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="76"/>
-      <c r="I64" s="77"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="82"/>
+      <c r="H64" s="82"/>
+      <c r="I64" s="83"/>
       <c r="J64" s="21">
         <f>SUM(J59:J63)</f>
         <v>0</v>
@@ -6730,16 +6731,16 @@
     </row>
     <row r="65" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="38"/>
-      <c r="B65" s="78" t="s">
+      <c r="B65" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="79"/>
-      <c r="I65" s="80"/>
+      <c r="C65" s="114"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="114"/>
+      <c r="F65" s="114"/>
+      <c r="G65" s="114"/>
+      <c r="H65" s="114"/>
+      <c r="I65" s="115"/>
       <c r="J65" s="35">
         <f>J11+J15+J37+J47+J52+J57+J64</f>
         <v>0</v>
@@ -6750,16 +6751,16 @@
     </row>
     <row r="66" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="38"/>
-      <c r="B66" s="78" t="s">
+      <c r="B66" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="79"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="79"/>
-      <c r="I66" s="80"/>
+      <c r="C66" s="114"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="114"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="114"/>
+      <c r="H66" s="114"/>
+      <c r="I66" s="115"/>
       <c r="J66" s="35">
         <f>J65/6.89</f>
         <v>0</v>
@@ -8795,6 +8796,66 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:K58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
@@ -8802,66 +8863,6 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:K48"/>
-    <mergeCell ref="B49:K49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:K53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:K58"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="B66:I66"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8934,18 +8935,18 @@
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
     </row>
@@ -8955,12 +8956,12 @@
       <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
       <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
@@ -9017,10 +9018,10 @@
       <c r="A8" s="38"/>
       <c r="B8" s="38"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="102"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
       <c r="J8" s="12"/>
@@ -9035,13 +9036,13 @@
       <c r="C9" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="83"/>
       <c r="K9" s="15"/>
       <c r="L9" s="16"/>
       <c r="M9" s="38"/>
@@ -9050,16 +9051,16 @@
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="105"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="86"/>
       <c r="K10" s="15">
         <f>SUM(K8:K9)</f>
         <v>0</v>
@@ -9071,18 +9072,18 @@
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="38"/>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
     </row>
@@ -9090,12 +9091,12 @@
       <c r="A12" s="38"/>
       <c r="B12" s="38"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="74"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="9" t="s">
         <v>29</v>
       </c>
@@ -9122,10 +9123,10 @@
       <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="D13" s="96"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="98"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="102"/>
       <c r="H13" s="9" t="s">
         <v>29</v>
       </c>
@@ -9145,10 +9146,10 @@
       <c r="C14" s="8">
         <v>2</v>
       </c>
-      <c r="D14" s="96"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="98"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="102"/>
       <c r="H14" s="9" t="s">
         <v>29</v>
       </c>
@@ -9168,13 +9169,13 @@
       <c r="C15" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="77"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="83"/>
       <c r="K15" s="15">
         <f>SUM(K12:K14)</f>
         <v>0</v>
@@ -9186,36 +9187,36 @@
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="89"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="105"/>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
     </row>
@@ -9225,12 +9226,12 @@
       <c r="C18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="90" t="s">
+      <c r="D18" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="92"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="95"/>
       <c r="H18" s="9" t="s">
         <v>29</v>
       </c>
@@ -9255,12 +9256,12 @@
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="90" t="s">
+      <c r="D19" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="92"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="95"/>
       <c r="H19" s="9"/>
       <c r="I19" s="15"/>
       <c r="J19" s="9"/>
@@ -9277,13 +9278,13 @@
       <c r="C20" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="77"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="83"/>
       <c r="K20" s="15">
         <v>0</v>
       </c>
@@ -9294,18 +9295,18 @@
     <row r="21" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
     </row>
@@ -9315,11 +9316,11 @@
       <c r="C22" s="8">
         <v>1</v>
       </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="86"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="109"/>
       <c r="I22" s="29" t="s">
         <v>71</v>
       </c>
@@ -9337,11 +9338,11 @@
       <c r="C23" s="30">
         <v>2</v>
       </c>
-      <c r="D23" s="84"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="86"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="109"/>
       <c r="I23" s="34"/>
       <c r="J23" s="32"/>
       <c r="K23" s="29"/>
@@ -9355,11 +9356,11 @@
       <c r="C24" s="8">
         <v>3</v>
       </c>
-      <c r="D24" s="84"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="86"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="109"/>
       <c r="I24" s="21"/>
       <c r="J24" s="9"/>
       <c r="K24" s="29"/>
@@ -9373,11 +9374,11 @@
       <c r="C25" s="30">
         <v>4</v>
       </c>
-      <c r="D25" s="84"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="86"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="109"/>
       <c r="I25" s="21"/>
       <c r="J25" s="9"/>
       <c r="K25" s="29"/>
@@ -9391,11 +9392,11 @@
       <c r="C26" s="8">
         <v>5</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="74"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="90"/>
       <c r="I26" s="21"/>
       <c r="J26" s="9"/>
       <c r="K26" s="29"/>
@@ -12205,27 +12206,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="C20:J20"/>
     <mergeCell ref="D26:H26"/>
     <mergeCell ref="C21:L21"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="D23:H23"/>
     <mergeCell ref="D24:H24"/>
     <mergeCell ref="D25:H25"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12237,7 +12238,7 @@
   <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="G49" sqref="G49:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12307,15 +12308,15 @@
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="118" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
       <c r="I5" s="41"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -12404,13 +12405,13 @@
       <c r="D9" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="121" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="121" t="s">
         <v>185</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="121" t="s">
         <v>186</v>
       </c>
       <c r="H9" s="52" t="s">
@@ -12492,13 +12493,13 @@
       <c r="D13" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="121" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="121" t="s">
         <v>209</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G13" s="121" t="s">
         <v>141</v>
       </c>
       <c r="H13" s="16"/>
@@ -12574,13 +12575,13 @@
         <v>142</v>
       </c>
       <c r="D17" s="53"/>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="121" t="s">
         <v>143</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="121" t="s">
         <v>144</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="121" t="s">
         <v>145</v>
       </c>
       <c r="H17" s="53" t="s">
@@ -12658,13 +12659,13 @@
         <v>147</v>
       </c>
       <c r="D21" s="53"/>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="121" t="s">
         <v>148</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="121" t="s">
         <v>149</v>
       </c>
-      <c r="G21" s="53" t="s">
+      <c r="G21" s="121" t="s">
         <v>150</v>
       </c>
       <c r="H21" s="53" t="s">
@@ -12680,10 +12681,10 @@
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
       <c r="E22" s="49"/>
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="63" t="s">
+      <c r="G22" s="62" t="s">
         <v>201</v>
       </c>
       <c r="H22" s="49"/>
@@ -12693,34 +12694,34 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
-      <c r="B23" s="121" t="s">
+      <c r="B23" s="70" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121" t="s">
-        <v>225</v>
-      </c>
-      <c r="E23" s="121"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="119"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="68"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -12759,13 +12760,13 @@
         <v>152</v>
       </c>
       <c r="D26" s="53"/>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="F26" s="121" t="s">
         <v>154</v>
       </c>
-      <c r="G26" s="53" t="s">
+      <c r="G26" s="121" t="s">
         <v>155</v>
       </c>
       <c r="H26" s="53" t="s">
@@ -12781,10 +12782,10 @@
       <c r="C27" s="49"/>
       <c r="D27" s="49"/>
       <c r="E27" s="49"/>
-      <c r="F27" s="62" t="s">
+      <c r="F27" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="63" t="s">
+      <c r="G27" s="62" t="s">
         <v>202</v>
       </c>
       <c r="H27" s="49"/>
@@ -12794,34 +12795,34 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
-      <c r="B28" s="121" t="s">
+      <c r="B28" s="70" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121" t="s">
-        <v>225</v>
-      </c>
-      <c r="E28" s="121"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="119"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="68"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -12831,10 +12832,10 @@
       <c r="B30" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="58" t="s">
+      <c r="D30" s="57" t="s">
         <v>211</v>
       </c>
       <c r="E30" s="48" t="s">
@@ -12858,19 +12859,19 @@
       <c r="B31" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="E31" s="53" t="s">
+      <c r="D31" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="E31" s="121" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="53" t="s">
+      <c r="F31" s="121" t="s">
         <v>159</v>
       </c>
-      <c r="G31" s="53" t="s">
+      <c r="G31" s="121" t="s">
         <v>160</v>
       </c>
       <c r="H31" s="53" t="s">
@@ -12902,7 +12903,7 @@
       <c r="B33" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="54" t="s">
         <v>210</v>
       </c>
       <c r="D33" s="45"/>
@@ -12910,7 +12911,7 @@
       <c r="F33" s="45"/>
       <c r="G33" s="45"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="60"/>
+      <c r="I33" s="59"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
@@ -12925,19 +12926,19 @@
       <c r="D34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="59" t="s">
+      <c r="E34" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="F34" s="59" t="s">
+      <c r="F34" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="G34" s="59" t="s">
+      <c r="G34" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="H34" s="59" t="s">
+      <c r="H34" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="59" t="s">
+      <c r="I34" s="58" t="s">
         <v>15</v>
       </c>
       <c r="J34" s="2"/>
@@ -12954,20 +12955,20 @@
       <c r="D35" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="121" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" s="121" t="s">
         <v>219</v>
       </c>
-      <c r="F35" s="47" t="s">
+      <c r="G35" s="121" t="s">
         <v>220</v>
       </c>
-      <c r="G35" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="H35" s="53" t="s">
+      <c r="H35" s="121" t="s">
+        <v>225</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -13040,13 +13041,13 @@
         <v>162</v>
       </c>
       <c r="D39" s="53"/>
-      <c r="E39" s="53" t="s">
+      <c r="E39" s="121" t="s">
         <v>163</v>
       </c>
-      <c r="F39" s="53" t="s">
+      <c r="F39" s="121" t="s">
         <v>164</v>
       </c>
-      <c r="G39" s="53" t="s">
+      <c r="G39" s="121" t="s">
         <v>165</v>
       </c>
       <c r="H39" s="53" t="s">
@@ -13125,16 +13126,16 @@
       <c r="C43" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="D43" s="53" t="s">
+      <c r="D43" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="E43" s="53" t="s">
+      <c r="E43" s="121" t="s">
         <v>169</v>
       </c>
-      <c r="F43" s="53" t="s">
+      <c r="F43" s="121" t="s">
         <v>170</v>
       </c>
-      <c r="G43" s="53" t="s">
+      <c r="G43" s="121" t="s">
         <v>171</v>
       </c>
       <c r="H43" s="53" t="s">
@@ -13205,18 +13206,18 @@
         <v>193</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D47" s="53"/>
       <c r="E47" s="53"/>
       <c r="F47" s="53"/>
-      <c r="G47" s="53" t="s">
+      <c r="G47" s="121" t="s">
         <v>173</v>
       </c>
-      <c r="H47" s="53" t="s">
+      <c r="H47" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="I47" s="2"/>
+      <c r="I47" s="121"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
@@ -13239,14 +13240,14 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
-      <c r="B49" s="78" t="s">
+      <c r="B49" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="54" t="s">
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="121" t="s">
         <v>175</v>
       </c>
       <c r="H49" s="25"/>
@@ -13256,14 +13257,14 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
-      <c r="B50" s="78" t="s">
+      <c r="B50" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="79"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="54" t="s">
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="121" t="s">
         <v>176</v>
       </c>
       <c r="H50" s="25"/>
@@ -13275,11 +13276,11 @@
       <c r="A51" s="2"/>
       <c r="B51" s="49"/>
       <c r="C51" s="37"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="118"/>
-      <c r="F51" s="118"/>
-      <c r="G51" s="118"/>
-      <c r="H51" s="118"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="120"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -13291,8 +13292,8 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
+      <c r="G52" s="112"/>
+      <c r="H52" s="112"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>

--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/NRE.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/NRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\财务报价核价系统__V2\后端github郭琪琪分支\finance_back\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9F1E62-4BCE-44BD-8BA6-A3AC2DCAB2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D718CE-343F-46D9-B049-FE4A4A16F33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="224">
   <si>
     <t>密级：</t>
   </si>
@@ -623,14 +623,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>{{SoftwareTestingCost.CostH}}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{SoftwareTestingCost.Hour}}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>{{SoftwareTestingCost.Cost}}</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -1000,8 +992,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="179" formatCode="[$-409]d/mmm;@"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d/mmm;@"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1428,7 +1420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1565,7 +1557,7 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1586,38 +1578,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1625,31 +1606,40 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1670,9 +1660,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1682,47 +1669,53 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1734,7 +1727,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2128,11 +2120,11 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="2"/>
@@ -2147,42 +2139,42 @@
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="116" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="72"/>
+      <c r="J2" s="116"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
       <c r="I4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2191,18 +2183,18 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75" t="s">
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
       <c r="I5" s="6" t="s">
         <v>7</v>
       </c>
@@ -2211,18 +2203,18 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
@@ -2230,12 +2222,12 @@
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
       <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
@@ -2256,12 +2248,12 @@
     </row>
     <row r="8" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="105"/>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
       <c r="H8" s="12"/>
@@ -2273,32 +2265,32 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="80"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="86"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="108"/>
       <c r="I10" s="15">
         <f>SUM(I8:I9)</f>
         <v>0</v>
@@ -2308,18 +2300,18 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="113"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
@@ -2327,12 +2319,12 @@
       <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="90"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="9" t="s">
         <v>22</v>
       </c>
@@ -2353,12 +2345,12 @@
     </row>
     <row r="13" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="81"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="12"/>
@@ -2370,16 +2362,16 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="86"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="108"/>
       <c r="I14" s="15">
         <f>SUM(I13)</f>
         <v>0</v>
@@ -2389,34 +2381,34 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="92"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="111"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
@@ -2424,12 +2416,12 @@
       <c r="A17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="90"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
       <c r="F17" s="9" t="s">
         <v>29</v>
       </c>
@@ -2502,12 +2494,12 @@
     </row>
     <row r="21" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="90"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="77"/>
       <c r="F21" s="9" t="s">
         <v>29</v>
       </c>
@@ -2652,7 +2644,7 @@
       <c r="A28" s="19">
         <v>7</v>
       </c>
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="102" t="s">
         <v>134</v>
       </c>
       <c r="C28" s="94"/>
@@ -2766,12 +2758,12 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="90"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="77"/>
       <c r="F34" s="9" t="s">
         <v>29</v>
       </c>
@@ -2794,10 +2786,10 @@
       <c r="A35" s="8">
         <v>1</v>
       </c>
-      <c r="B35" s="100"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="102"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="101"/>
       <c r="F35" s="9" t="s">
         <v>29</v>
       </c>
@@ -2817,10 +2809,10 @@
       <c r="A36" s="8">
         <v>2</v>
       </c>
-      <c r="B36" s="100"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="102"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="101"/>
       <c r="F36" s="9" t="s">
         <v>29</v>
       </c>
@@ -2835,16 +2827,16 @@
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="83"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="80"/>
       <c r="I37" s="15">
         <f>SUM(I18:I36)</f>
         <v>0</v>
@@ -2854,18 +2846,18 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
@@ -3040,16 +3032,16 @@
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="82"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="83"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="80"/>
       <c r="I47" s="15">
         <f>SUM(I40:I46)</f>
         <v>0</v>
@@ -3059,34 +3051,34 @@
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="77" t="s">
+      <c r="A48" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="77"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="86"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="103" t="s">
+      <c r="A49" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="104"/>
-      <c r="C49" s="104"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="104"/>
-      <c r="I49" s="104"/>
-      <c r="J49" s="105"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="91"/>
+      <c r="G49" s="91"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="91"/>
+      <c r="J49" s="92"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
@@ -3137,16 +3129,16 @@
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="75" t="s">
+      <c r="A52" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="82"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="83"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="79"/>
+      <c r="H52" s="80"/>
       <c r="I52" s="15">
         <v>0</v>
       </c>
@@ -3155,18 +3147,18 @@
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="77"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="86"/>
+      <c r="J53" s="86"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
@@ -3174,12 +3166,12 @@
       <c r="A54" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="78" t="s">
+      <c r="B54" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="89"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="90"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="77"/>
       <c r="F54" s="9"/>
       <c r="G54" s="15" t="s">
         <v>66</v>
@@ -3200,10 +3192,10 @@
       <c r="A55" s="8">
         <v>1</v>
       </c>
-      <c r="B55" s="78"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="90"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="77"/>
       <c r="F55" s="9"/>
       <c r="G55" s="15"/>
       <c r="H55" s="9"/>
@@ -3216,10 +3208,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="90"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="77"/>
       <c r="F56" s="9"/>
       <c r="G56" s="15"/>
       <c r="H56" s="9"/>
@@ -3229,16 +3221,16 @@
       <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="75" t="s">
+      <c r="A57" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="82"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="83"/>
+      <c r="B57" s="79"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="80"/>
       <c r="I57" s="15">
         <f>SUM(I55:I56)</f>
         <v>0</v>
@@ -3248,18 +3240,18 @@
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="106" t="s">
+      <c r="A58" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="B58" s="77"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="77"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="86"/>
+      <c r="J58" s="86"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
@@ -3267,13 +3259,13 @@
       <c r="A59" s="8">
         <v>1</v>
       </c>
-      <c r="B59" s="107" t="s">
+      <c r="B59" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="108"/>
-      <c r="D59" s="108"/>
-      <c r="E59" s="108"/>
-      <c r="F59" s="109"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="88"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="89"/>
       <c r="G59" s="29" t="s">
         <v>71</v>
       </c>
@@ -3289,13 +3281,13 @@
       <c r="A60" s="30">
         <v>2</v>
       </c>
-      <c r="B60" s="107" t="s">
+      <c r="B60" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="108"/>
-      <c r="D60" s="108"/>
-      <c r="E60" s="108"/>
-      <c r="F60" s="109"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="88"/>
+      <c r="F60" s="89"/>
       <c r="G60" s="31"/>
       <c r="H60" s="32"/>
       <c r="I60" s="29"/>
@@ -3307,13 +3299,13 @@
       <c r="A61" s="8">
         <v>3</v>
       </c>
-      <c r="B61" s="107" t="s">
+      <c r="B61" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="108"/>
-      <c r="D61" s="108"/>
-      <c r="E61" s="108"/>
-      <c r="F61" s="109"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="88"/>
+      <c r="F61" s="89"/>
       <c r="G61" s="21"/>
       <c r="H61" s="9"/>
       <c r="I61" s="29"/>
@@ -3325,13 +3317,13 @@
       <c r="A62" s="30">
         <v>4</v>
       </c>
-      <c r="B62" s="107" t="s">
+      <c r="B62" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="108"/>
-      <c r="D62" s="108"/>
-      <c r="E62" s="108"/>
-      <c r="F62" s="109"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="88"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="89"/>
       <c r="G62" s="21"/>
       <c r="H62" s="9"/>
       <c r="I62" s="29"/>
@@ -3343,11 +3335,11 @@
       <c r="A63" s="8">
         <v>5</v>
       </c>
-      <c r="B63" s="78"/>
-      <c r="C63" s="89"/>
-      <c r="D63" s="89"/>
-      <c r="E63" s="89"/>
-      <c r="F63" s="90"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="77"/>
       <c r="G63" s="21"/>
       <c r="H63" s="9"/>
       <c r="I63" s="29"/>
@@ -3356,16 +3348,16 @@
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="75" t="s">
+      <c r="A64" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="82"/>
-      <c r="C64" s="82"/>
-      <c r="D64" s="82"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="82"/>
-      <c r="H64" s="83"/>
+      <c r="B64" s="79"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="79"/>
+      <c r="H64" s="80"/>
       <c r="I64" s="21">
         <f>SUM(I59:I63)</f>
         <v>0</v>
@@ -3375,16 +3367,16 @@
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="113" t="s">
+      <c r="A65" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="114"/>
-      <c r="C65" s="114"/>
-      <c r="D65" s="114"/>
-      <c r="E65" s="114"/>
-      <c r="F65" s="114"/>
-      <c r="G65" s="114"/>
-      <c r="H65" s="115"/>
+      <c r="B65" s="82"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="82"/>
+      <c r="H65" s="83"/>
       <c r="I65" s="35">
         <f>I10+I14+I37+I47+I52+I57+I64</f>
         <v>0</v>
@@ -3394,16 +3386,16 @@
       <c r="L65" s="2"/>
     </row>
     <row r="66" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="113" t="s">
+      <c r="A66" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="114"/>
-      <c r="C66" s="114"/>
-      <c r="D66" s="114"/>
-      <c r="E66" s="114"/>
-      <c r="F66" s="114"/>
-      <c r="G66" s="114"/>
-      <c r="H66" s="115"/>
+      <c r="B66" s="82"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="82"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="82"/>
+      <c r="H66" s="83"/>
       <c r="I66" s="35">
         <f>I65/6.89</f>
         <v>0</v>
@@ -3413,8 +3405,8 @@
       <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="116"/>
-      <c r="B67" s="116"/>
+      <c r="A67" s="84"/>
+      <c r="B67" s="84"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
       <c r="E67" s="36"/>
@@ -3427,22 +3419,22 @@
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="110" t="s">
+      <c r="A68" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="110"/>
-      <c r="C68" s="110"/>
-      <c r="D68" s="110"/>
-      <c r="E68" s="110" t="s">
+      <c r="B68" s="72"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="F68" s="110"/>
-      <c r="G68" s="110"/>
-      <c r="H68" s="110"/>
-      <c r="I68" s="110" t="s">
+      <c r="F68" s="72"/>
+      <c r="G68" s="72"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="J68" s="110"/>
+      <c r="J68" s="72"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
@@ -3455,10 +3447,10 @@
       <c r="F69" s="4"/>
       <c r="G69" s="5"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="111" t="s">
+      <c r="I69" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="J69" s="112"/>
+      <c r="J69" s="74"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
@@ -5312,6 +5304,72 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="E68:H68"/>
     <mergeCell ref="I68:J68"/>
@@ -5321,72 +5379,6 @@
     <mergeCell ref="A65:H65"/>
     <mergeCell ref="A66:H66"/>
     <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5458,35 +5450,35 @@
     </row>
     <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="38"/>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75" t="s">
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
       <c r="J5" s="6" t="s">
         <v>4</v>
       </c>
@@ -5496,18 +5488,18 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="38"/>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75" t="s">
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
       <c r="J6" s="6" t="s">
         <v>7</v>
       </c>
@@ -5517,18 +5509,18 @@
     </row>
     <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
     </row>
@@ -5537,12 +5529,12 @@
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="9" t="s">
         <v>11</v>
       </c>
@@ -5566,12 +5558,12 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="105"/>
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
       <c r="I9" s="12"/>
@@ -5582,16 +5574,16 @@
     </row>
     <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="38"/>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="83"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="15"/>
       <c r="K10" s="16"/>
       <c r="L10" s="38"/>
@@ -5599,16 +5591,16 @@
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="38"/>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="86"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="108"/>
       <c r="J11" s="15">
         <f>SUM(J9:J10)</f>
         <v>0</v>
@@ -5619,18 +5611,18 @@
     </row>
     <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="88"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="113"/>
       <c r="L12" s="39" t="s">
         <v>93</v>
       </c>
@@ -5641,12 +5633,12 @@
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77"/>
       <c r="G13" s="9" t="s">
         <v>22</v>
       </c>
@@ -5670,12 +5662,12 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="38"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="81"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="105"/>
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
       <c r="I14" s="12"/>
@@ -5690,16 +5682,16 @@
     </row>
     <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="86"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="108"/>
       <c r="J15" s="15">
         <f>SUM(J14)</f>
         <v>0</v>
@@ -5712,18 +5704,18 @@
     </row>
     <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
     </row>
@@ -5732,12 +5724,12 @@
       <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="9" t="s">
         <v>29</v>
       </c>
@@ -5814,12 +5806,12 @@
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="38"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="9" t="s">
         <v>29</v>
       </c>
@@ -5971,7 +5963,7 @@
       <c r="B28" s="19">
         <v>7</v>
       </c>
-      <c r="C28" s="117" t="s">
+      <c r="C28" s="118" t="s">
         <v>134</v>
       </c>
       <c r="D28" s="94"/>
@@ -6091,12 +6083,12 @@
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="38"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="78" t="s">
+      <c r="C34" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="90"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77"/>
       <c r="G34" s="9" t="s">
         <v>29</v>
       </c>
@@ -6122,10 +6114,10 @@
       <c r="B35" s="8">
         <v>1</v>
       </c>
-      <c r="C35" s="100"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="102"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="101"/>
       <c r="G35" s="9" t="s">
         <v>29</v>
       </c>
@@ -6144,10 +6136,10 @@
       <c r="B36" s="8">
         <v>2</v>
       </c>
-      <c r="C36" s="100"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="102"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="101"/>
       <c r="G36" s="9" t="s">
         <v>29</v>
       </c>
@@ -6163,16 +6155,16 @@
     </row>
     <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="38"/>
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="83"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="80"/>
       <c r="J37" s="15">
         <f>SUM(J18:J36)</f>
         <v>0</v>
@@ -6183,18 +6175,18 @@
     </row>
     <row r="38" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
-      <c r="B38" s="77" t="s">
+      <c r="B38" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
     </row>
@@ -6378,16 +6370,16 @@
     </row>
     <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="38"/>
-      <c r="B47" s="75" t="s">
+      <c r="B47" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="83"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="79"/>
+      <c r="I47" s="80"/>
       <c r="J47" s="15">
         <f>SUM(J40:J46)</f>
         <v>0</v>
@@ -6398,35 +6390,35 @@
     </row>
     <row r="48" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
-      <c r="B48" s="77" t="s">
+      <c r="B48" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="77"/>
-      <c r="K48" s="77"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="86"/>
+      <c r="K48" s="86"/>
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="38"/>
-      <c r="B49" s="103" t="s">
+      <c r="B49" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="104"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="104"/>
-      <c r="I49" s="104"/>
-      <c r="J49" s="104"/>
-      <c r="K49" s="105"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="91"/>
+      <c r="G49" s="91"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="91"/>
+      <c r="J49" s="91"/>
+      <c r="K49" s="92"/>
       <c r="L49" s="38"/>
       <c r="M49" s="38"/>
     </row>
@@ -6480,16 +6472,16 @@
     </row>
     <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="38"/>
-      <c r="B52" s="75" t="s">
+      <c r="B52" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="83"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="79"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="80"/>
       <c r="J52" s="15">
         <v>0</v>
       </c>
@@ -6499,18 +6491,18 @@
     </row>
     <row r="53" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
-      <c r="B53" s="77" t="s">
+      <c r="B53" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="77"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="86"/>
+      <c r="J53" s="86"/>
+      <c r="K53" s="86"/>
       <c r="L53" s="38"/>
       <c r="M53" s="38"/>
     </row>
@@ -6519,12 +6511,12 @@
       <c r="B54" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="78" t="s">
+      <c r="C54" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="90"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="77"/>
       <c r="G54" s="9"/>
       <c r="H54" s="15" t="s">
         <v>66</v>
@@ -6546,10 +6538,10 @@
       <c r="B55" s="8">
         <v>1</v>
       </c>
-      <c r="C55" s="78"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="90"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="77"/>
       <c r="G55" s="9"/>
       <c r="H55" s="15"/>
       <c r="I55" s="9"/>
@@ -6563,10 +6555,10 @@
     <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="38"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="90"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="77"/>
       <c r="G56" s="9"/>
       <c r="H56" s="15"/>
       <c r="I56" s="9"/>
@@ -6577,16 +6569,16 @@
     </row>
     <row r="57" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="38"/>
-      <c r="B57" s="75" t="s">
+      <c r="B57" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="82"/>
-      <c r="I57" s="83"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="80"/>
       <c r="J57" s="15">
         <f>SUM(J55:J56)</f>
         <v>0</v>
@@ -6597,18 +6589,18 @@
     </row>
     <row r="58" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A58" s="38"/>
-      <c r="B58" s="106" t="s">
+      <c r="B58" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="77"/>
-      <c r="K58" s="77"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="86"/>
+      <c r="J58" s="86"/>
+      <c r="K58" s="86"/>
       <c r="L58" s="38"/>
       <c r="M58" s="38"/>
     </row>
@@ -6617,13 +6609,13 @@
       <c r="B59" s="8">
         <v>1</v>
       </c>
-      <c r="C59" s="107" t="s">
+      <c r="C59" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="108"/>
-      <c r="E59" s="108"/>
-      <c r="F59" s="108"/>
-      <c r="G59" s="109"/>
+      <c r="D59" s="88"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="89"/>
       <c r="H59" s="29" t="s">
         <v>71</v>
       </c>
@@ -6640,13 +6632,13 @@
       <c r="B60" s="30">
         <v>2</v>
       </c>
-      <c r="C60" s="107" t="s">
+      <c r="C60" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="108"/>
-      <c r="E60" s="108"/>
-      <c r="F60" s="108"/>
-      <c r="G60" s="109"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="88"/>
+      <c r="F60" s="88"/>
+      <c r="G60" s="89"/>
       <c r="H60" s="34"/>
       <c r="I60" s="32"/>
       <c r="J60" s="29"/>
@@ -6659,13 +6651,13 @@
       <c r="B61" s="8">
         <v>3</v>
       </c>
-      <c r="C61" s="107" t="s">
+      <c r="C61" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="108"/>
-      <c r="E61" s="108"/>
-      <c r="F61" s="108"/>
-      <c r="G61" s="109"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="88"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="89"/>
       <c r="H61" s="21"/>
       <c r="I61" s="9"/>
       <c r="J61" s="29"/>
@@ -6678,13 +6670,13 @@
       <c r="B62" s="30">
         <v>4</v>
       </c>
-      <c r="C62" s="107" t="s">
+      <c r="C62" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="108"/>
-      <c r="E62" s="108"/>
-      <c r="F62" s="108"/>
-      <c r="G62" s="109"/>
+      <c r="D62" s="88"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="89"/>
       <c r="H62" s="21"/>
       <c r="I62" s="9"/>
       <c r="J62" s="29"/>
@@ -6697,11 +6689,11 @@
       <c r="B63" s="8">
         <v>5</v>
       </c>
-      <c r="C63" s="78"/>
-      <c r="D63" s="89"/>
-      <c r="E63" s="89"/>
-      <c r="F63" s="89"/>
-      <c r="G63" s="90"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="77"/>
       <c r="H63" s="21"/>
       <c r="I63" s="9"/>
       <c r="J63" s="29"/>
@@ -6711,16 +6703,16 @@
     </row>
     <row r="64" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="38"/>
-      <c r="B64" s="75" t="s">
+      <c r="B64" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="82"/>
-      <c r="D64" s="82"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="82"/>
-      <c r="H64" s="82"/>
-      <c r="I64" s="83"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="79"/>
+      <c r="H64" s="79"/>
+      <c r="I64" s="80"/>
       <c r="J64" s="21">
         <f>SUM(J59:J63)</f>
         <v>0</v>
@@ -6731,16 +6723,16 @@
     </row>
     <row r="65" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="38"/>
-      <c r="B65" s="113" t="s">
+      <c r="B65" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="114"/>
-      <c r="D65" s="114"/>
-      <c r="E65" s="114"/>
-      <c r="F65" s="114"/>
-      <c r="G65" s="114"/>
-      <c r="H65" s="114"/>
-      <c r="I65" s="115"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="82"/>
+      <c r="H65" s="82"/>
+      <c r="I65" s="83"/>
       <c r="J65" s="35">
         <f>J11+J15+J37+J47+J52+J57+J64</f>
         <v>0</v>
@@ -6751,16 +6743,16 @@
     </row>
     <row r="66" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="38"/>
-      <c r="B66" s="113" t="s">
+      <c r="B66" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="114"/>
-      <c r="D66" s="114"/>
-      <c r="E66" s="114"/>
-      <c r="F66" s="114"/>
-      <c r="G66" s="114"/>
-      <c r="H66" s="114"/>
-      <c r="I66" s="115"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="82"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="82"/>
+      <c r="H66" s="82"/>
+      <c r="I66" s="83"/>
       <c r="J66" s="35">
         <f>J65/6.89</f>
         <v>0</v>
@@ -8796,66 +8788,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:K58"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:K53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:K48"/>
-    <mergeCell ref="B49:K49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
@@ -8863,6 +8795,66 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:K58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B66:I66"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8935,18 +8927,18 @@
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
     </row>
@@ -8956,12 +8948,12 @@
       <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
@@ -9018,10 +9010,10 @@
       <c r="A8" s="38"/>
       <c r="B8" s="38"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
       <c r="J8" s="12"/>
@@ -9033,16 +9025,16 @@
     <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="83"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="80"/>
       <c r="K9" s="15"/>
       <c r="L9" s="16"/>
       <c r="M9" s="38"/>
@@ -9051,16 +9043,16 @@
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="86"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="108"/>
       <c r="K10" s="15">
         <f>SUM(K8:K9)</f>
         <v>0</v>
@@ -9072,18 +9064,18 @@
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="38"/>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
     </row>
@@ -9091,12 +9083,12 @@
       <c r="A12" s="38"/>
       <c r="B12" s="38"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="90"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="77"/>
       <c r="H12" s="9" t="s">
         <v>29</v>
       </c>
@@ -9123,10 +9115,10 @@
       <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="102"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="101"/>
       <c r="H13" s="9" t="s">
         <v>29</v>
       </c>
@@ -9146,10 +9138,10 @@
       <c r="C14" s="8">
         <v>2</v>
       </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="102"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="101"/>
       <c r="H14" s="9" t="s">
         <v>29</v>
       </c>
@@ -9166,16 +9158,16 @@
     <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="83"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="80"/>
       <c r="K15" s="15">
         <f>SUM(K12:K14)</f>
         <v>0</v>
@@ -9187,36 +9179,36 @@
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="105"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="92"/>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
     </row>
@@ -9275,16 +9267,16 @@
     <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="83"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="80"/>
       <c r="K20" s="15">
         <v>0</v>
       </c>
@@ -9295,18 +9287,18 @@
     <row r="21" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
-      <c r="C21" s="106" t="s">
+      <c r="C21" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
     </row>
@@ -9316,11 +9308,11 @@
       <c r="C22" s="8">
         <v>1</v>
       </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="109"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="89"/>
       <c r="I22" s="29" t="s">
         <v>71</v>
       </c>
@@ -9338,11 +9330,11 @@
       <c r="C23" s="30">
         <v>2</v>
       </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="89"/>
       <c r="I23" s="34"/>
       <c r="J23" s="32"/>
       <c r="K23" s="29"/>
@@ -9356,11 +9348,11 @@
       <c r="C24" s="8">
         <v>3</v>
       </c>
-      <c r="D24" s="107"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="109"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="89"/>
       <c r="I24" s="21"/>
       <c r="J24" s="9"/>
       <c r="K24" s="29"/>
@@ -9374,11 +9366,11 @@
       <c r="C25" s="30">
         <v>4</v>
       </c>
-      <c r="D25" s="107"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="109"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="89"/>
       <c r="I25" s="21"/>
       <c r="J25" s="9"/>
       <c r="K25" s="29"/>
@@ -9392,11 +9384,11 @@
       <c r="C26" s="8">
         <v>5</v>
       </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="90"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="77"/>
       <c r="I26" s="21"/>
       <c r="J26" s="9"/>
       <c r="K26" s="29"/>
@@ -12206,27 +12198,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="C20:J20"/>
     <mergeCell ref="D26:H26"/>
     <mergeCell ref="C21:L21"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="D23:H23"/>
     <mergeCell ref="D24:H24"/>
     <mergeCell ref="D25:H25"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12238,7 +12230,7 @@
   <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49:G50"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12308,15 +12300,15 @@
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
-      <c r="B5" s="118" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
+      <c r="B5" s="119" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="41"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -12327,25 +12319,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F6" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H6" s="42" t="s">
         <v>100</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -12397,25 +12389,25 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C9" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="F9" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="121" t="s">
+      <c r="G9" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="121" t="s">
+      <c r="H9" s="52" t="s">
         <v>185</v>
-      </c>
-      <c r="G9" s="121" t="s">
-        <v>186</v>
-      </c>
-      <c r="H9" s="52" t="s">
-        <v>187</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -12431,7 +12423,7 @@
         <v>103</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H10" s="42"/>
       <c r="I10" s="2"/>
@@ -12485,7 +12477,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="52" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>138</v>
@@ -12493,13 +12485,13 @@
       <c r="D13" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="E13" s="121" t="s">
+      <c r="E13" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="121" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13" s="121" t="s">
+      <c r="F13" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="71" t="s">
         <v>141</v>
       </c>
       <c r="H13" s="16"/>
@@ -12517,7 +12509,7 @@
         <v>26</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="2"/>
@@ -12554,7 +12546,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>14</v>
@@ -12569,19 +12561,19 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="53" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C17" s="53" t="s">
         <v>142</v>
       </c>
       <c r="D17" s="53"/>
-      <c r="E17" s="121" t="s">
+      <c r="E17" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="F17" s="121" t="s">
+      <c r="F17" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="G17" s="121" t="s">
+      <c r="G17" s="71" t="s">
         <v>145</v>
       </c>
       <c r="H17" s="53" t="s">
@@ -12601,7 +12593,7 @@
         <v>109</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="2"/>
@@ -12638,7 +12630,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>14</v>
@@ -12653,19 +12645,19 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="53" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C21" s="53" t="s">
         <v>147</v>
       </c>
       <c r="D21" s="53"/>
-      <c r="E21" s="121" t="s">
+      <c r="E21" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="F21" s="121" t="s">
+      <c r="F21" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="G21" s="121" t="s">
+      <c r="G21" s="71" t="s">
         <v>150</v>
       </c>
       <c r="H21" s="53" t="s">
@@ -12685,7 +12677,7 @@
         <v>45</v>
       </c>
       <c r="G22" s="62" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H22" s="49"/>
       <c r="I22" s="2"/>
@@ -12695,11 +12687,11 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="70" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C23" s="70"/>
       <c r="D23" s="70" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E23" s="70"/>
       <c r="F23" s="68"/>
@@ -12754,19 +12746,19 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="53" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C26" s="53" t="s">
         <v>152</v>
       </c>
       <c r="D26" s="53"/>
-      <c r="E26" s="121" t="s">
+      <c r="E26" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="121" t="s">
+      <c r="F26" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="G26" s="121" t="s">
+      <c r="G26" s="71" t="s">
         <v>155</v>
       </c>
       <c r="H26" s="53" t="s">
@@ -12786,7 +12778,7 @@
         <v>116</v>
       </c>
       <c r="G27" s="62" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H27" s="49"/>
       <c r="I27" s="2"/>
@@ -12796,11 +12788,11 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="70" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C28" s="70"/>
       <c r="D28" s="70" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E28" s="70"/>
       <c r="F28" s="68"/>
@@ -12836,7 +12828,7 @@
         <v>119</v>
       </c>
       <c r="D30" s="57" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E30" s="48" t="s">
         <v>12</v>
@@ -12857,21 +12849,21 @@
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C31" s="55" t="s">
         <v>157</v>
       </c>
       <c r="D31" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="E31" s="121" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="121" t="s">
+      <c r="F31" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="G31" s="121" t="s">
+      <c r="G31" s="71" t="s">
         <v>160</v>
       </c>
       <c r="H31" s="53" t="s">
@@ -12891,7 +12883,7 @@
         <v>55</v>
       </c>
       <c r="G32" s="50" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="2"/>
@@ -12904,7 +12896,7 @@
         <v>120</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D33" s="45"/>
       <c r="E33" s="45"/>
@@ -12927,13 +12919,13 @@
         <v>85</v>
       </c>
       <c r="E34" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="F34" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="G34" s="58" t="s">
         <v>214</v>
-      </c>
-      <c r="F34" s="58" t="s">
-        <v>215</v>
-      </c>
-      <c r="G34" s="58" t="s">
-        <v>216</v>
       </c>
       <c r="H34" s="58" t="s">
         <v>14</v>
@@ -12947,28 +12939,28 @@
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="53" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D35" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="E35" s="121" t="s">
+        <v>206</v>
+      </c>
+      <c r="E35" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="F35" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="G35" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="F35" s="121" t="s">
-        <v>219</v>
-      </c>
-      <c r="G35" s="121" t="s">
-        <v>220</v>
-      </c>
-      <c r="H35" s="121" t="s">
-        <v>225</v>
+      <c r="H35" s="71" t="s">
+        <v>223</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -12983,7 +12975,7 @@
         <v>122</v>
       </c>
       <c r="G36" s="50" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H36" s="42"/>
       <c r="I36" s="2"/>
@@ -13016,12 +13008,8 @@
         <v>125</v>
       </c>
       <c r="D38" s="48"/>
-      <c r="E38" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>67</v>
-      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
       <c r="G38" s="16" t="s">
         <v>14</v>
       </c>
@@ -13035,23 +13023,19 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="53" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C39" s="53" t="s">
         <v>162</v>
       </c>
       <c r="D39" s="53"/>
-      <c r="E39" s="121" t="s">
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="F39" s="121" t="s">
+      <c r="H39" s="53" t="s">
         <v>164</v>
-      </c>
-      <c r="G39" s="121" t="s">
-        <v>165</v>
-      </c>
-      <c r="H39" s="53" t="s">
-        <v>166</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -13067,7 +13051,7 @@
         <v>126</v>
       </c>
       <c r="G40" s="50" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H40" s="42"/>
       <c r="I40" s="2"/>
@@ -13121,25 +13105,25 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="53" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C43" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="D43" s="121" t="s">
+      <c r="F43" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="E43" s="121" t="s">
+      <c r="G43" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="F43" s="121" t="s">
+      <c r="H43" s="53" t="s">
         <v>170</v>
-      </c>
-      <c r="G43" s="121" t="s">
-        <v>171</v>
-      </c>
-      <c r="H43" s="53" t="s">
-        <v>172</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -13155,7 +13139,7 @@
         <v>129</v>
       </c>
       <c r="G44" s="50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H44" s="42"/>
       <c r="I44" s="2"/>
@@ -13203,21 +13187,21 @@
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="53" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D47" s="53"/>
       <c r="E47" s="53"/>
       <c r="F47" s="53"/>
-      <c r="G47" s="121" t="s">
-        <v>173</v>
-      </c>
-      <c r="H47" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="I47" s="121"/>
+      <c r="G47" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="H47" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="I47" s="71"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
@@ -13231,7 +13215,7 @@
         <v>76</v>
       </c>
       <c r="G48" s="50" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H48" s="42"/>
       <c r="I48" s="2"/>
@@ -13240,15 +13224,15 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
-      <c r="B49" s="113" t="s">
+      <c r="B49" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="114"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="115"/>
-      <c r="G49" s="121" t="s">
-        <v>175</v>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="71" t="s">
+        <v>173</v>
       </c>
       <c r="H49" s="25"/>
       <c r="I49" s="2"/>
@@ -13257,15 +13241,15 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
-      <c r="B50" s="113" t="s">
+      <c r="B50" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="121" t="s">
-        <v>176</v>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="71" t="s">
+        <v>174</v>
       </c>
       <c r="H50" s="25"/>
       <c r="I50" s="2"/>
@@ -13276,11 +13260,11 @@
       <c r="A51" s="2"/>
       <c r="B51" s="49"/>
       <c r="C51" s="37"/>
-      <c r="D51" s="120"/>
-      <c r="E51" s="120"/>
-      <c r="F51" s="120"/>
-      <c r="G51" s="120"/>
-      <c r="H51" s="120"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="121"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="121"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -13292,8 +13276,8 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="112"/>
-      <c r="H52" s="112"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>

--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/NRE.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/NRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\财务报价核价系统__V2\后端github郭琪琪分支\finance_back\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D718CE-343F-46D9-B049-FE4A4A16F33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE87421-4D23-4A6D-B32A-D2A096AE09BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="225">
   <si>
     <t>密级：</t>
   </si>
@@ -505,30 +505,6 @@
   </si>
   <si>
     <r>
-      <t>{{MouldInventory.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Cost</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}}</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>{</t>
     </r>
     <r>
@@ -969,10 +945,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>{{ProductionEquipmentCost.DeviceStatus}}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>{{UphAndValues.Description}}</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -982,6 +954,29 @@
   </si>
   <si>
     <t>{{LaboratoryFeeModels.AllCost}}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ProductionEquipmentCost.DeviceStatusName}}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{{MouldInventory.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cost}}</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{MouldInventory.Remark}}</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1422,7 +1417,7 @@
     </xf>
     <xf numFmtId="178" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1727,6 +1722,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -12229,8 +12225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12301,7 +12297,7 @@
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="119" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="120"/>
       <c r="D5" s="120"/>
@@ -12319,25 +12315,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F6" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H6" s="42" t="s">
         <v>100</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -12389,25 +12385,25 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="E9" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="F9" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="G9" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="H9" s="16" t="s">
         <v>184</v>
-      </c>
-      <c r="H9" s="52" t="s">
-        <v>185</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -12423,7 +12419,7 @@
         <v>103</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H10" s="42"/>
       <c r="I10" s="2"/>
@@ -12477,7 +12473,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>138</v>
@@ -12489,12 +12485,14 @@
         <v>140</v>
       </c>
       <c r="F13" s="71" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="16"/>
+        <v>206</v>
+      </c>
+      <c r="G13" s="122" t="s">
+        <v>223</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>224</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -12509,7 +12507,7 @@
         <v>26</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="2"/>
@@ -12546,7 +12544,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>14</v>
@@ -12561,23 +12559,23 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="G17" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="G17" s="71" t="s">
+      <c r="H17" s="53" t="s">
         <v>145</v>
-      </c>
-      <c r="H17" s="53" t="s">
-        <v>146</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -12593,7 +12591,7 @@
         <v>109</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="2"/>
@@ -12630,7 +12628,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>14</v>
@@ -12645,23 +12643,23 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="53"/>
       <c r="E21" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="G21" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="G21" s="71" t="s">
+      <c r="H21" s="53" t="s">
         <v>150</v>
-      </c>
-      <c r="H21" s="53" t="s">
-        <v>151</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -12677,7 +12675,7 @@
         <v>45</v>
       </c>
       <c r="G22" s="62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H22" s="49"/>
       <c r="I22" s="2"/>
@@ -12687,11 +12685,11 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C23" s="70"/>
       <c r="D23" s="70" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E23" s="70"/>
       <c r="F23" s="68"/>
@@ -12746,23 +12744,23 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D26" s="53"/>
       <c r="E26" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="71" t="s">
+      <c r="G26" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="G26" s="71" t="s">
+      <c r="H26" s="53" t="s">
         <v>155</v>
-      </c>
-      <c r="H26" s="53" t="s">
-        <v>156</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -12778,7 +12776,7 @@
         <v>116</v>
       </c>
       <c r="G27" s="62" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H27" s="49"/>
       <c r="I27" s="2"/>
@@ -12788,11 +12786,11 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C28" s="70"/>
       <c r="D28" s="70" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E28" s="70"/>
       <c r="F28" s="68"/>
@@ -12828,7 +12826,7 @@
         <v>119</v>
       </c>
       <c r="D30" s="57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E30" s="48" t="s">
         <v>12</v>
@@ -12849,25 +12847,25 @@
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C31" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="E31" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="E31" s="71" t="s">
+      <c r="F31" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="71" t="s">
+      <c r="G31" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="G31" s="71" t="s">
+      <c r="H31" s="53" t="s">
         <v>160</v>
-      </c>
-      <c r="H31" s="53" t="s">
-        <v>161</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -12883,7 +12881,7 @@
         <v>55</v>
       </c>
       <c r="G32" s="50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="2"/>
@@ -12896,7 +12894,7 @@
         <v>120</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D33" s="45"/>
       <c r="E33" s="45"/>
@@ -12919,13 +12917,13 @@
         <v>85</v>
       </c>
       <c r="E34" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="F34" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="F34" s="58" t="s">
+      <c r="G34" s="58" t="s">
         <v>213</v>
-      </c>
-      <c r="G34" s="58" t="s">
-        <v>214</v>
       </c>
       <c r="H34" s="58" t="s">
         <v>14</v>
@@ -12939,28 +12937,28 @@
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D35" s="53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E35" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="F35" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="F35" s="71" t="s">
+      <c r="G35" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="G35" s="71" t="s">
-        <v>218</v>
-      </c>
       <c r="H35" s="71" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -12975,7 +12973,7 @@
         <v>122</v>
       </c>
       <c r="G36" s="50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H36" s="42"/>
       <c r="I36" s="2"/>
@@ -13023,19 +13021,19 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D39" s="53"/>
       <c r="E39" s="71"/>
       <c r="F39" s="71"/>
       <c r="G39" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="H39" s="53" t="s">
         <v>163</v>
-      </c>
-      <c r="H39" s="53" t="s">
-        <v>164</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -13051,7 +13049,7 @@
         <v>126</v>
       </c>
       <c r="G40" s="50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H40" s="42"/>
       <c r="I40" s="2"/>
@@ -13105,25 +13103,25 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C43" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="D43" s="71" t="s">
+      <c r="E43" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="E43" s="71" t="s">
+      <c r="F43" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="F43" s="71" t="s">
+      <c r="G43" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="G43" s="71" t="s">
+      <c r="H43" s="53" t="s">
         <v>169</v>
-      </c>
-      <c r="H43" s="53" t="s">
-        <v>170</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -13139,7 +13137,7 @@
         <v>129</v>
       </c>
       <c r="G44" s="50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H44" s="42"/>
       <c r="I44" s="2"/>
@@ -13187,19 +13185,19 @@
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D47" s="53"/>
       <c r="E47" s="53"/>
       <c r="F47" s="53"/>
       <c r="G47" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="H47" s="71" t="s">
         <v>171</v>
-      </c>
-      <c r="H47" s="71" t="s">
-        <v>172</v>
       </c>
       <c r="I47" s="71"/>
       <c r="J47" s="2"/>
@@ -13215,7 +13213,7 @@
         <v>76</v>
       </c>
       <c r="G48" s="50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H48" s="42"/>
       <c r="I48" s="2"/>
@@ -13232,7 +13230,7 @@
       <c r="E49" s="82"/>
       <c r="F49" s="83"/>
       <c r="G49" s="71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H49" s="25"/>
       <c r="I49" s="2"/>
@@ -13249,7 +13247,7 @@
       <c r="E50" s="82"/>
       <c r="F50" s="83"/>
       <c r="G50" s="71" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H50" s="25"/>
       <c r="I50" s="2"/>

--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/NRE.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/NRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\财务报价核价系统__V2\后端github郭琪琪分支\finance_back\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE87421-4D23-4A6D-B32A-D2A096AE09BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4908FE-2AEC-4E50-90FB-4D1BB9377DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -926,9 +926,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>{{LaboratoryFeeModels.Remark}}</t>
-  </si>
-  <si>
     <t>{{LaboratoryFeeModels.CountBottomingOut}}</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -977,6 +974,10 @@
   </si>
   <si>
     <t>{{MouldInventory.Remark}}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{LaboratoryFeeModels.Remark}}</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1171,7 +1172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1410,6 +1411,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1417,7 +1440,7 @@
     </xf>
     <xf numFmtId="178" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1543,9 +1566,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1574,17 +1594,60 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1592,49 +1655,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1655,6 +1679,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1664,53 +1691,47 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1722,7 +1743,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2116,11 +2142,11 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="2"/>
@@ -2135,42 +2161,42 @@
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="116"/>
+      <c r="J2" s="73"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="78" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
       <c r="I4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2179,18 +2205,18 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="78" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
       <c r="I5" s="6" t="s">
         <v>7</v>
       </c>
@@ -2199,18 +2225,18 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
@@ -2218,12 +2244,12 @@
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
       <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
@@ -2244,12 +2270,12 @@
     </row>
     <row r="8" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="105"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="82"/>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
       <c r="H8" s="12"/>
@@ -2261,32 +2287,32 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="80"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="108"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
       <c r="I10" s="15">
         <f>SUM(I8:I9)</f>
         <v>0</v>
@@ -2296,18 +2322,18 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="113"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="89"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
@@ -2315,12 +2341,12 @@
       <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91"/>
       <c r="F12" s="9" t="s">
         <v>22</v>
       </c>
@@ -2341,12 +2367,12 @@
     </row>
     <row r="13" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="12"/>
@@ -2358,16 +2384,16 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="108"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
       <c r="I14" s="15">
         <f>SUM(I13)</f>
         <v>0</v>
@@ -2377,34 +2403,34 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="111"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="93"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
@@ -2412,12 +2438,12 @@
       <c r="A17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="91"/>
       <c r="F17" s="9" t="s">
         <v>29</v>
       </c>
@@ -2440,12 +2466,12 @@
       <c r="A18" s="19">
         <v>1</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
       <c r="F18" s="9"/>
       <c r="G18" s="21"/>
       <c r="H18" s="9"/>
@@ -2460,10 +2486,10 @@
       <c r="A19" s="19">
         <v>1</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="95"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="96"/>
       <c r="F19" s="9"/>
       <c r="G19" s="21"/>
       <c r="H19" s="9"/>
@@ -2473,29 +2499,29 @@
       <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="98"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="99"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="77"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
       <c r="F21" s="9" t="s">
         <v>29</v>
       </c>
@@ -2518,12 +2544,12 @@
       <c r="A22" s="19">
         <v>1</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="96"/>
       <c r="F22" s="9" t="s">
         <v>29</v>
       </c>
@@ -2540,12 +2566,12 @@
       <c r="A23" s="19">
         <v>2</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="96"/>
       <c r="F23" s="9" t="s">
         <v>29</v>
       </c>
@@ -2560,12 +2586,12 @@
       <c r="A24" s="19">
         <v>3</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="96"/>
       <c r="F24" s="19" t="s">
         <v>29</v>
       </c>
@@ -2580,12 +2606,12 @@
       <c r="A25" s="19">
         <v>4</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="96"/>
       <c r="F25" s="19" t="s">
         <v>29</v>
       </c>
@@ -2600,12 +2626,12 @@
       <c r="A26" s="19">
         <v>5</v>
       </c>
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="96"/>
       <c r="F26" s="19" t="s">
         <v>29</v>
       </c>
@@ -2620,12 +2646,12 @@
       <c r="A27" s="19">
         <v>6</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="96"/>
       <c r="F27" s="8" t="s">
         <v>29</v>
       </c>
@@ -2640,12 +2666,12 @@
       <c r="A28" s="19">
         <v>7</v>
       </c>
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="100" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="96"/>
       <c r="F28" s="8" t="s">
         <v>29</v>
       </c>
@@ -2660,12 +2686,12 @@
       <c r="A29" s="19">
         <v>8</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="96"/>
       <c r="F29" s="8" t="s">
         <v>29</v>
       </c>
@@ -2680,12 +2706,12 @@
       <c r="A30" s="19">
         <v>9</v>
       </c>
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="96"/>
       <c r="F30" s="8" t="s">
         <v>29</v>
       </c>
@@ -2700,12 +2726,12 @@
       <c r="A31" s="19">
         <v>10</v>
       </c>
-      <c r="B31" s="93" t="s">
+      <c r="B31" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="96"/>
       <c r="F31" s="8" t="s">
         <v>29</v>
       </c>
@@ -2720,12 +2746,12 @@
       <c r="A32" s="19">
         <v>11</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="96"/>
       <c r="F32" s="8" t="s">
         <v>29</v>
       </c>
@@ -2737,29 +2763,29 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="96" t="s">
+      <c r="A33" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="98"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="99"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="77"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="91"/>
       <c r="F34" s="9" t="s">
         <v>29</v>
       </c>
@@ -2782,10 +2808,10 @@
       <c r="A35" s="8">
         <v>1</v>
       </c>
-      <c r="B35" s="99"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="101"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="103"/>
       <c r="F35" s="9" t="s">
         <v>29</v>
       </c>
@@ -2805,10 +2831,10 @@
       <c r="A36" s="8">
         <v>2</v>
       </c>
-      <c r="B36" s="99"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="101"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="103"/>
       <c r="F36" s="9" t="s">
         <v>29</v>
       </c>
@@ -2823,16 +2849,16 @@
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="80"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="84"/>
       <c r="I37" s="15">
         <f>SUM(I18:I36)</f>
         <v>0</v>
@@ -2842,18 +2868,18 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="86" t="s">
+      <c r="A38" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
@@ -2861,12 +2887,12 @@
       <c r="A39" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="93" t="s">
+      <c r="B39" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="96"/>
       <c r="F39" s="9" t="s">
         <v>29</v>
       </c>
@@ -2889,12 +2915,12 @@
       <c r="A40" s="19">
         <v>1</v>
       </c>
-      <c r="B40" s="93" t="s">
+      <c r="B40" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="95"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="96"/>
       <c r="F40" s="9" t="s">
         <v>29</v>
       </c>
@@ -2911,12 +2937,12 @@
       <c r="A41" s="19">
         <v>2</v>
       </c>
-      <c r="B41" s="93" t="s">
+      <c r="B41" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="95"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="96"/>
       <c r="F41" s="9" t="s">
         <v>29</v>
       </c>
@@ -2931,12 +2957,12 @@
       <c r="A42" s="19">
         <v>3</v>
       </c>
-      <c r="B42" s="93" t="s">
+      <c r="B42" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="96"/>
       <c r="F42" s="9" t="s">
         <v>29</v>
       </c>
@@ -2951,12 +2977,12 @@
       <c r="A43" s="19">
         <v>4</v>
       </c>
-      <c r="B43" s="93" t="s">
+      <c r="B43" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="96"/>
       <c r="F43" s="9" t="s">
         <v>29</v>
       </c>
@@ -2971,12 +2997,12 @@
       <c r="A44" s="19">
         <v>5</v>
       </c>
-      <c r="B44" s="93" t="s">
+      <c r="B44" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="96"/>
       <c r="F44" s="9" t="s">
         <v>29</v>
       </c>
@@ -2991,12 +3017,12 @@
       <c r="A45" s="19">
         <v>6</v>
       </c>
-      <c r="B45" s="93" t="s">
+      <c r="B45" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="96"/>
       <c r="F45" s="9" t="s">
         <v>29</v>
       </c>
@@ -3011,12 +3037,12 @@
       <c r="A46" s="19">
         <v>7</v>
       </c>
-      <c r="B46" s="93" t="s">
+      <c r="B46" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="95"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="96"/>
       <c r="F46" s="9" t="s">
         <v>29</v>
       </c>
@@ -3028,16 +3054,16 @@
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="78" t="s">
+      <c r="A47" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="80"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="84"/>
       <c r="I47" s="15">
         <f>SUM(I40:I46)</f>
         <v>0</v>
@@ -3047,34 +3073,34 @@
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="86" t="s">
+      <c r="A48" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="86"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="86"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="90" t="s">
+      <c r="A49" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="91"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="91"/>
-      <c r="H49" s="91"/>
-      <c r="I49" s="91"/>
-      <c r="J49" s="92"/>
+      <c r="B49" s="105"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="106"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
@@ -3082,12 +3108,12 @@
       <c r="A50" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="93" t="s">
+      <c r="B50" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="95"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="96"/>
       <c r="F50" s="9" t="s">
         <v>29</v>
       </c>
@@ -3108,12 +3134,12 @@
     </row>
     <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="93" t="s">
+      <c r="B51" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="95"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="96"/>
       <c r="F51" s="9"/>
       <c r="G51" s="15"/>
       <c r="H51" s="9"/>
@@ -3125,16 +3151,16 @@
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="78" t="s">
+      <c r="A52" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="79"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="80"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="84"/>
       <c r="I52" s="15">
         <v>0</v>
       </c>
@@ -3143,18 +3169,18 @@
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="86" t="s">
+      <c r="A53" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="86"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="86"/>
-      <c r="I53" s="86"/>
-      <c r="J53" s="86"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
@@ -3162,12 +3188,12 @@
       <c r="A54" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="75" t="s">
+      <c r="B54" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="77"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="91"/>
       <c r="F54" s="9"/>
       <c r="G54" s="15" t="s">
         <v>66</v>
@@ -3188,10 +3214,10 @@
       <c r="A55" s="8">
         <v>1</v>
       </c>
-      <c r="B55" s="75"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="77"/>
+      <c r="B55" s="79"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="91"/>
       <c r="F55" s="9"/>
       <c r="G55" s="15"/>
       <c r="H55" s="9"/>
@@ -3204,10 +3230,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
-      <c r="B56" s="75"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="77"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="90"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="91"/>
       <c r="F56" s="9"/>
       <c r="G56" s="15"/>
       <c r="H56" s="9"/>
@@ -3217,16 +3243,16 @@
       <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="78" t="s">
+      <c r="A57" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="79"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="80"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="84"/>
       <c r="I57" s="15">
         <f>SUM(I55:I56)</f>
         <v>0</v>
@@ -3236,18 +3262,18 @@
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="85" t="s">
+      <c r="A58" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="B58" s="86"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="86"/>
-      <c r="I58" s="86"/>
-      <c r="J58" s="86"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="78"/>
+      <c r="H58" s="78"/>
+      <c r="I58" s="78"/>
+      <c r="J58" s="78"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
@@ -3255,13 +3281,13 @@
       <c r="A59" s="8">
         <v>1</v>
       </c>
-      <c r="B59" s="87" t="s">
+      <c r="B59" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="88"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="89"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="110"/>
       <c r="G59" s="29" t="s">
         <v>71</v>
       </c>
@@ -3277,13 +3303,13 @@
       <c r="A60" s="30">
         <v>2</v>
       </c>
-      <c r="B60" s="87" t="s">
+      <c r="B60" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="88"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="89"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="110"/>
       <c r="G60" s="31"/>
       <c r="H60" s="32"/>
       <c r="I60" s="29"/>
@@ -3295,13 +3321,13 @@
       <c r="A61" s="8">
         <v>3</v>
       </c>
-      <c r="B61" s="87" t="s">
+      <c r="B61" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="88"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="88"/>
-      <c r="F61" s="89"/>
+      <c r="C61" s="109"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="109"/>
+      <c r="F61" s="110"/>
       <c r="G61" s="21"/>
       <c r="H61" s="9"/>
       <c r="I61" s="29"/>
@@ -3313,13 +3339,13 @@
       <c r="A62" s="30">
         <v>4</v>
       </c>
-      <c r="B62" s="87" t="s">
+      <c r="B62" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="88"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="88"/>
-      <c r="F62" s="89"/>
+      <c r="C62" s="109"/>
+      <c r="D62" s="109"/>
+      <c r="E62" s="109"/>
+      <c r="F62" s="110"/>
       <c r="G62" s="21"/>
       <c r="H62" s="9"/>
       <c r="I62" s="29"/>
@@ -3331,11 +3357,11 @@
       <c r="A63" s="8">
         <v>5</v>
       </c>
-      <c r="B63" s="75"/>
-      <c r="C63" s="76"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="77"/>
+      <c r="B63" s="79"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="91"/>
       <c r="G63" s="21"/>
       <c r="H63" s="9"/>
       <c r="I63" s="29"/>
@@ -3344,16 +3370,16 @@
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="78" t="s">
+      <c r="A64" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="79"/>
-      <c r="C64" s="79"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="80"/>
+      <c r="B64" s="83"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="84"/>
       <c r="I64" s="21">
         <f>SUM(I59:I63)</f>
         <v>0</v>
@@ -3363,16 +3389,16 @@
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="81" t="s">
+      <c r="A65" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="82"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="83"/>
+      <c r="B65" s="115"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="115"/>
+      <c r="G65" s="115"/>
+      <c r="H65" s="116"/>
       <c r="I65" s="35">
         <f>I10+I14+I37+I47+I52+I57+I64</f>
         <v>0</v>
@@ -3382,16 +3408,16 @@
       <c r="L65" s="2"/>
     </row>
     <row r="66" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="81" t="s">
+      <c r="A66" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="82"/>
-      <c r="C66" s="82"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="82"/>
-      <c r="H66" s="83"/>
+      <c r="B66" s="115"/>
+      <c r="C66" s="115"/>
+      <c r="D66" s="115"/>
+      <c r="E66" s="115"/>
+      <c r="F66" s="115"/>
+      <c r="G66" s="115"/>
+      <c r="H66" s="116"/>
       <c r="I66" s="35">
         <f>I65/6.89</f>
         <v>0</v>
@@ -3401,8 +3427,8 @@
       <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="84"/>
-      <c r="B67" s="84"/>
+      <c r="A67" s="117"/>
+      <c r="B67" s="117"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
       <c r="E67" s="36"/>
@@ -3415,22 +3441,22 @@
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="72" t="s">
+      <c r="A68" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="72"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72" t="s">
+      <c r="B68" s="111"/>
+      <c r="C68" s="111"/>
+      <c r="D68" s="111"/>
+      <c r="E68" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="F68" s="72"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="72"/>
-      <c r="I68" s="72" t="s">
+      <c r="F68" s="111"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="J68" s="72"/>
+      <c r="J68" s="111"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
@@ -3443,10 +3469,10 @@
       <c r="F69" s="4"/>
       <c r="G69" s="5"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="73" t="s">
+      <c r="I69" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="J69" s="74"/>
+      <c r="J69" s="113"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
@@ -5300,72 +5326,6 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="E68:H68"/>
     <mergeCell ref="I68:J68"/>
@@ -5375,6 +5335,72 @@
     <mergeCell ref="A65:H65"/>
     <mergeCell ref="A66:H66"/>
     <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5446,35 +5472,35 @@
     </row>
     <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="38"/>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="78" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="78"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
       <c r="J5" s="6" t="s">
         <v>4</v>
       </c>
@@ -5484,18 +5510,18 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="38"/>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="78" t="s">
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="78"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="6" t="s">
         <v>7</v>
       </c>
@@ -5505,18 +5531,18 @@
     </row>
     <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
     </row>
@@ -5525,12 +5551,12 @@
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="9" t="s">
         <v>11</v>
       </c>
@@ -5554,12 +5580,12 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="105"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
       <c r="I9" s="12"/>
@@ -5570,16 +5596,16 @@
     </row>
     <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="38"/>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="80"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="84"/>
       <c r="J10" s="15"/>
       <c r="K10" s="16"/>
       <c r="L10" s="38"/>
@@ -5587,16 +5613,16 @@
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="38"/>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="108"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="87"/>
       <c r="J11" s="15">
         <f>SUM(J9:J10)</f>
         <v>0</v>
@@ -5607,18 +5633,18 @@
     </row>
     <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="113"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="89"/>
       <c r="L12" s="39" t="s">
         <v>93</v>
       </c>
@@ -5629,12 +5655,12 @@
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="77"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="9" t="s">
         <v>22</v>
       </c>
@@ -5658,12 +5684,12 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="38"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="105"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="82"/>
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
       <c r="I14" s="12"/>
@@ -5678,16 +5704,16 @@
     </row>
     <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
-      <c r="B15" s="106" t="s">
+      <c r="B15" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="108"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="87"/>
       <c r="J15" s="15">
         <f>SUM(J14)</f>
         <v>0</v>
@@ -5700,18 +5726,18 @@
     </row>
     <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
     </row>
@@ -5720,12 +5746,12 @@
       <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="77"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
       <c r="G17" s="9" t="s">
         <v>29</v>
       </c>
@@ -5751,12 +5777,12 @@
       <c r="B18" s="19">
         <v>1</v>
       </c>
-      <c r="C18" s="93" t="s">
+      <c r="C18" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
       <c r="G18" s="9"/>
       <c r="H18" s="21"/>
       <c r="I18" s="9"/>
@@ -5770,10 +5796,10 @@
       <c r="B19" s="19">
         <v>1</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="95"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="96"/>
       <c r="G19" s="9"/>
       <c r="H19" s="21"/>
       <c r="I19" s="9"/>
@@ -5784,30 +5810,30 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="99"/>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="38"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="77"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="91"/>
       <c r="G21" s="9" t="s">
         <v>29</v>
       </c>
@@ -5833,12 +5859,12 @@
       <c r="B22" s="19">
         <v>1</v>
       </c>
-      <c r="C22" s="93" t="s">
+      <c r="C22" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="96"/>
       <c r="G22" s="9" t="s">
         <v>29</v>
       </c>
@@ -5854,12 +5880,12 @@
       <c r="B23" s="19">
         <v>2</v>
       </c>
-      <c r="C23" s="93" t="s">
+      <c r="C23" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="96"/>
       <c r="G23" s="9" t="s">
         <v>29</v>
       </c>
@@ -5875,12 +5901,12 @@
       <c r="B24" s="19">
         <v>3</v>
       </c>
-      <c r="C24" s="93" t="s">
+      <c r="C24" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="96"/>
       <c r="G24" s="19" t="s">
         <v>29</v>
       </c>
@@ -5896,12 +5922,12 @@
       <c r="B25" s="19">
         <v>4</v>
       </c>
-      <c r="C25" s="93" t="s">
+      <c r="C25" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="96"/>
       <c r="G25" s="19" t="s">
         <v>29</v>
       </c>
@@ -5917,12 +5943,12 @@
       <c r="B26" s="19">
         <v>5</v>
       </c>
-      <c r="C26" s="93" t="s">
+      <c r="C26" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="96"/>
       <c r="G26" s="19" t="s">
         <v>29</v>
       </c>
@@ -5938,12 +5964,12 @@
       <c r="B27" s="19">
         <v>6</v>
       </c>
-      <c r="C27" s="93" t="s">
+      <c r="C27" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="96"/>
       <c r="G27" s="8" t="s">
         <v>29</v>
       </c>
@@ -5962,9 +5988,9 @@
       <c r="C28" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="96"/>
       <c r="G28" s="8" t="s">
         <v>29</v>
       </c>
@@ -5980,12 +6006,12 @@
       <c r="B29" s="19">
         <v>8</v>
       </c>
-      <c r="C29" s="93" t="s">
+      <c r="C29" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="96"/>
       <c r="G29" s="8" t="s">
         <v>29</v>
       </c>
@@ -6001,12 +6027,12 @@
       <c r="B30" s="19">
         <v>9</v>
       </c>
-      <c r="C30" s="93" t="s">
+      <c r="C30" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="96"/>
       <c r="G30" s="8" t="s">
         <v>29</v>
       </c>
@@ -6022,12 +6048,12 @@
       <c r="B31" s="19">
         <v>10</v>
       </c>
-      <c r="C31" s="93" t="s">
+      <c r="C31" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="96"/>
       <c r="G31" s="8" t="s">
         <v>29</v>
       </c>
@@ -6043,12 +6069,12 @@
       <c r="B32" s="19">
         <v>11</v>
       </c>
-      <c r="C32" s="93" t="s">
+      <c r="C32" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="96"/>
       <c r="G32" s="8" t="s">
         <v>29</v>
       </c>
@@ -6061,30 +6087,30 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="38"/>
-      <c r="B33" s="96" t="s">
+      <c r="B33" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="99"/>
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="38"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="77"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="91"/>
       <c r="G34" s="9" t="s">
         <v>29</v>
       </c>
@@ -6110,10 +6136,10 @@
       <c r="B35" s="8">
         <v>1</v>
       </c>
-      <c r="C35" s="99"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="103"/>
       <c r="G35" s="9" t="s">
         <v>29</v>
       </c>
@@ -6132,10 +6158,10 @@
       <c r="B36" s="8">
         <v>2</v>
       </c>
-      <c r="C36" s="99"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="101"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="103"/>
       <c r="G36" s="9" t="s">
         <v>29</v>
       </c>
@@ -6151,16 +6177,16 @@
     </row>
     <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="38"/>
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="80"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="84"/>
       <c r="J37" s="15">
         <f>SUM(J18:J36)</f>
         <v>0</v>
@@ -6171,18 +6197,18 @@
     </row>
     <row r="38" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
-      <c r="B38" s="86" t="s">
+      <c r="B38" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="86"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
     </row>
@@ -6191,12 +6217,12 @@
       <c r="B39" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="93" t="s">
+      <c r="C39" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="96"/>
       <c r="G39" s="9" t="s">
         <v>29</v>
       </c>
@@ -6222,12 +6248,12 @@
       <c r="B40" s="19">
         <v>1</v>
       </c>
-      <c r="C40" s="93" t="s">
+      <c r="C40" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="96"/>
       <c r="G40" s="9" t="s">
         <v>29</v>
       </c>
@@ -6243,12 +6269,12 @@
       <c r="B41" s="19">
         <v>2</v>
       </c>
-      <c r="C41" s="93" t="s">
+      <c r="C41" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="95"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="96"/>
       <c r="G41" s="9" t="s">
         <v>29</v>
       </c>
@@ -6264,12 +6290,12 @@
       <c r="B42" s="19">
         <v>3</v>
       </c>
-      <c r="C42" s="93" t="s">
+      <c r="C42" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="96"/>
       <c r="G42" s="9" t="s">
         <v>29</v>
       </c>
@@ -6285,12 +6311,12 @@
       <c r="B43" s="19">
         <v>4</v>
       </c>
-      <c r="C43" s="93" t="s">
+      <c r="C43" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="96"/>
       <c r="G43" s="9" t="s">
         <v>29</v>
       </c>
@@ -6306,12 +6332,12 @@
       <c r="B44" s="19">
         <v>5</v>
       </c>
-      <c r="C44" s="93" t="s">
+      <c r="C44" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="96"/>
       <c r="G44" s="9" t="s">
         <v>29</v>
       </c>
@@ -6327,12 +6353,12 @@
       <c r="B45" s="19">
         <v>6</v>
       </c>
-      <c r="C45" s="93" t="s">
+      <c r="C45" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="96"/>
       <c r="G45" s="9" t="s">
         <v>29</v>
       </c>
@@ -6348,12 +6374,12 @@
       <c r="B46" s="19">
         <v>7</v>
       </c>
-      <c r="C46" s="93" t="s">
+      <c r="C46" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="96"/>
       <c r="G46" s="9" t="s">
         <v>29</v>
       </c>
@@ -6366,16 +6392,16 @@
     </row>
     <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="38"/>
-      <c r="B47" s="78" t="s">
+      <c r="B47" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="80"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="84"/>
       <c r="J47" s="15">
         <f>SUM(J40:J46)</f>
         <v>0</v>
@@ -6386,35 +6412,35 @@
     </row>
     <row r="48" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
-      <c r="B48" s="86" t="s">
+      <c r="B48" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="86"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="86"/>
-      <c r="K48" s="86"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="78"/>
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="38"/>
-      <c r="B49" s="90" t="s">
+      <c r="B49" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="91"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="91"/>
-      <c r="H49" s="91"/>
-      <c r="I49" s="91"/>
-      <c r="J49" s="91"/>
-      <c r="K49" s="92"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="105"/>
+      <c r="K49" s="106"/>
       <c r="L49" s="38"/>
       <c r="M49" s="38"/>
     </row>
@@ -6423,12 +6449,12 @@
       <c r="B50" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="93" t="s">
+      <c r="C50" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="96"/>
       <c r="G50" s="9" t="s">
         <v>29</v>
       </c>
@@ -6450,12 +6476,12 @@
     <row r="51" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="38"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="93" t="s">
+      <c r="C51" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="96"/>
       <c r="G51" s="9"/>
       <c r="H51" s="15"/>
       <c r="I51" s="9"/>
@@ -6468,16 +6494,16 @@
     </row>
     <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="38"/>
-      <c r="B52" s="78" t="s">
+      <c r="B52" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="79"/>
-      <c r="I52" s="80"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="84"/>
       <c r="J52" s="15">
         <v>0</v>
       </c>
@@ -6487,18 +6513,18 @@
     </row>
     <row r="53" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
-      <c r="B53" s="86" t="s">
+      <c r="B53" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="86"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="86"/>
-      <c r="I53" s="86"/>
-      <c r="J53" s="86"/>
-      <c r="K53" s="86"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
       <c r="L53" s="38"/>
       <c r="M53" s="38"/>
     </row>
@@ -6507,12 +6533,12 @@
       <c r="B54" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="75" t="s">
+      <c r="C54" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="77"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="91"/>
       <c r="G54" s="9"/>
       <c r="H54" s="15" t="s">
         <v>66</v>
@@ -6534,10 +6560,10 @@
       <c r="B55" s="8">
         <v>1</v>
       </c>
-      <c r="C55" s="75"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="77"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="91"/>
       <c r="G55" s="9"/>
       <c r="H55" s="15"/>
       <c r="I55" s="9"/>
@@ -6551,10 +6577,10 @@
     <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="38"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="77"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="91"/>
       <c r="G56" s="9"/>
       <c r="H56" s="15"/>
       <c r="I56" s="9"/>
@@ -6565,16 +6591,16 @@
     </row>
     <row r="57" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="38"/>
-      <c r="B57" s="78" t="s">
+      <c r="B57" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="80"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="84"/>
       <c r="J57" s="15">
         <f>SUM(J55:J56)</f>
         <v>0</v>
@@ -6585,18 +6611,18 @@
     </row>
     <row r="58" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A58" s="38"/>
-      <c r="B58" s="85" t="s">
+      <c r="B58" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="86"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="86"/>
-      <c r="I58" s="86"/>
-      <c r="J58" s="86"/>
-      <c r="K58" s="86"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="78"/>
+      <c r="H58" s="78"/>
+      <c r="I58" s="78"/>
+      <c r="J58" s="78"/>
+      <c r="K58" s="78"/>
       <c r="L58" s="38"/>
       <c r="M58" s="38"/>
     </row>
@@ -6605,13 +6631,13 @@
       <c r="B59" s="8">
         <v>1</v>
       </c>
-      <c r="C59" s="87" t="s">
+      <c r="C59" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="88"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="89"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="110"/>
       <c r="H59" s="29" t="s">
         <v>71</v>
       </c>
@@ -6628,13 +6654,13 @@
       <c r="B60" s="30">
         <v>2</v>
       </c>
-      <c r="C60" s="87" t="s">
+      <c r="C60" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="89"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="109"/>
+      <c r="G60" s="110"/>
       <c r="H60" s="34"/>
       <c r="I60" s="32"/>
       <c r="J60" s="29"/>
@@ -6647,13 +6673,13 @@
       <c r="B61" s="8">
         <v>3</v>
       </c>
-      <c r="C61" s="87" t="s">
+      <c r="C61" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="88"/>
-      <c r="E61" s="88"/>
-      <c r="F61" s="88"/>
-      <c r="G61" s="89"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="109"/>
+      <c r="F61" s="109"/>
+      <c r="G61" s="110"/>
       <c r="H61" s="21"/>
       <c r="I61" s="9"/>
       <c r="J61" s="29"/>
@@ -6666,13 +6692,13 @@
       <c r="B62" s="30">
         <v>4</v>
       </c>
-      <c r="C62" s="87" t="s">
+      <c r="C62" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="88"/>
-      <c r="E62" s="88"/>
-      <c r="F62" s="88"/>
-      <c r="G62" s="89"/>
+      <c r="D62" s="109"/>
+      <c r="E62" s="109"/>
+      <c r="F62" s="109"/>
+      <c r="G62" s="110"/>
       <c r="H62" s="21"/>
       <c r="I62" s="9"/>
       <c r="J62" s="29"/>
@@ -6685,11 +6711,11 @@
       <c r="B63" s="8">
         <v>5</v>
       </c>
-      <c r="C63" s="75"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="77"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="91"/>
       <c r="H63" s="21"/>
       <c r="I63" s="9"/>
       <c r="J63" s="29"/>
@@ -6699,16 +6725,16 @@
     </row>
     <row r="64" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="38"/>
-      <c r="B64" s="78" t="s">
+      <c r="B64" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="79"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="79"/>
-      <c r="I64" s="80"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="84"/>
       <c r="J64" s="21">
         <f>SUM(J59:J63)</f>
         <v>0</v>
@@ -6719,16 +6745,16 @@
     </row>
     <row r="65" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="38"/>
-      <c r="B65" s="81" t="s">
+      <c r="B65" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="82"/>
-      <c r="I65" s="83"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="115"/>
+      <c r="G65" s="115"/>
+      <c r="H65" s="115"/>
+      <c r="I65" s="116"/>
       <c r="J65" s="35">
         <f>J11+J15+J37+J47+J52+J57+J64</f>
         <v>0</v>
@@ -6739,16 +6765,16 @@
     </row>
     <row r="66" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="38"/>
-      <c r="B66" s="81" t="s">
+      <c r="B66" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="82"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="82"/>
-      <c r="H66" s="82"/>
-      <c r="I66" s="83"/>
+      <c r="C66" s="115"/>
+      <c r="D66" s="115"/>
+      <c r="E66" s="115"/>
+      <c r="F66" s="115"/>
+      <c r="G66" s="115"/>
+      <c r="H66" s="115"/>
+      <c r="I66" s="116"/>
       <c r="J66" s="35">
         <f>J65/6.89</f>
         <v>0</v>
@@ -8784,6 +8810,66 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:K58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
@@ -8791,66 +8877,6 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:K48"/>
-    <mergeCell ref="B49:K49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:K53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:K58"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="B66:I66"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8923,18 +8949,18 @@
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
     </row>
@@ -8944,12 +8970,12 @@
       <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
       <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
@@ -9006,10 +9032,10 @@
       <c r="A8" s="38"/>
       <c r="B8" s="38"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="82"/>
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
       <c r="J8" s="12"/>
@@ -9021,16 +9047,16 @@
     <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="80"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="84"/>
       <c r="K9" s="15"/>
       <c r="L9" s="16"/>
       <c r="M9" s="38"/>
@@ -9039,16 +9065,16 @@
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="108"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
       <c r="K10" s="15">
         <f>SUM(K8:K9)</f>
         <v>0</v>
@@ -9060,18 +9086,18 @@
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="38"/>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
     </row>
@@ -9079,12 +9105,12 @@
       <c r="A12" s="38"/>
       <c r="B12" s="38"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="77"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
       <c r="H12" s="9" t="s">
         <v>29</v>
       </c>
@@ -9111,10 +9137,10 @@
       <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="103"/>
       <c r="H13" s="9" t="s">
         <v>29</v>
       </c>
@@ -9134,10 +9160,10 @@
       <c r="C14" s="8">
         <v>2</v>
       </c>
-      <c r="D14" s="99"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="103"/>
       <c r="H14" s="9" t="s">
         <v>29</v>
       </c>
@@ -9154,16 +9180,16 @@
     <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="80"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="84"/>
       <c r="K15" s="15">
         <f>SUM(K12:K14)</f>
         <v>0</v>
@@ -9175,36 +9201,36 @@
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="92"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="106"/>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
     </row>
@@ -9214,12 +9240,12 @@
       <c r="C18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="93" t="s">
+      <c r="D18" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="96"/>
       <c r="H18" s="9" t="s">
         <v>29</v>
       </c>
@@ -9244,12 +9270,12 @@
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="93" t="s">
+      <c r="D19" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="96"/>
       <c r="H19" s="9"/>
       <c r="I19" s="15"/>
       <c r="J19" s="9"/>
@@ -9263,16 +9289,16 @@
     <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="80"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="84"/>
       <c r="K20" s="15">
         <v>0</v>
       </c>
@@ -9283,18 +9309,18 @@
     <row r="21" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
     </row>
@@ -9304,11 +9330,11 @@
       <c r="C22" s="8">
         <v>1</v>
       </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="89"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="110"/>
       <c r="I22" s="29" t="s">
         <v>71</v>
       </c>
@@ -9326,11 +9352,11 @@
       <c r="C23" s="30">
         <v>2</v>
       </c>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="89"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="110"/>
       <c r="I23" s="34"/>
       <c r="J23" s="32"/>
       <c r="K23" s="29"/>
@@ -9344,11 +9370,11 @@
       <c r="C24" s="8">
         <v>3</v>
       </c>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="89"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="110"/>
       <c r="I24" s="21"/>
       <c r="J24" s="9"/>
       <c r="K24" s="29"/>
@@ -9362,11 +9388,11 @@
       <c r="C25" s="30">
         <v>4</v>
       </c>
-      <c r="D25" s="87"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="89"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="110"/>
       <c r="I25" s="21"/>
       <c r="J25" s="9"/>
       <c r="K25" s="29"/>
@@ -9380,11 +9406,11 @@
       <c r="C26" s="8">
         <v>5</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="77"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="91"/>
       <c r="I26" s="21"/>
       <c r="J26" s="9"/>
       <c r="K26" s="29"/>
@@ -12194,27 +12220,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="C20:J20"/>
     <mergeCell ref="D26:H26"/>
     <mergeCell ref="C21:L21"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="D23:H23"/>
     <mergeCell ref="D24:H24"/>
     <mergeCell ref="D25:H25"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12226,19 +12252,17 @@
   <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="10" width="9" customWidth="1"/>
+    <col min="2" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="28.375" customWidth="1"/>
+    <col min="8" max="8" width="40.625" customWidth="1"/>
+    <col min="9" max="9" width="33.5" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12329,10 +12353,10 @@
       <c r="G6" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="125" t="s">
         <v>178</v>
       </c>
       <c r="J6" s="2"/>
@@ -12350,7 +12374,7 @@
       <c r="E7" s="45"/>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="H7" s="65"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -12375,7 +12399,7 @@
       <c r="G8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="122" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="2"/>
@@ -12384,25 +12408,25 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="55" t="s">
         <v>184</v>
       </c>
       <c r="I9" s="2"/>
@@ -12421,7 +12445,7 @@
       <c r="G10" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="H10" s="42"/>
+      <c r="H10" s="123"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -12463,7 +12487,7 @@
       <c r="G12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="122" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="2"/>
@@ -12472,26 +12496,26 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="51" t="s">
         <v>192</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="70" t="s">
         <v>206</v>
       </c>
-      <c r="G13" s="122" t="s">
+      <c r="G13" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="H13" s="55" t="s">
         <v>223</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>224</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -12509,7 +12533,7 @@
       <c r="G14" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="H14" s="42"/>
+      <c r="H14" s="123"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -12558,23 +12582,23 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="71" t="s">
+      <c r="D17" s="52"/>
+      <c r="E17" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="G17" s="71" t="s">
+      <c r="G17" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="55" t="s">
         <v>145</v>
       </c>
       <c r="I17" s="2"/>
@@ -12642,23 +12666,23 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="71" t="s">
+      <c r="D21" s="52"/>
+      <c r="E21" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="G21" s="71" t="s">
+      <c r="G21" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="H21" s="53" t="s">
+      <c r="H21" s="55" t="s">
         <v>150</v>
       </c>
       <c r="I21" s="2"/>
@@ -12671,10 +12695,10 @@
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
       <c r="E22" s="49"/>
-      <c r="F22" s="61" t="s">
+      <c r="F22" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="62" t="s">
+      <c r="G22" s="61" t="s">
         <v>198</v>
       </c>
       <c r="H22" s="49"/>
@@ -12684,34 +12708,34 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="68"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="67"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -12743,23 +12767,23 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="71" t="s">
+      <c r="D26" s="52"/>
+      <c r="E26" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="71" t="s">
+      <c r="F26" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="G26" s="71" t="s">
+      <c r="G26" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="H26" s="53" t="s">
+      <c r="H26" s="55" t="s">
         <v>155</v>
       </c>
       <c r="I26" s="2"/>
@@ -12772,10 +12796,10 @@
       <c r="C27" s="49"/>
       <c r="D27" s="49"/>
       <c r="E27" s="49"/>
-      <c r="F27" s="61" t="s">
+      <c r="F27" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="62" t="s">
+      <c r="G27" s="61" t="s">
         <v>199</v>
       </c>
       <c r="H27" s="49"/>
@@ -12785,34 +12809,34 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="E28" s="70"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="68"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="67"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -12822,10 +12846,10 @@
       <c r="B30" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="56" t="s">
         <v>208</v>
       </c>
       <c r="E30" s="48" t="s">
@@ -12846,25 +12870,25 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="E31" s="71" t="s">
+      <c r="D31" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="E31" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="F31" s="71" t="s">
+      <c r="F31" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="G31" s="71" t="s">
+      <c r="G31" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="53" t="s">
+      <c r="H31" s="55" t="s">
         <v>160</v>
       </c>
       <c r="I31" s="2"/>
@@ -12893,7 +12917,7 @@
       <c r="B33" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="53" t="s">
         <v>207</v>
       </c>
       <c r="D33" s="45"/>
@@ -12901,7 +12925,7 @@
       <c r="F33" s="45"/>
       <c r="G33" s="45"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="59"/>
+      <c r="I33" s="58"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
@@ -12916,19 +12940,19 @@
       <c r="D34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="58" t="s">
+      <c r="E34" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="F34" s="58" t="s">
+      <c r="F34" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="G34" s="58" t="s">
+      <c r="G34" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="H34" s="58" t="s">
+      <c r="H34" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="58" t="s">
+      <c r="I34" s="57" t="s">
         <v>15</v>
       </c>
       <c r="J34" s="2"/>
@@ -12936,29 +12960,29 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="D35" s="53" t="s">
+      <c r="D35" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="E35" s="71" t="s">
+      <c r="E35" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="F35" s="71" t="s">
+      <c r="G35" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="G35" s="71" t="s">
-        <v>217</v>
-      </c>
-      <c r="H35" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>214</v>
+      <c r="H35" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="I35" s="55" t="s">
+        <v>224</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -13020,19 +13044,19 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71" t="s">
+      <c r="D39" s="52"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="H39" s="53" t="s">
+      <c r="H39" s="55" t="s">
         <v>163</v>
       </c>
       <c r="I39" s="2"/>
@@ -13102,25 +13126,25 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="D43" s="71" t="s">
+      <c r="D43" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="E43" s="71" t="s">
+      <c r="E43" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="F43" s="71" t="s">
+      <c r="F43" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="G43" s="71" t="s">
+      <c r="G43" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="H43" s="53" t="s">
+      <c r="H43" s="55" t="s">
         <v>169</v>
       </c>
       <c r="I43" s="2"/>
@@ -13175,7 +13199,7 @@
       <c r="G46" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H46" s="122" t="s">
         <v>15</v>
       </c>
       <c r="I46" s="2"/>
@@ -13184,22 +13208,22 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="52" t="s">
         <v>190</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="H47" s="71" t="s">
+      <c r="H47" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="I47" s="71"/>
+      <c r="I47" s="124"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
@@ -13215,21 +13239,21 @@
       <c r="G48" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="H48" s="42"/>
+      <c r="H48" s="123"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
-      <c r="B49" s="81" t="s">
+      <c r="B49" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="71" t="s">
+      <c r="C49" s="115"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="70" t="s">
         <v>172</v>
       </c>
       <c r="H49" s="25"/>
@@ -13239,14 +13263,14 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
-      <c r="B50" s="81" t="s">
+      <c r="B50" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="71" t="s">
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="70" t="s">
         <v>173</v>
       </c>
       <c r="H50" s="25"/>
@@ -13274,8 +13298,8 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="74"/>
-      <c r="H52" s="74"/>
+      <c r="G52" s="113"/>
+      <c r="H52" s="113"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>

--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/NRE.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/NRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\财务报价核价系统__V2\后端github郭琪琪分支\finance_back\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D718CE-343F-46D9-B049-FE4A4A16F33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4908FE-2AEC-4E50-90FB-4D1BB9377DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="225">
   <si>
     <t>密级：</t>
   </si>
@@ -505,30 +505,6 @@
   </si>
   <si>
     <r>
-      <t>{{MouldInventory.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Cost</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}}</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>{</t>
     </r>
     <r>
@@ -950,9 +926,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>{{LaboratoryFeeModels.Remark}}</t>
-  </si>
-  <si>
     <t>{{LaboratoryFeeModels.CountBottomingOut}}</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -969,10 +942,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>{{ProductionEquipmentCost.DeviceStatus}}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>{{UphAndValues.Description}}</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -982,6 +951,33 @@
   </si>
   <si>
     <t>{{LaboratoryFeeModels.AllCost}}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ProductionEquipmentCost.DeviceStatusName}}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{{MouldInventory.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cost}}</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{MouldInventory.Remark}}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{LaboratoryFeeModels.Remark}}</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1176,7 +1172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1415,6 +1411,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1422,7 +1440,7 @@
     </xf>
     <xf numFmtId="178" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1548,9 +1566,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1579,17 +1594,60 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1597,49 +1655,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1660,6 +1679,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1669,53 +1691,47 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1727,6 +1743,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2120,11 +2142,11 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="2"/>
@@ -2139,42 +2161,42 @@
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="116"/>
+      <c r="J2" s="73"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="78" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
       <c r="I4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2183,18 +2205,18 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="78" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
       <c r="I5" s="6" t="s">
         <v>7</v>
       </c>
@@ -2203,18 +2225,18 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
@@ -2222,12 +2244,12 @@
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
       <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
@@ -2248,12 +2270,12 @@
     </row>
     <row r="8" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="105"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="82"/>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
       <c r="H8" s="12"/>
@@ -2265,32 +2287,32 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="80"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="108"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
       <c r="I10" s="15">
         <f>SUM(I8:I9)</f>
         <v>0</v>
@@ -2300,18 +2322,18 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="113"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="89"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
@@ -2319,12 +2341,12 @@
       <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91"/>
       <c r="F12" s="9" t="s">
         <v>22</v>
       </c>
@@ -2345,12 +2367,12 @@
     </row>
     <row r="13" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="12"/>
@@ -2362,16 +2384,16 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="108"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
       <c r="I14" s="15">
         <f>SUM(I13)</f>
         <v>0</v>
@@ -2381,34 +2403,34 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="111"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="93"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
@@ -2416,12 +2438,12 @@
       <c r="A17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="91"/>
       <c r="F17" s="9" t="s">
         <v>29</v>
       </c>
@@ -2444,12 +2466,12 @@
       <c r="A18" s="19">
         <v>1</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
       <c r="F18" s="9"/>
       <c r="G18" s="21"/>
       <c r="H18" s="9"/>
@@ -2464,10 +2486,10 @@
       <c r="A19" s="19">
         <v>1</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="95"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="96"/>
       <c r="F19" s="9"/>
       <c r="G19" s="21"/>
       <c r="H19" s="9"/>
@@ -2477,29 +2499,29 @@
       <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="98"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="99"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="77"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
       <c r="F21" s="9" t="s">
         <v>29</v>
       </c>
@@ -2522,12 +2544,12 @@
       <c r="A22" s="19">
         <v>1</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="96"/>
       <c r="F22" s="9" t="s">
         <v>29</v>
       </c>
@@ -2544,12 +2566,12 @@
       <c r="A23" s="19">
         <v>2</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="96"/>
       <c r="F23" s="9" t="s">
         <v>29</v>
       </c>
@@ -2564,12 +2586,12 @@
       <c r="A24" s="19">
         <v>3</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="96"/>
       <c r="F24" s="19" t="s">
         <v>29</v>
       </c>
@@ -2584,12 +2606,12 @@
       <c r="A25" s="19">
         <v>4</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="96"/>
       <c r="F25" s="19" t="s">
         <v>29</v>
       </c>
@@ -2604,12 +2626,12 @@
       <c r="A26" s="19">
         <v>5</v>
       </c>
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="96"/>
       <c r="F26" s="19" t="s">
         <v>29</v>
       </c>
@@ -2624,12 +2646,12 @@
       <c r="A27" s="19">
         <v>6</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="96"/>
       <c r="F27" s="8" t="s">
         <v>29</v>
       </c>
@@ -2644,12 +2666,12 @@
       <c r="A28" s="19">
         <v>7</v>
       </c>
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="100" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="96"/>
       <c r="F28" s="8" t="s">
         <v>29</v>
       </c>
@@ -2664,12 +2686,12 @@
       <c r="A29" s="19">
         <v>8</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="96"/>
       <c r="F29" s="8" t="s">
         <v>29</v>
       </c>
@@ -2684,12 +2706,12 @@
       <c r="A30" s="19">
         <v>9</v>
       </c>
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="96"/>
       <c r="F30" s="8" t="s">
         <v>29</v>
       </c>
@@ -2704,12 +2726,12 @@
       <c r="A31" s="19">
         <v>10</v>
       </c>
-      <c r="B31" s="93" t="s">
+      <c r="B31" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="96"/>
       <c r="F31" s="8" t="s">
         <v>29</v>
       </c>
@@ -2724,12 +2746,12 @@
       <c r="A32" s="19">
         <v>11</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="96"/>
       <c r="F32" s="8" t="s">
         <v>29</v>
       </c>
@@ -2741,29 +2763,29 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="96" t="s">
+      <c r="A33" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="98"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="99"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="77"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="91"/>
       <c r="F34" s="9" t="s">
         <v>29</v>
       </c>
@@ -2786,10 +2808,10 @@
       <c r="A35" s="8">
         <v>1</v>
       </c>
-      <c r="B35" s="99"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="101"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="103"/>
       <c r="F35" s="9" t="s">
         <v>29</v>
       </c>
@@ -2809,10 +2831,10 @@
       <c r="A36" s="8">
         <v>2</v>
       </c>
-      <c r="B36" s="99"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="101"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="103"/>
       <c r="F36" s="9" t="s">
         <v>29</v>
       </c>
@@ -2827,16 +2849,16 @@
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="80"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="84"/>
       <c r="I37" s="15">
         <f>SUM(I18:I36)</f>
         <v>0</v>
@@ -2846,18 +2868,18 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="86" t="s">
+      <c r="A38" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
@@ -2865,12 +2887,12 @@
       <c r="A39" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="93" t="s">
+      <c r="B39" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="96"/>
       <c r="F39" s="9" t="s">
         <v>29</v>
       </c>
@@ -2893,12 +2915,12 @@
       <c r="A40" s="19">
         <v>1</v>
       </c>
-      <c r="B40" s="93" t="s">
+      <c r="B40" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="95"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="96"/>
       <c r="F40" s="9" t="s">
         <v>29</v>
       </c>
@@ -2915,12 +2937,12 @@
       <c r="A41" s="19">
         <v>2</v>
       </c>
-      <c r="B41" s="93" t="s">
+      <c r="B41" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="95"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="96"/>
       <c r="F41" s="9" t="s">
         <v>29</v>
       </c>
@@ -2935,12 +2957,12 @@
       <c r="A42" s="19">
         <v>3</v>
       </c>
-      <c r="B42" s="93" t="s">
+      <c r="B42" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="96"/>
       <c r="F42" s="9" t="s">
         <v>29</v>
       </c>
@@ -2955,12 +2977,12 @@
       <c r="A43" s="19">
         <v>4</v>
       </c>
-      <c r="B43" s="93" t="s">
+      <c r="B43" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="96"/>
       <c r="F43" s="9" t="s">
         <v>29</v>
       </c>
@@ -2975,12 +2997,12 @@
       <c r="A44" s="19">
         <v>5</v>
       </c>
-      <c r="B44" s="93" t="s">
+      <c r="B44" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="96"/>
       <c r="F44" s="9" t="s">
         <v>29</v>
       </c>
@@ -2995,12 +3017,12 @@
       <c r="A45" s="19">
         <v>6</v>
       </c>
-      <c r="B45" s="93" t="s">
+      <c r="B45" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="96"/>
       <c r="F45" s="9" t="s">
         <v>29</v>
       </c>
@@ -3015,12 +3037,12 @@
       <c r="A46" s="19">
         <v>7</v>
       </c>
-      <c r="B46" s="93" t="s">
+      <c r="B46" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="95"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="96"/>
       <c r="F46" s="9" t="s">
         <v>29</v>
       </c>
@@ -3032,16 +3054,16 @@
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="78" t="s">
+      <c r="A47" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="80"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="84"/>
       <c r="I47" s="15">
         <f>SUM(I40:I46)</f>
         <v>0</v>
@@ -3051,34 +3073,34 @@
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="86" t="s">
+      <c r="A48" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="86"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="86"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="90" t="s">
+      <c r="A49" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="91"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="91"/>
-      <c r="H49" s="91"/>
-      <c r="I49" s="91"/>
-      <c r="J49" s="92"/>
+      <c r="B49" s="105"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="106"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
@@ -3086,12 +3108,12 @@
       <c r="A50" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="93" t="s">
+      <c r="B50" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="95"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="96"/>
       <c r="F50" s="9" t="s">
         <v>29</v>
       </c>
@@ -3112,12 +3134,12 @@
     </row>
     <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="93" t="s">
+      <c r="B51" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="95"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="96"/>
       <c r="F51" s="9"/>
       <c r="G51" s="15"/>
       <c r="H51" s="9"/>
@@ -3129,16 +3151,16 @@
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="78" t="s">
+      <c r="A52" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="79"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="80"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="84"/>
       <c r="I52" s="15">
         <v>0</v>
       </c>
@@ -3147,18 +3169,18 @@
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="86" t="s">
+      <c r="A53" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="86"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="86"/>
-      <c r="I53" s="86"/>
-      <c r="J53" s="86"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
@@ -3166,12 +3188,12 @@
       <c r="A54" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="75" t="s">
+      <c r="B54" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="77"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="91"/>
       <c r="F54" s="9"/>
       <c r="G54" s="15" t="s">
         <v>66</v>
@@ -3192,10 +3214,10 @@
       <c r="A55" s="8">
         <v>1</v>
       </c>
-      <c r="B55" s="75"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="77"/>
+      <c r="B55" s="79"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="91"/>
       <c r="F55" s="9"/>
       <c r="G55" s="15"/>
       <c r="H55" s="9"/>
@@ -3208,10 +3230,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
-      <c r="B56" s="75"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="77"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="90"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="91"/>
       <c r="F56" s="9"/>
       <c r="G56" s="15"/>
       <c r="H56" s="9"/>
@@ -3221,16 +3243,16 @@
       <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="78" t="s">
+      <c r="A57" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="79"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="80"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="84"/>
       <c r="I57" s="15">
         <f>SUM(I55:I56)</f>
         <v>0</v>
@@ -3240,18 +3262,18 @@
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="85" t="s">
+      <c r="A58" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="B58" s="86"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="86"/>
-      <c r="I58" s="86"/>
-      <c r="J58" s="86"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="78"/>
+      <c r="H58" s="78"/>
+      <c r="I58" s="78"/>
+      <c r="J58" s="78"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
@@ -3259,13 +3281,13 @@
       <c r="A59" s="8">
         <v>1</v>
       </c>
-      <c r="B59" s="87" t="s">
+      <c r="B59" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="88"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="89"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="110"/>
       <c r="G59" s="29" t="s">
         <v>71</v>
       </c>
@@ -3281,13 +3303,13 @@
       <c r="A60" s="30">
         <v>2</v>
       </c>
-      <c r="B60" s="87" t="s">
+      <c r="B60" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="88"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="89"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="110"/>
       <c r="G60" s="31"/>
       <c r="H60" s="32"/>
       <c r="I60" s="29"/>
@@ -3299,13 +3321,13 @@
       <c r="A61" s="8">
         <v>3</v>
       </c>
-      <c r="B61" s="87" t="s">
+      <c r="B61" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="88"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="88"/>
-      <c r="F61" s="89"/>
+      <c r="C61" s="109"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="109"/>
+      <c r="F61" s="110"/>
       <c r="G61" s="21"/>
       <c r="H61" s="9"/>
       <c r="I61" s="29"/>
@@ -3317,13 +3339,13 @@
       <c r="A62" s="30">
         <v>4</v>
       </c>
-      <c r="B62" s="87" t="s">
+      <c r="B62" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="88"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="88"/>
-      <c r="F62" s="89"/>
+      <c r="C62" s="109"/>
+      <c r="D62" s="109"/>
+      <c r="E62" s="109"/>
+      <c r="F62" s="110"/>
       <c r="G62" s="21"/>
       <c r="H62" s="9"/>
       <c r="I62" s="29"/>
@@ -3335,11 +3357,11 @@
       <c r="A63" s="8">
         <v>5</v>
       </c>
-      <c r="B63" s="75"/>
-      <c r="C63" s="76"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="77"/>
+      <c r="B63" s="79"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="91"/>
       <c r="G63" s="21"/>
       <c r="H63" s="9"/>
       <c r="I63" s="29"/>
@@ -3348,16 +3370,16 @@
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="78" t="s">
+      <c r="A64" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="79"/>
-      <c r="C64" s="79"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="80"/>
+      <c r="B64" s="83"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="84"/>
       <c r="I64" s="21">
         <f>SUM(I59:I63)</f>
         <v>0</v>
@@ -3367,16 +3389,16 @@
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="81" t="s">
+      <c r="A65" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="82"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="83"/>
+      <c r="B65" s="115"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="115"/>
+      <c r="G65" s="115"/>
+      <c r="H65" s="116"/>
       <c r="I65" s="35">
         <f>I10+I14+I37+I47+I52+I57+I64</f>
         <v>0</v>
@@ -3386,16 +3408,16 @@
       <c r="L65" s="2"/>
     </row>
     <row r="66" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="81" t="s">
+      <c r="A66" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="82"/>
-      <c r="C66" s="82"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="82"/>
-      <c r="H66" s="83"/>
+      <c r="B66" s="115"/>
+      <c r="C66" s="115"/>
+      <c r="D66" s="115"/>
+      <c r="E66" s="115"/>
+      <c r="F66" s="115"/>
+      <c r="G66" s="115"/>
+      <c r="H66" s="116"/>
       <c r="I66" s="35">
         <f>I65/6.89</f>
         <v>0</v>
@@ -3405,8 +3427,8 @@
       <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="84"/>
-      <c r="B67" s="84"/>
+      <c r="A67" s="117"/>
+      <c r="B67" s="117"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
       <c r="E67" s="36"/>
@@ -3419,22 +3441,22 @@
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="72" t="s">
+      <c r="A68" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="72"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72" t="s">
+      <c r="B68" s="111"/>
+      <c r="C68" s="111"/>
+      <c r="D68" s="111"/>
+      <c r="E68" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="F68" s="72"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="72"/>
-      <c r="I68" s="72" t="s">
+      <c r="F68" s="111"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="J68" s="72"/>
+      <c r="J68" s="111"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
@@ -3447,10 +3469,10 @@
       <c r="F69" s="4"/>
       <c r="G69" s="5"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="73" t="s">
+      <c r="I69" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="J69" s="74"/>
+      <c r="J69" s="113"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
@@ -5304,72 +5326,6 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="E68:H68"/>
     <mergeCell ref="I68:J68"/>
@@ -5379,6 +5335,72 @@
     <mergeCell ref="A65:H65"/>
     <mergeCell ref="A66:H66"/>
     <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5450,35 +5472,35 @@
     </row>
     <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="38"/>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="78" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="78"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
       <c r="J5" s="6" t="s">
         <v>4</v>
       </c>
@@ -5488,18 +5510,18 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="38"/>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="78" t="s">
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="78"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="6" t="s">
         <v>7</v>
       </c>
@@ -5509,18 +5531,18 @@
     </row>
     <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
     </row>
@@ -5529,12 +5551,12 @@
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="9" t="s">
         <v>11</v>
       </c>
@@ -5558,12 +5580,12 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="105"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
       <c r="I9" s="12"/>
@@ -5574,16 +5596,16 @@
     </row>
     <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="38"/>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="80"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="84"/>
       <c r="J10" s="15"/>
       <c r="K10" s="16"/>
       <c r="L10" s="38"/>
@@ -5591,16 +5613,16 @@
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="38"/>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="108"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="87"/>
       <c r="J11" s="15">
         <f>SUM(J9:J10)</f>
         <v>0</v>
@@ -5611,18 +5633,18 @@
     </row>
     <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="113"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="89"/>
       <c r="L12" s="39" t="s">
         <v>93</v>
       </c>
@@ -5633,12 +5655,12 @@
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="77"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="9" t="s">
         <v>22</v>
       </c>
@@ -5662,12 +5684,12 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="38"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="105"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="82"/>
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
       <c r="I14" s="12"/>
@@ -5682,16 +5704,16 @@
     </row>
     <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
-      <c r="B15" s="106" t="s">
+      <c r="B15" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="108"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="87"/>
       <c r="J15" s="15">
         <f>SUM(J14)</f>
         <v>0</v>
@@ -5704,18 +5726,18 @@
     </row>
     <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
     </row>
@@ -5724,12 +5746,12 @@
       <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="77"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
       <c r="G17" s="9" t="s">
         <v>29</v>
       </c>
@@ -5755,12 +5777,12 @@
       <c r="B18" s="19">
         <v>1</v>
       </c>
-      <c r="C18" s="93" t="s">
+      <c r="C18" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
       <c r="G18" s="9"/>
       <c r="H18" s="21"/>
       <c r="I18" s="9"/>
@@ -5774,10 +5796,10 @@
       <c r="B19" s="19">
         <v>1</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="95"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="96"/>
       <c r="G19" s="9"/>
       <c r="H19" s="21"/>
       <c r="I19" s="9"/>
@@ -5788,30 +5810,30 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="99"/>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="38"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="77"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="91"/>
       <c r="G21" s="9" t="s">
         <v>29</v>
       </c>
@@ -5837,12 +5859,12 @@
       <c r="B22" s="19">
         <v>1</v>
       </c>
-      <c r="C22" s="93" t="s">
+      <c r="C22" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="96"/>
       <c r="G22" s="9" t="s">
         <v>29</v>
       </c>
@@ -5858,12 +5880,12 @@
       <c r="B23" s="19">
         <v>2</v>
       </c>
-      <c r="C23" s="93" t="s">
+      <c r="C23" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="96"/>
       <c r="G23" s="9" t="s">
         <v>29</v>
       </c>
@@ -5879,12 +5901,12 @@
       <c r="B24" s="19">
         <v>3</v>
       </c>
-      <c r="C24" s="93" t="s">
+      <c r="C24" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="96"/>
       <c r="G24" s="19" t="s">
         <v>29</v>
       </c>
@@ -5900,12 +5922,12 @@
       <c r="B25" s="19">
         <v>4</v>
       </c>
-      <c r="C25" s="93" t="s">
+      <c r="C25" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="96"/>
       <c r="G25" s="19" t="s">
         <v>29</v>
       </c>
@@ -5921,12 +5943,12 @@
       <c r="B26" s="19">
         <v>5</v>
       </c>
-      <c r="C26" s="93" t="s">
+      <c r="C26" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="96"/>
       <c r="G26" s="19" t="s">
         <v>29</v>
       </c>
@@ -5942,12 +5964,12 @@
       <c r="B27" s="19">
         <v>6</v>
       </c>
-      <c r="C27" s="93" t="s">
+      <c r="C27" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="96"/>
       <c r="G27" s="8" t="s">
         <v>29</v>
       </c>
@@ -5966,9 +5988,9 @@
       <c r="C28" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="96"/>
       <c r="G28" s="8" t="s">
         <v>29</v>
       </c>
@@ -5984,12 +6006,12 @@
       <c r="B29" s="19">
         <v>8</v>
       </c>
-      <c r="C29" s="93" t="s">
+      <c r="C29" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="96"/>
       <c r="G29" s="8" t="s">
         <v>29</v>
       </c>
@@ -6005,12 +6027,12 @@
       <c r="B30" s="19">
         <v>9</v>
       </c>
-      <c r="C30" s="93" t="s">
+      <c r="C30" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="96"/>
       <c r="G30" s="8" t="s">
         <v>29</v>
       </c>
@@ -6026,12 +6048,12 @@
       <c r="B31" s="19">
         <v>10</v>
       </c>
-      <c r="C31" s="93" t="s">
+      <c r="C31" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="96"/>
       <c r="G31" s="8" t="s">
         <v>29</v>
       </c>
@@ -6047,12 +6069,12 @@
       <c r="B32" s="19">
         <v>11</v>
       </c>
-      <c r="C32" s="93" t="s">
+      <c r="C32" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="96"/>
       <c r="G32" s="8" t="s">
         <v>29</v>
       </c>
@@ -6065,30 +6087,30 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="38"/>
-      <c r="B33" s="96" t="s">
+      <c r="B33" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="99"/>
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="38"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="77"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="91"/>
       <c r="G34" s="9" t="s">
         <v>29</v>
       </c>
@@ -6114,10 +6136,10 @@
       <c r="B35" s="8">
         <v>1</v>
       </c>
-      <c r="C35" s="99"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="103"/>
       <c r="G35" s="9" t="s">
         <v>29</v>
       </c>
@@ -6136,10 +6158,10 @@
       <c r="B36" s="8">
         <v>2</v>
       </c>
-      <c r="C36" s="99"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="101"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="103"/>
       <c r="G36" s="9" t="s">
         <v>29</v>
       </c>
@@ -6155,16 +6177,16 @@
     </row>
     <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="38"/>
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="80"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="84"/>
       <c r="J37" s="15">
         <f>SUM(J18:J36)</f>
         <v>0</v>
@@ -6175,18 +6197,18 @@
     </row>
     <row r="38" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
-      <c r="B38" s="86" t="s">
+      <c r="B38" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="86"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
     </row>
@@ -6195,12 +6217,12 @@
       <c r="B39" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="93" t="s">
+      <c r="C39" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="96"/>
       <c r="G39" s="9" t="s">
         <v>29</v>
       </c>
@@ -6226,12 +6248,12 @@
       <c r="B40" s="19">
         <v>1</v>
       </c>
-      <c r="C40" s="93" t="s">
+      <c r="C40" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="96"/>
       <c r="G40" s="9" t="s">
         <v>29</v>
       </c>
@@ -6247,12 +6269,12 @@
       <c r="B41" s="19">
         <v>2</v>
       </c>
-      <c r="C41" s="93" t="s">
+      <c r="C41" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="95"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="96"/>
       <c r="G41" s="9" t="s">
         <v>29</v>
       </c>
@@ -6268,12 +6290,12 @@
       <c r="B42" s="19">
         <v>3</v>
       </c>
-      <c r="C42" s="93" t="s">
+      <c r="C42" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="96"/>
       <c r="G42" s="9" t="s">
         <v>29</v>
       </c>
@@ -6289,12 +6311,12 @@
       <c r="B43" s="19">
         <v>4</v>
       </c>
-      <c r="C43" s="93" t="s">
+      <c r="C43" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="96"/>
       <c r="G43" s="9" t="s">
         <v>29</v>
       </c>
@@ -6310,12 +6332,12 @@
       <c r="B44" s="19">
         <v>5</v>
       </c>
-      <c r="C44" s="93" t="s">
+      <c r="C44" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="96"/>
       <c r="G44" s="9" t="s">
         <v>29</v>
       </c>
@@ -6331,12 +6353,12 @@
       <c r="B45" s="19">
         <v>6</v>
       </c>
-      <c r="C45" s="93" t="s">
+      <c r="C45" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="96"/>
       <c r="G45" s="9" t="s">
         <v>29</v>
       </c>
@@ -6352,12 +6374,12 @@
       <c r="B46" s="19">
         <v>7</v>
       </c>
-      <c r="C46" s="93" t="s">
+      <c r="C46" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="96"/>
       <c r="G46" s="9" t="s">
         <v>29</v>
       </c>
@@ -6370,16 +6392,16 @@
     </row>
     <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="38"/>
-      <c r="B47" s="78" t="s">
+      <c r="B47" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="80"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="84"/>
       <c r="J47" s="15">
         <f>SUM(J40:J46)</f>
         <v>0</v>
@@ -6390,35 +6412,35 @@
     </row>
     <row r="48" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
-      <c r="B48" s="86" t="s">
+      <c r="B48" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="86"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="86"/>
-      <c r="K48" s="86"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="78"/>
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="38"/>
-      <c r="B49" s="90" t="s">
+      <c r="B49" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="91"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="91"/>
-      <c r="H49" s="91"/>
-      <c r="I49" s="91"/>
-      <c r="J49" s="91"/>
-      <c r="K49" s="92"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="105"/>
+      <c r="K49" s="106"/>
       <c r="L49" s="38"/>
       <c r="M49" s="38"/>
     </row>
@@ -6427,12 +6449,12 @@
       <c r="B50" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="93" t="s">
+      <c r="C50" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="96"/>
       <c r="G50" s="9" t="s">
         <v>29</v>
       </c>
@@ -6454,12 +6476,12 @@
     <row r="51" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="38"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="93" t="s">
+      <c r="C51" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="96"/>
       <c r="G51" s="9"/>
       <c r="H51" s="15"/>
       <c r="I51" s="9"/>
@@ -6472,16 +6494,16 @@
     </row>
     <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="38"/>
-      <c r="B52" s="78" t="s">
+      <c r="B52" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="79"/>
-      <c r="I52" s="80"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="84"/>
       <c r="J52" s="15">
         <v>0</v>
       </c>
@@ -6491,18 +6513,18 @@
     </row>
     <row r="53" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
-      <c r="B53" s="86" t="s">
+      <c r="B53" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="86"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="86"/>
-      <c r="I53" s="86"/>
-      <c r="J53" s="86"/>
-      <c r="K53" s="86"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
       <c r="L53" s="38"/>
       <c r="M53" s="38"/>
     </row>
@@ -6511,12 +6533,12 @@
       <c r="B54" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="75" t="s">
+      <c r="C54" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="77"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="91"/>
       <c r="G54" s="9"/>
       <c r="H54" s="15" t="s">
         <v>66</v>
@@ -6538,10 +6560,10 @@
       <c r="B55" s="8">
         <v>1</v>
       </c>
-      <c r="C55" s="75"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="77"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="91"/>
       <c r="G55" s="9"/>
       <c r="H55" s="15"/>
       <c r="I55" s="9"/>
@@ -6555,10 +6577,10 @@
     <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="38"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="77"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="91"/>
       <c r="G56" s="9"/>
       <c r="H56" s="15"/>
       <c r="I56" s="9"/>
@@ -6569,16 +6591,16 @@
     </row>
     <row r="57" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="38"/>
-      <c r="B57" s="78" t="s">
+      <c r="B57" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="80"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="84"/>
       <c r="J57" s="15">
         <f>SUM(J55:J56)</f>
         <v>0</v>
@@ -6589,18 +6611,18 @@
     </row>
     <row r="58" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A58" s="38"/>
-      <c r="B58" s="85" t="s">
+      <c r="B58" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="86"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="86"/>
-      <c r="I58" s="86"/>
-      <c r="J58" s="86"/>
-      <c r="K58" s="86"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="78"/>
+      <c r="H58" s="78"/>
+      <c r="I58" s="78"/>
+      <c r="J58" s="78"/>
+      <c r="K58" s="78"/>
       <c r="L58" s="38"/>
       <c r="M58" s="38"/>
     </row>
@@ -6609,13 +6631,13 @@
       <c r="B59" s="8">
         <v>1</v>
       </c>
-      <c r="C59" s="87" t="s">
+      <c r="C59" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="88"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="89"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="110"/>
       <c r="H59" s="29" t="s">
         <v>71</v>
       </c>
@@ -6632,13 +6654,13 @@
       <c r="B60" s="30">
         <v>2</v>
       </c>
-      <c r="C60" s="87" t="s">
+      <c r="C60" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="89"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="109"/>
+      <c r="G60" s="110"/>
       <c r="H60" s="34"/>
       <c r="I60" s="32"/>
       <c r="J60" s="29"/>
@@ -6651,13 +6673,13 @@
       <c r="B61" s="8">
         <v>3</v>
       </c>
-      <c r="C61" s="87" t="s">
+      <c r="C61" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="88"/>
-      <c r="E61" s="88"/>
-      <c r="F61" s="88"/>
-      <c r="G61" s="89"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="109"/>
+      <c r="F61" s="109"/>
+      <c r="G61" s="110"/>
       <c r="H61" s="21"/>
       <c r="I61" s="9"/>
       <c r="J61" s="29"/>
@@ -6670,13 +6692,13 @@
       <c r="B62" s="30">
         <v>4</v>
       </c>
-      <c r="C62" s="87" t="s">
+      <c r="C62" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="88"/>
-      <c r="E62" s="88"/>
-      <c r="F62" s="88"/>
-      <c r="G62" s="89"/>
+      <c r="D62" s="109"/>
+      <c r="E62" s="109"/>
+      <c r="F62" s="109"/>
+      <c r="G62" s="110"/>
       <c r="H62" s="21"/>
       <c r="I62" s="9"/>
       <c r="J62" s="29"/>
@@ -6689,11 +6711,11 @@
       <c r="B63" s="8">
         <v>5</v>
       </c>
-      <c r="C63" s="75"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="77"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="91"/>
       <c r="H63" s="21"/>
       <c r="I63" s="9"/>
       <c r="J63" s="29"/>
@@ -6703,16 +6725,16 @@
     </row>
     <row r="64" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="38"/>
-      <c r="B64" s="78" t="s">
+      <c r="B64" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="79"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="79"/>
-      <c r="I64" s="80"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="84"/>
       <c r="J64" s="21">
         <f>SUM(J59:J63)</f>
         <v>0</v>
@@ -6723,16 +6745,16 @@
     </row>
     <row r="65" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="38"/>
-      <c r="B65" s="81" t="s">
+      <c r="B65" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="82"/>
-      <c r="I65" s="83"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="115"/>
+      <c r="G65" s="115"/>
+      <c r="H65" s="115"/>
+      <c r="I65" s="116"/>
       <c r="J65" s="35">
         <f>J11+J15+J37+J47+J52+J57+J64</f>
         <v>0</v>
@@ -6743,16 +6765,16 @@
     </row>
     <row r="66" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="38"/>
-      <c r="B66" s="81" t="s">
+      <c r="B66" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="82"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="82"/>
-      <c r="H66" s="82"/>
-      <c r="I66" s="83"/>
+      <c r="C66" s="115"/>
+      <c r="D66" s="115"/>
+      <c r="E66" s="115"/>
+      <c r="F66" s="115"/>
+      <c r="G66" s="115"/>
+      <c r="H66" s="115"/>
+      <c r="I66" s="116"/>
       <c r="J66" s="35">
         <f>J65/6.89</f>
         <v>0</v>
@@ -8788,6 +8810,66 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:K58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
@@ -8795,66 +8877,6 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:K48"/>
-    <mergeCell ref="B49:K49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:K53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:K58"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="B66:I66"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8927,18 +8949,18 @@
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
     </row>
@@ -8948,12 +8970,12 @@
       <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
       <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
@@ -9010,10 +9032,10 @@
       <c r="A8" s="38"/>
       <c r="B8" s="38"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="82"/>
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
       <c r="J8" s="12"/>
@@ -9025,16 +9047,16 @@
     <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="80"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="84"/>
       <c r="K9" s="15"/>
       <c r="L9" s="16"/>
       <c r="M9" s="38"/>
@@ -9043,16 +9065,16 @@
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="108"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
       <c r="K10" s="15">
         <f>SUM(K8:K9)</f>
         <v>0</v>
@@ -9064,18 +9086,18 @@
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="38"/>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
     </row>
@@ -9083,12 +9105,12 @@
       <c r="A12" s="38"/>
       <c r="B12" s="38"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="77"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
       <c r="H12" s="9" t="s">
         <v>29</v>
       </c>
@@ -9115,10 +9137,10 @@
       <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="103"/>
       <c r="H13" s="9" t="s">
         <v>29</v>
       </c>
@@ -9138,10 +9160,10 @@
       <c r="C14" s="8">
         <v>2</v>
       </c>
-      <c r="D14" s="99"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="103"/>
       <c r="H14" s="9" t="s">
         <v>29</v>
       </c>
@@ -9158,16 +9180,16 @@
     <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="80"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="84"/>
       <c r="K15" s="15">
         <f>SUM(K12:K14)</f>
         <v>0</v>
@@ -9179,36 +9201,36 @@
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="92"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="106"/>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
     </row>
@@ -9218,12 +9240,12 @@
       <c r="C18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="93" t="s">
+      <c r="D18" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="96"/>
       <c r="H18" s="9" t="s">
         <v>29</v>
       </c>
@@ -9248,12 +9270,12 @@
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="93" t="s">
+      <c r="D19" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="96"/>
       <c r="H19" s="9"/>
       <c r="I19" s="15"/>
       <c r="J19" s="9"/>
@@ -9267,16 +9289,16 @@
     <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="80"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="84"/>
       <c r="K20" s="15">
         <v>0</v>
       </c>
@@ -9287,18 +9309,18 @@
     <row r="21" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
     </row>
@@ -9308,11 +9330,11 @@
       <c r="C22" s="8">
         <v>1</v>
       </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="89"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="110"/>
       <c r="I22" s="29" t="s">
         <v>71</v>
       </c>
@@ -9330,11 +9352,11 @@
       <c r="C23" s="30">
         <v>2</v>
       </c>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="89"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="110"/>
       <c r="I23" s="34"/>
       <c r="J23" s="32"/>
       <c r="K23" s="29"/>
@@ -9348,11 +9370,11 @@
       <c r="C24" s="8">
         <v>3</v>
       </c>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="89"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="110"/>
       <c r="I24" s="21"/>
       <c r="J24" s="9"/>
       <c r="K24" s="29"/>
@@ -9366,11 +9388,11 @@
       <c r="C25" s="30">
         <v>4</v>
       </c>
-      <c r="D25" s="87"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="89"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="110"/>
       <c r="I25" s="21"/>
       <c r="J25" s="9"/>
       <c r="K25" s="29"/>
@@ -9384,11 +9406,11 @@
       <c r="C26" s="8">
         <v>5</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="77"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="91"/>
       <c r="I26" s="21"/>
       <c r="J26" s="9"/>
       <c r="K26" s="29"/>
@@ -12198,27 +12220,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="C20:J20"/>
     <mergeCell ref="D26:H26"/>
     <mergeCell ref="C21:L21"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="D23:H23"/>
     <mergeCell ref="D24:H24"/>
     <mergeCell ref="D25:H25"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12229,20 +12251,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="10" width="9" customWidth="1"/>
+    <col min="2" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="28.375" customWidth="1"/>
+    <col min="8" max="8" width="40.625" customWidth="1"/>
+    <col min="9" max="9" width="33.5" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12301,7 +12321,7 @@
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="119" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="120"/>
       <c r="D5" s="120"/>
@@ -12319,25 +12339,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F6" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="125" t="s">
         <v>178</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>179</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -12354,7 +12374,7 @@
       <c r="E7" s="45"/>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="H7" s="65"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -12379,7 +12399,7 @@
       <c r="G8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="122" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="2"/>
@@ -12388,26 +12408,26 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
-      <c r="B9" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" s="52" t="s">
+      <c r="B9" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="E9" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="F9" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="G9" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="H9" s="55" t="s">
         <v>184</v>
-      </c>
-      <c r="H9" s="52" t="s">
-        <v>185</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -12423,9 +12443,9 @@
         <v>103</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="H10" s="42"/>
+        <v>195</v>
+      </c>
+      <c r="H10" s="123"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -12467,7 +12487,7 @@
       <c r="G12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="122" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="2"/>
@@ -12476,25 +12496,27 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="B13" s="52" t="s">
-        <v>193</v>
+      <c r="B13" s="51" t="s">
+        <v>192</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="71" t="s">
-        <v>207</v>
+      <c r="F13" s="70" t="s">
+        <v>206</v>
       </c>
       <c r="G13" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="16"/>
+        <v>222</v>
+      </c>
+      <c r="H13" s="55" t="s">
+        <v>223</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -12509,9 +12531,9 @@
         <v>26</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="H14" s="42"/>
+        <v>196</v>
+      </c>
+      <c r="H14" s="123"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -12546,7 +12568,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>14</v>
@@ -12560,24 +12582,24 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
-      <c r="B17" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="53" t="s">
+      <c r="B17" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="52"/>
+      <c r="E17" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="71" t="s">
+      <c r="F17" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="G17" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="G17" s="71" t="s">
+      <c r="H17" s="55" t="s">
         <v>145</v>
-      </c>
-      <c r="H17" s="53" t="s">
-        <v>146</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -12593,7 +12615,7 @@
         <v>109</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="2"/>
@@ -12630,7 +12652,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>14</v>
@@ -12644,24 +12666,24 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
-      <c r="B21" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="C21" s="53" t="s">
+      <c r="B21" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="52"/>
+      <c r="E21" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="71" t="s">
+      <c r="F21" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="G21" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="G21" s="71" t="s">
+      <c r="H21" s="55" t="s">
         <v>150</v>
-      </c>
-      <c r="H21" s="53" t="s">
-        <v>151</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -12673,11 +12695,11 @@
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
       <c r="E22" s="49"/>
-      <c r="F22" s="61" t="s">
+      <c r="F22" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="62" t="s">
-        <v>199</v>
+      <c r="G22" s="61" t="s">
+        <v>198</v>
       </c>
       <c r="H22" s="49"/>
       <c r="I22" s="2"/>
@@ -12686,34 +12708,34 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
-      <c r="B23" s="70" t="s">
-        <v>221</v>
-      </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="68"/>
+      <c r="B23" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23" s="69"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="67"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -12745,24 +12767,24 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
-      <c r="B26" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="C26" s="53" t="s">
+      <c r="B26" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="52"/>
+      <c r="E26" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="71" t="s">
+      <c r="F26" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="71" t="s">
+      <c r="G26" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="G26" s="71" t="s">
+      <c r="H26" s="55" t="s">
         <v>155</v>
-      </c>
-      <c r="H26" s="53" t="s">
-        <v>156</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -12774,11 +12796,11 @@
       <c r="C27" s="49"/>
       <c r="D27" s="49"/>
       <c r="E27" s="49"/>
-      <c r="F27" s="61" t="s">
+      <c r="F27" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="62" t="s">
-        <v>200</v>
+      <c r="G27" s="61" t="s">
+        <v>199</v>
       </c>
       <c r="H27" s="49"/>
       <c r="I27" s="2"/>
@@ -12787,34 +12809,34 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
-      <c r="B28" s="70" t="s">
-        <v>221</v>
-      </c>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="E28" s="70"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="68"/>
+      <c r="B28" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E28" s="69"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="67"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -12824,11 +12846,11 @@
       <c r="B30" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="57" t="s">
-        <v>209</v>
+      <c r="D30" s="56" t="s">
+        <v>208</v>
       </c>
       <c r="E30" s="48" t="s">
         <v>12</v>
@@ -12848,26 +12870,26 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
-      <c r="B31" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="C31" s="55" t="s">
+      <c r="B31" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="E31" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="E31" s="71" t="s">
+      <c r="F31" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="71" t="s">
+      <c r="G31" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="G31" s="71" t="s">
+      <c r="H31" s="55" t="s">
         <v>160</v>
-      </c>
-      <c r="H31" s="53" t="s">
-        <v>161</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -12883,7 +12905,7 @@
         <v>55</v>
       </c>
       <c r="G32" s="50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="2"/>
@@ -12895,15 +12917,15 @@
       <c r="B33" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="54" t="s">
-        <v>208</v>
+      <c r="C33" s="53" t="s">
+        <v>207</v>
       </c>
       <c r="D33" s="45"/>
       <c r="E33" s="45"/>
       <c r="F33" s="45"/>
       <c r="G33" s="45"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="59"/>
+      <c r="I33" s="58"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
@@ -12918,19 +12940,19 @@
       <c r="D34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="58" t="s">
+      <c r="E34" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="F34" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="F34" s="58" t="s">
+      <c r="G34" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="G34" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="H34" s="58" t="s">
+      <c r="H34" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="58" t="s">
+      <c r="I34" s="57" t="s">
         <v>15</v>
       </c>
       <c r="J34" s="2"/>
@@ -12938,29 +12960,29 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
-      <c r="B35" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="D35" s="53" t="s">
-        <v>206</v>
-      </c>
-      <c r="E35" s="71" t="s">
+      <c r="B35" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="E35" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="G35" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="F35" s="71" t="s">
-        <v>217</v>
-      </c>
-      <c r="G35" s="71" t="s">
-        <v>218</v>
-      </c>
-      <c r="H35" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>215</v>
+      <c r="H35" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="I35" s="55" t="s">
+        <v>224</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -12975,7 +12997,7 @@
         <v>122</v>
       </c>
       <c r="G36" s="50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H36" s="42"/>
       <c r="I36" s="2"/>
@@ -13022,20 +13044,20 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
-      <c r="B39" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="C39" s="53" t="s">
+      <c r="B39" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="52"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71" t="s">
+      <c r="H39" s="55" t="s">
         <v>163</v>
-      </c>
-      <c r="H39" s="53" t="s">
-        <v>164</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -13051,7 +13073,7 @@
         <v>126</v>
       </c>
       <c r="G40" s="50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H40" s="42"/>
       <c r="I40" s="2"/>
@@ -13104,26 +13126,26 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
-      <c r="B43" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="C43" s="53" t="s">
+      <c r="B43" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="D43" s="71" t="s">
+      <c r="E43" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="E43" s="71" t="s">
+      <c r="F43" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="F43" s="71" t="s">
+      <c r="G43" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="G43" s="71" t="s">
+      <c r="H43" s="55" t="s">
         <v>169</v>
-      </c>
-      <c r="H43" s="53" t="s">
-        <v>170</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -13139,7 +13161,7 @@
         <v>129</v>
       </c>
       <c r="G44" s="50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H44" s="42"/>
       <c r="I44" s="2"/>
@@ -13177,7 +13199,7 @@
       <c r="G46" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H46" s="122" t="s">
         <v>15</v>
       </c>
       <c r="I46" s="2"/>
@@ -13186,22 +13208,22 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
-      <c r="B47" s="53" t="s">
-        <v>191</v>
+      <c r="B47" s="52" t="s">
+        <v>190</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="H47" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="H47" s="71" t="s">
-        <v>172</v>
-      </c>
-      <c r="I47" s="71"/>
+      <c r="I47" s="124"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
@@ -13215,24 +13237,24 @@
         <v>76</v>
       </c>
       <c r="G48" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="H48" s="42"/>
+        <v>204</v>
+      </c>
+      <c r="H48" s="123"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
-      <c r="B49" s="81" t="s">
+      <c r="B49" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="71" t="s">
-        <v>173</v>
+      <c r="C49" s="115"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="70" t="s">
+        <v>172</v>
       </c>
       <c r="H49" s="25"/>
       <c r="I49" s="2"/>
@@ -13241,15 +13263,15 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
-      <c r="B50" s="81" t="s">
+      <c r="B50" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="71" t="s">
-        <v>174</v>
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="70" t="s">
+        <v>173</v>
       </c>
       <c r="H50" s="25"/>
       <c r="I50" s="2"/>
@@ -13276,8 +13298,8 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="74"/>
-      <c r="H52" s="74"/>
+      <c r="G52" s="113"/>
+      <c r="H52" s="113"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>

--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/NRE.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/NRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\财务报价核价系统__V2\后端github郭琪琪分支\finance_back\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB7DD8F-EFA7-4881-9599-31B08F2E036D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BC01D1-7E38-4E37-9FAB-167E85A12E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -735,8 +735,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="[$-409]d/mmm;@"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]d/mmm;@"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -842,7 +842,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1028,14 +1028,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFF00"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFF00"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFF00"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1069,7 +1082,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1090,16 +1103,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1109,12 +1130,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -1444,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1513,15 +1528,15 @@
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
       <c r="I5" s="5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -2366,12 +2381,12 @@
       <c r="B45" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="1"/>
@@ -2380,16 +2395,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="2" t="s">
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H46" s="36" t="s">
@@ -2404,12 +2419,12 @@
       <c r="B47" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
       <c r="G47" s="34" t="s">
         <v>88</v>
       </c>
@@ -2439,13 +2454,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="43"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="47"/>
       <c r="G49" s="34" t="s">
         <v>90</v>
       </c>
@@ -2456,13 +2471,13 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="43"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="47"/>
       <c r="G50" s="34" t="s">
         <v>91</v>
       </c>
@@ -2475,11 +2490,11 @@
       <c r="A51" s="1"/>
       <c r="B51" s="13"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -2491,8 +2506,8 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>

--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/NRE.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/NRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\财务报价核价系统__V2\后端github郭琪琪分支\finance_back\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BC01D1-7E38-4E37-9FAB-167E85A12E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0163881-4CC8-4A2E-BD82-FEE80A3F69B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="145">
   <si>
     <t>项目名称：</t>
   </si>
@@ -727,6 +727,14 @@
   </si>
   <si>
     <t>{{LaboratoryFeeModels.Remark}}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{LaboratoryFeeModels.UnitPrice}}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1459,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1470,7 +1478,7 @@
     <col min="7" max="7" width="28.375" customWidth="1"/>
     <col min="8" max="8" width="40.625" customWidth="1"/>
     <col min="9" max="9" width="33.5" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2134,7 +2142,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="22"/>
-      <c r="J33" s="1"/>
+      <c r="J33" s="22"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
@@ -2161,9 +2169,11 @@
         <v>6</v>
       </c>
       <c r="I34" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
@@ -2190,9 +2200,11 @@
         <v>138</v>
       </c>
       <c r="I35" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="J35" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
